--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,24 @@
     <t>['64', '90+3']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['10', '46', '67']</t>
+  </si>
+  <si>
+    <t>['13', '90+2']</t>
+  </si>
+  <si>
+    <t>['53', '82']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['8', '25']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -787,9 +805,6 @@
     <t>['12', '47', '65']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['28', '90']</t>
   </si>
   <si>
@@ -899,6 +914,9 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['23', '45', '54']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1522,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1782,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT3">
         <v>1.55</v>
@@ -1973,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2077,7 +2095,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2167,7 +2185,7 @@
         <v>0.82</v>
       </c>
       <c r="AT5">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2355,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT6">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2459,7 +2477,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2546,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT7">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2737,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2841,7 +2859,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3032,7 +3050,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3223,7 +3241,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3310,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT11">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3501,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT12">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3605,7 +3623,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3692,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <v>2.22</v>
@@ -3796,7 +3814,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3883,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT14">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3987,7 +4005,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4178,7 +4196,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4268,7 +4286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4560,7 +4578,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4647,10 +4665,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT18">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>1.61</v>
@@ -4751,7 +4769,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4942,7 +4960,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5029,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT20">
         <v>1.3</v>
@@ -5133,7 +5151,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5324,7 +5342,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5414,7 +5432,7 @@
         <v>0.82</v>
       </c>
       <c r="AT22">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU22">
         <v>1.4</v>
@@ -5515,7 +5533,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5793,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT24">
         <v>0.64</v>
@@ -5984,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT25">
         <v>0.8</v>
@@ -6088,7 +6106,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6369,7 +6387,7 @@
         <v>1.82</v>
       </c>
       <c r="AT27">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6560,7 +6578,7 @@
         <v>1.36</v>
       </c>
       <c r="AT28">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU28">
         <v>1.2</v>
@@ -6661,7 +6679,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6748,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT29">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -6942,7 +6960,7 @@
         <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -7043,7 +7061,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7130,10 +7148,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU31">
         <v>1.05</v>
@@ -7321,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT32">
         <v>1.82</v>
@@ -7515,7 +7533,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU33">
         <v>1.05</v>
@@ -7616,7 +7634,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7706,7 +7724,7 @@
         <v>0.82</v>
       </c>
       <c r="AT34">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -7894,10 +7912,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT35">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU35">
         <v>1.14</v>
@@ -7998,7 +8016,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8085,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8189,7 +8207,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8276,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
         <v>1.3</v>
@@ -8571,7 +8589,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8849,10 +8867,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU40">
         <v>1.61</v>
@@ -8953,7 +8971,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9043,7 +9061,7 @@
         <v>2.1</v>
       </c>
       <c r="AT41">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.37</v>
@@ -9144,7 +9162,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9231,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT42">
         <v>1.55</v>
@@ -9804,10 +9822,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT45">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU45">
         <v>2.41</v>
@@ -9908,7 +9926,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10099,7 +10117,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10189,7 +10207,7 @@
         <v>0.82</v>
       </c>
       <c r="AT47">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -10290,7 +10308,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10377,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT48">
         <v>2.22</v>
@@ -10481,7 +10499,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10571,7 +10589,7 @@
         <v>0.82</v>
       </c>
       <c r="AT49">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU49">
         <v>1.01</v>
@@ -10672,7 +10690,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10762,7 +10780,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU50">
         <v>1.26</v>
@@ -10863,7 +10881,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11054,7 +11072,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11141,7 +11159,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT52">
         <v>0.8</v>
@@ -11523,7 +11541,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT54">
         <v>1.82</v>
@@ -11627,7 +11645,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11714,10 +11732,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -11905,10 +11923,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT56">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12096,10 +12114,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT57">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU57">
         <v>2.14</v>
@@ -12287,10 +12305,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT58">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12391,7 +12409,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12478,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT59">
         <v>1.55</v>
@@ -12582,7 +12600,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12669,7 +12687,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT60">
         <v>0.64</v>
@@ -12863,7 +12881,7 @@
         <v>2.09</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13051,10 +13069,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT62">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU62">
         <v>1.7</v>
@@ -13436,7 +13454,7 @@
         <v>0.82</v>
       </c>
       <c r="AT64">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13537,7 +13555,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13728,7 +13746,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13818,7 +13836,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU66">
         <v>1.31</v>
@@ -14009,7 +14027,7 @@
         <v>1.36</v>
       </c>
       <c r="AT67">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>1.01</v>
@@ -14110,7 +14128,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14197,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT68">
         <v>1.82</v>
@@ -14301,7 +14319,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14391,7 +14409,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU69">
         <v>1.37</v>
@@ -14492,7 +14510,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14683,7 +14701,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14874,7 +14892,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14961,7 +14979,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT72">
         <v>1.6</v>
@@ -15065,7 +15083,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15152,7 +15170,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT73">
         <v>0.8</v>
@@ -15256,7 +15274,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15343,7 +15361,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT74">
         <v>0.64</v>
@@ -15447,7 +15465,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15534,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT75">
         <v>1.82</v>
@@ -15725,10 +15743,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT76">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.1</v>
@@ -15829,7 +15847,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15916,10 +15934,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU77">
         <v>1.14</v>
@@ -16020,7 +16038,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16110,7 +16128,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16211,7 +16229,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16298,10 +16316,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU79">
         <v>1.8</v>
@@ -16402,7 +16420,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16683,7 +16701,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16871,10 +16889,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU82">
         <v>1.7</v>
@@ -16975,7 +16993,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17166,7 +17184,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17253,7 +17271,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
         <v>1.3</v>
@@ -17444,7 +17462,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT85">
         <v>0.64</v>
@@ -17548,7 +17566,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17635,10 +17653,10 @@
         <v>2.4</v>
       </c>
       <c r="AS86">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT86">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17826,10 +17844,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT87">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -18121,7 +18139,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18211,7 +18229,7 @@
         <v>1.82</v>
       </c>
       <c r="AT89">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU89">
         <v>1.4</v>
@@ -18503,7 +18521,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18590,10 +18608,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18694,7 +18712,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18781,10 +18799,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18885,7 +18903,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18972,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
         <v>1.6</v>
@@ -19076,7 +19094,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19458,7 +19476,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19649,7 +19667,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19736,10 +19754,10 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT97">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -19930,7 +19948,7 @@
         <v>0.82</v>
       </c>
       <c r="AT98">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.08</v>
@@ -20031,7 +20049,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20118,7 +20136,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>0.64</v>
@@ -20413,7 +20431,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20500,10 +20518,10 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU101">
         <v>2.02</v>
@@ -20604,7 +20622,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20691,7 +20709,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20885,7 +20903,7 @@
         <v>1.27</v>
       </c>
       <c r="AT103">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU103">
         <v>1.24</v>
@@ -21073,10 +21091,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT104">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU104">
         <v>1.03</v>
@@ -21264,10 +21282,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT105">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU105">
         <v>1.51</v>
@@ -21458,7 +21476,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21559,7 +21577,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21649,7 +21667,7 @@
         <v>2.1</v>
       </c>
       <c r="AT107">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21750,7 +21768,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21837,10 +21855,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT108">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -22028,7 +22046,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT109">
         <v>1.3</v>
@@ -22132,7 +22150,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22219,7 +22237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT110">
         <v>1.55</v>
@@ -22413,7 +22431,7 @@
         <v>0.82</v>
       </c>
       <c r="AT111">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU111">
         <v>1.2</v>
@@ -22514,7 +22532,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22601,7 +22619,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT112">
         <v>1.6</v>
@@ -22795,7 +22813,7 @@
         <v>1.82</v>
       </c>
       <c r="AT113">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -22986,7 +23004,7 @@
         <v>1.33</v>
       </c>
       <c r="AT114">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU114">
         <v>1.16</v>
@@ -23087,7 +23105,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23469,7 +23487,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23556,7 +23574,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23750,7 +23768,7 @@
         <v>1.82</v>
       </c>
       <c r="AT118">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23851,7 +23869,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24042,7 +24060,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24129,7 +24147,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT120">
         <v>1.6</v>
@@ -24233,7 +24251,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24514,7 +24532,7 @@
         <v>0.82</v>
       </c>
       <c r="AT122">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU122">
         <v>1.14</v>
@@ -24896,7 +24914,7 @@
         <v>1.36</v>
       </c>
       <c r="AT124">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>1.29</v>
@@ -24997,7 +25015,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25084,7 +25102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT125">
         <v>1.82</v>
@@ -25188,7 +25206,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25275,10 +25293,10 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU126">
         <v>1.76</v>
@@ -25379,7 +25397,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25466,7 +25484,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT127">
         <v>0.64</v>
@@ -25657,7 +25675,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT128">
         <v>0.64</v>
@@ -25761,7 +25779,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25851,7 +25869,7 @@
         <v>1.36</v>
       </c>
       <c r="AT129">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU129">
         <v>1.26</v>
@@ -25952,7 +25970,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26039,10 +26057,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT130">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26143,7 +26161,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26421,10 +26439,10 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT132">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU132">
         <v>1</v>
@@ -26612,10 +26630,10 @@
         <v>0.5</v>
       </c>
       <c r="AS133">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT133">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -26806,7 +26824,7 @@
         <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -26907,7 +26925,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27098,7 +27116,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27185,7 +27203,7 @@
         <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT136">
         <v>1.82</v>
@@ -27289,7 +27307,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27376,10 +27394,10 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT137">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.56</v>
@@ -27480,7 +27498,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27671,7 +27689,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27862,7 +27880,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27952,7 +27970,7 @@
         <v>0.82</v>
       </c>
       <c r="AT140">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU140">
         <v>1.12</v>
@@ -28053,7 +28071,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28331,7 +28349,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT142">
         <v>1</v>
@@ -28525,7 +28543,7 @@
         <v>2.1</v>
       </c>
       <c r="AT143">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU143">
         <v>1.7</v>
@@ -28626,7 +28644,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28713,10 +28731,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT144">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU144">
         <v>1.58</v>
@@ -28904,7 +28922,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT145">
         <v>2.22</v>
@@ -29199,7 +29217,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29390,7 +29408,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29480,7 +29498,7 @@
         <v>2.09</v>
       </c>
       <c r="AT148">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU148">
         <v>1.46</v>
@@ -29772,7 +29790,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29859,7 +29877,7 @@
         <v>0.67</v>
       </c>
       <c r="AS150">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
         <v>0.64</v>
@@ -30053,7 +30071,7 @@
         <v>0.82</v>
       </c>
       <c r="AT151">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU151">
         <v>1.08</v>
@@ -30345,7 +30363,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30432,7 +30450,7 @@
         <v>1.63</v>
       </c>
       <c r="AS153">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT153">
         <v>1.6</v>
@@ -30626,7 +30644,7 @@
         <v>0.82</v>
       </c>
       <c r="AT154">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30814,10 +30832,10 @@
         <v>2</v>
       </c>
       <c r="AS155">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT155">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU155">
         <v>1.4</v>
@@ -30918,7 +30936,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31005,10 +31023,10 @@
         <v>1.38</v>
       </c>
       <c r="AS156">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT156">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31109,7 +31127,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31196,10 +31214,10 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT157">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31300,7 +31318,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31387,10 +31405,10 @@
         <v>1.89</v>
       </c>
       <c r="AS158">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT158">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU158">
         <v>1.87</v>
@@ -31491,7 +31509,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31578,7 +31596,7 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT159">
         <v>1.82</v>
@@ -31682,7 +31700,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31772,7 +31790,7 @@
         <v>2.1</v>
       </c>
       <c r="AT160">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31873,7 +31891,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32342,10 +32360,10 @@
         <v>0.38</v>
       </c>
       <c r="AS163">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT163">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU163">
         <v>1.2</v>
@@ -32918,7 +32936,7 @@
         <v>2.09</v>
       </c>
       <c r="AT166">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU166">
         <v>1.48</v>
@@ -33297,10 +33315,10 @@
         <v>0.63</v>
       </c>
       <c r="AS168">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT168">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU168">
         <v>1.42</v>
@@ -33401,7 +33419,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33491,7 +33509,7 @@
         <v>1.36</v>
       </c>
       <c r="AT169">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU169">
         <v>1.18</v>
@@ -33592,7 +33610,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33679,7 +33697,7 @@
         <v>1.78</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT170">
         <v>1.55</v>
@@ -33870,7 +33888,7 @@
         <v>0.67</v>
       </c>
       <c r="AS171">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT171">
         <v>0.64</v>
@@ -33974,7 +33992,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34165,7 +34183,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34443,10 +34461,10 @@
         <v>1.7</v>
       </c>
       <c r="AS174">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT174">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU174">
         <v>1.97</v>
@@ -34738,7 +34756,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35019,7 +35037,7 @@
         <v>1.67</v>
       </c>
       <c r="AT177">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU177">
         <v>1.53</v>
@@ -35207,7 +35225,7 @@
         <v>1.1</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35311,7 +35329,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35644,6 +35662,1725 @@
       </c>
       <c r="BK180">
         <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5189112</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45122.04166666666</v>
+      </c>
+      <c r="F181">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>76</v>
+      </c>
+      <c r="H181" t="s">
+        <v>81</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>84</v>
+      </c>
+      <c r="P181" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q181">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>5</v>
+      </c>
+      <c r="T181">
+        <v>2.35</v>
+      </c>
+      <c r="U181">
+        <v>2.3</v>
+      </c>
+      <c r="V181">
+        <v>3.9</v>
+      </c>
+      <c r="W181">
+        <v>1.29</v>
+      </c>
+      <c r="X181">
+        <v>3.4</v>
+      </c>
+      <c r="Y181">
+        <v>2.25</v>
+      </c>
+      <c r="Z181">
+        <v>1.57</v>
+      </c>
+      <c r="AA181">
+        <v>4.75</v>
+      </c>
+      <c r="AB181">
+        <v>1.15</v>
+      </c>
+      <c r="AC181">
+        <v>1.65</v>
+      </c>
+      <c r="AD181">
+        <v>3.95</v>
+      </c>
+      <c r="AE181">
+        <v>3.7</v>
+      </c>
+      <c r="AF181">
+        <v>1.02</v>
+      </c>
+      <c r="AG181">
+        <v>12</v>
+      </c>
+      <c r="AH181">
+        <v>1.15</v>
+      </c>
+      <c r="AI181">
+        <v>4.75</v>
+      </c>
+      <c r="AJ181">
+        <v>1.75</v>
+      </c>
+      <c r="AK181">
+        <v>1.93</v>
+      </c>
+      <c r="AL181">
+        <v>1.52</v>
+      </c>
+      <c r="AM181">
+        <v>2.35</v>
+      </c>
+      <c r="AN181">
+        <v>1.26</v>
+      </c>
+      <c r="AO181">
+        <v>1.24</v>
+      </c>
+      <c r="AP181">
+        <v>1.9</v>
+      </c>
+      <c r="AQ181">
+        <v>1.11</v>
+      </c>
+      <c r="AR181">
+        <v>0.78</v>
+      </c>
+      <c r="AS181">
+        <v>1</v>
+      </c>
+      <c r="AT181">
+        <v>1</v>
+      </c>
+      <c r="AU181">
+        <v>1.72</v>
+      </c>
+      <c r="AV181">
+        <v>1.32</v>
+      </c>
+      <c r="AW181">
+        <v>3.04</v>
+      </c>
+      <c r="AX181">
+        <v>1.73</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>2.5</v>
+      </c>
+      <c r="BA181">
+        <v>1.3</v>
+      </c>
+      <c r="BB181">
+        <v>1.57</v>
+      </c>
+      <c r="BC181">
+        <v>1.92</v>
+      </c>
+      <c r="BD181">
+        <v>2.37</v>
+      </c>
+      <c r="BE181">
+        <v>3.1</v>
+      </c>
+      <c r="BF181">
+        <v>4</v>
+      </c>
+      <c r="BG181">
+        <v>3</v>
+      </c>
+      <c r="BH181">
+        <v>7</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>11</v>
+      </c>
+      <c r="BK181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5189113</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45122.29166666666</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" t="s">
+        <v>65</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>84</v>
+      </c>
+      <c r="P182" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>6</v>
+      </c>
+      <c r="S182">
+        <v>10</v>
+      </c>
+      <c r="T182">
+        <v>2.6</v>
+      </c>
+      <c r="U182">
+        <v>2.38</v>
+      </c>
+      <c r="V182">
+        <v>3.4</v>
+      </c>
+      <c r="W182">
+        <v>1.27</v>
+      </c>
+      <c r="X182">
+        <v>3.45</v>
+      </c>
+      <c r="Y182">
+        <v>2.29</v>
+      </c>
+      <c r="Z182">
+        <v>1.56</v>
+      </c>
+      <c r="AA182">
+        <v>4.95</v>
+      </c>
+      <c r="AB182">
+        <v>1.14</v>
+      </c>
+      <c r="AC182">
+        <v>2.15</v>
+      </c>
+      <c r="AD182">
+        <v>3.6</v>
+      </c>
+      <c r="AE182">
+        <v>2.92</v>
+      </c>
+      <c r="AF182">
+        <v>1.03</v>
+      </c>
+      <c r="AG182">
+        <v>11</v>
+      </c>
+      <c r="AH182">
+        <v>1.17</v>
+      </c>
+      <c r="AI182">
+        <v>4.75</v>
+      </c>
+      <c r="AJ182">
+        <v>1.47</v>
+      </c>
+      <c r="AK182">
+        <v>2.5</v>
+      </c>
+      <c r="AL182">
+        <v>1.47</v>
+      </c>
+      <c r="AM182">
+        <v>2.55</v>
+      </c>
+      <c r="AN182">
+        <v>1.33</v>
+      </c>
+      <c r="AO182">
+        <v>1.26</v>
+      </c>
+      <c r="AP182">
+        <v>1.58</v>
+      </c>
+      <c r="AQ182">
+        <v>2.56</v>
+      </c>
+      <c r="AR182">
+        <v>1.3</v>
+      </c>
+      <c r="AS182">
+        <v>2.3</v>
+      </c>
+      <c r="AT182">
+        <v>1.45</v>
+      </c>
+      <c r="AU182">
+        <v>1.66</v>
+      </c>
+      <c r="AV182">
+        <v>1.46</v>
+      </c>
+      <c r="AW182">
+        <v>3.12</v>
+      </c>
+      <c r="AX182">
+        <v>1.83</v>
+      </c>
+      <c r="AY182">
+        <v>8</v>
+      </c>
+      <c r="AZ182">
+        <v>2.3</v>
+      </c>
+      <c r="BA182">
+        <v>1.28</v>
+      </c>
+      <c r="BB182">
+        <v>1.52</v>
+      </c>
+      <c r="BC182">
+        <v>1.83</v>
+      </c>
+      <c r="BD182">
+        <v>2.35</v>
+      </c>
+      <c r="BE182">
+        <v>3</v>
+      </c>
+      <c r="BF182">
+        <v>6</v>
+      </c>
+      <c r="BG182">
+        <v>7</v>
+      </c>
+      <c r="BH182">
+        <v>5</v>
+      </c>
+      <c r="BI182">
+        <v>7</v>
+      </c>
+      <c r="BJ182">
+        <v>11</v>
+      </c>
+      <c r="BK182">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5189114</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45123.25</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>66</v>
+      </c>
+      <c r="H183" t="s">
+        <v>68</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>206</v>
+      </c>
+      <c r="P183" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q183">
+        <v>8</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>1.83</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>7.5</v>
+      </c>
+      <c r="W183">
+        <v>1.33</v>
+      </c>
+      <c r="X183">
+        <v>3.25</v>
+      </c>
+      <c r="Y183">
+        <v>2.5</v>
+      </c>
+      <c r="Z183">
+        <v>1.5</v>
+      </c>
+      <c r="AA183">
+        <v>6.5</v>
+      </c>
+      <c r="AB183">
+        <v>1.11</v>
+      </c>
+      <c r="AC183">
+        <v>1.19</v>
+      </c>
+      <c r="AD183">
+        <v>6.51</v>
+      </c>
+      <c r="AE183">
+        <v>18</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>10</v>
+      </c>
+      <c r="AH183">
+        <v>1.22</v>
+      </c>
+      <c r="AI183">
+        <v>4</v>
+      </c>
+      <c r="AJ183">
+        <v>1.68</v>
+      </c>
+      <c r="AK183">
+        <v>2.1</v>
+      </c>
+      <c r="AL183">
+        <v>2</v>
+      </c>
+      <c r="AM183">
+        <v>1.75</v>
+      </c>
+      <c r="AN183">
+        <v>1.07</v>
+      </c>
+      <c r="AO183">
+        <v>1.17</v>
+      </c>
+      <c r="AP183">
+        <v>3.1</v>
+      </c>
+      <c r="AQ183">
+        <v>1.7</v>
+      </c>
+      <c r="AR183">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS183">
+        <v>1.64</v>
+      </c>
+      <c r="AT183">
+        <v>0.6</v>
+      </c>
+      <c r="AU183">
+        <v>1.92</v>
+      </c>
+      <c r="AV183">
+        <v>1.44</v>
+      </c>
+      <c r="AW183">
+        <v>3.36</v>
+      </c>
+      <c r="AX183">
+        <v>1.22</v>
+      </c>
+      <c r="AY183">
+        <v>10</v>
+      </c>
+      <c r="AZ183">
+        <v>5</v>
+      </c>
+      <c r="BA183">
+        <v>1.23</v>
+      </c>
+      <c r="BB183">
+        <v>1.44</v>
+      </c>
+      <c r="BC183">
+        <v>2</v>
+      </c>
+      <c r="BD183">
+        <v>2.25</v>
+      </c>
+      <c r="BE183">
+        <v>2.98</v>
+      </c>
+      <c r="BF183">
+        <v>5</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>5</v>
+      </c>
+      <c r="BI183">
+        <v>6</v>
+      </c>
+      <c r="BJ183">
+        <v>10</v>
+      </c>
+      <c r="BK183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5189118</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>207</v>
+      </c>
+      <c r="P184" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q184">
+        <v>2</v>
+      </c>
+      <c r="R184">
+        <v>9</v>
+      </c>
+      <c r="S184">
+        <v>11</v>
+      </c>
+      <c r="T184">
+        <v>2.63</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>4.5</v>
+      </c>
+      <c r="W184">
+        <v>1.44</v>
+      </c>
+      <c r="X184">
+        <v>2.63</v>
+      </c>
+      <c r="Y184">
+        <v>3.25</v>
+      </c>
+      <c r="Z184">
+        <v>1.33</v>
+      </c>
+      <c r="AA184">
+        <v>9</v>
+      </c>
+      <c r="AB184">
+        <v>1.07</v>
+      </c>
+      <c r="AC184">
+        <v>1.99</v>
+      </c>
+      <c r="AD184">
+        <v>3.52</v>
+      </c>
+      <c r="AE184">
+        <v>3.84</v>
+      </c>
+      <c r="AF184">
+        <v>1.03</v>
+      </c>
+      <c r="AG184">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH184">
+        <v>1.33</v>
+      </c>
+      <c r="AI184">
+        <v>2.97</v>
+      </c>
+      <c r="AJ184">
+        <v>2.07</v>
+      </c>
+      <c r="AK184">
+        <v>1.71</v>
+      </c>
+      <c r="AL184">
+        <v>1.91</v>
+      </c>
+      <c r="AM184">
+        <v>1.91</v>
+      </c>
+      <c r="AN184">
+        <v>1.26</v>
+      </c>
+      <c r="AO184">
+        <v>1.3</v>
+      </c>
+      <c r="AP184">
+        <v>1.83</v>
+      </c>
+      <c r="AQ184">
+        <v>1.5</v>
+      </c>
+      <c r="AR184">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS184">
+        <v>1.64</v>
+      </c>
+      <c r="AT184">
+        <v>0.5</v>
+      </c>
+      <c r="AU184">
+        <v>1.73</v>
+      </c>
+      <c r="AV184">
+        <v>1.13</v>
+      </c>
+      <c r="AW184">
+        <v>2.86</v>
+      </c>
+      <c r="AX184">
+        <v>1.57</v>
+      </c>
+      <c r="AY184">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184">
+        <v>2.88</v>
+      </c>
+      <c r="BA184">
+        <v>1.26</v>
+      </c>
+      <c r="BB184">
+        <v>1.5</v>
+      </c>
+      <c r="BC184">
+        <v>1.88</v>
+      </c>
+      <c r="BD184">
+        <v>2.41</v>
+      </c>
+      <c r="BE184">
+        <v>3.28</v>
+      </c>
+      <c r="BF184">
+        <v>4</v>
+      </c>
+      <c r="BG184">
+        <v>6</v>
+      </c>
+      <c r="BH184">
+        <v>1</v>
+      </c>
+      <c r="BI184">
+        <v>6</v>
+      </c>
+      <c r="BJ184">
+        <v>5</v>
+      </c>
+      <c r="BK184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5189117</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>69</v>
+      </c>
+      <c r="H185" t="s">
+        <v>80</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>208</v>
+      </c>
+      <c r="P185" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q185">
+        <v>6</v>
+      </c>
+      <c r="R185">
+        <v>7</v>
+      </c>
+      <c r="S185">
+        <v>13</v>
+      </c>
+      <c r="T185">
+        <v>4.33</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>2.63</v>
+      </c>
+      <c r="W185">
+        <v>1.44</v>
+      </c>
+      <c r="X185">
+        <v>2.63</v>
+      </c>
+      <c r="Y185">
+        <v>3</v>
+      </c>
+      <c r="Z185">
+        <v>1.36</v>
+      </c>
+      <c r="AA185">
+        <v>9</v>
+      </c>
+      <c r="AB185">
+        <v>1.07</v>
+      </c>
+      <c r="AC185">
+        <v>4</v>
+      </c>
+      <c r="AD185">
+        <v>3.52</v>
+      </c>
+      <c r="AE185">
+        <v>1.95</v>
+      </c>
+      <c r="AF185">
+        <v>1.07</v>
+      </c>
+      <c r="AG185">
+        <v>7.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.33</v>
+      </c>
+      <c r="AI185">
+        <v>3.2</v>
+      </c>
+      <c r="AJ185">
+        <v>2.04</v>
+      </c>
+      <c r="AK185">
+        <v>1.74</v>
+      </c>
+      <c r="AL185">
+        <v>1.91</v>
+      </c>
+      <c r="AM185">
+        <v>1.91</v>
+      </c>
+      <c r="AN185">
+        <v>1.8</v>
+      </c>
+      <c r="AO185">
+        <v>1.25</v>
+      </c>
+      <c r="AP185">
+        <v>1.25</v>
+      </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
+      <c r="AR185">
+        <v>1.78</v>
+      </c>
+      <c r="AS185">
+        <v>1.2</v>
+      </c>
+      <c r="AT185">
+        <v>1.6</v>
+      </c>
+      <c r="AU185">
+        <v>1.38</v>
+      </c>
+      <c r="AV185">
+        <v>1.43</v>
+      </c>
+      <c r="AW185">
+        <v>2.81</v>
+      </c>
+      <c r="AX185">
+        <v>2.2</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>1.91</v>
+      </c>
+      <c r="BA185">
+        <v>1.23</v>
+      </c>
+      <c r="BB185">
+        <v>1.46</v>
+      </c>
+      <c r="BC185">
+        <v>1.98</v>
+      </c>
+      <c r="BD185">
+        <v>2.29</v>
+      </c>
+      <c r="BE185">
+        <v>3.04</v>
+      </c>
+      <c r="BF185">
+        <v>8</v>
+      </c>
+      <c r="BG185">
+        <v>4</v>
+      </c>
+      <c r="BH185">
+        <v>8</v>
+      </c>
+      <c r="BI185">
+        <v>6</v>
+      </c>
+      <c r="BJ185">
+        <v>16</v>
+      </c>
+      <c r="BK185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5189120</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>71</v>
+      </c>
+      <c r="H186" t="s">
+        <v>72</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>209</v>
+      </c>
+      <c r="P186" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q186">
+        <v>6</v>
+      </c>
+      <c r="R186">
+        <v>6</v>
+      </c>
+      <c r="S186">
+        <v>12</v>
+      </c>
+      <c r="T186">
+        <v>2.1</v>
+      </c>
+      <c r="U186">
+        <v>2.3</v>
+      </c>
+      <c r="V186">
+        <v>6</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>3</v>
+      </c>
+      <c r="Y186">
+        <v>2.75</v>
+      </c>
+      <c r="Z186">
+        <v>1.4</v>
+      </c>
+      <c r="AA186">
+        <v>7</v>
+      </c>
+      <c r="AB186">
+        <v>1.1</v>
+      </c>
+      <c r="AC186">
+        <v>1.37</v>
+      </c>
+      <c r="AD186">
+        <v>4.75</v>
+      </c>
+      <c r="AE186">
+        <v>9.15</v>
+      </c>
+      <c r="AF186">
+        <v>1.04</v>
+      </c>
+      <c r="AG186">
+        <v>10</v>
+      </c>
+      <c r="AH186">
+        <v>1.29</v>
+      </c>
+      <c r="AI186">
+        <v>3.4</v>
+      </c>
+      <c r="AJ186">
+        <v>1.73</v>
+      </c>
+      <c r="AK186">
+        <v>2.04</v>
+      </c>
+      <c r="AL186">
+        <v>1.95</v>
+      </c>
+      <c r="AM186">
+        <v>1.8</v>
+      </c>
+      <c r="AN186">
+        <v>1.11</v>
+      </c>
+      <c r="AO186">
+        <v>1.2</v>
+      </c>
+      <c r="AP186">
+        <v>2.25</v>
+      </c>
+      <c r="AQ186">
+        <v>2</v>
+      </c>
+      <c r="AR186">
+        <v>1.56</v>
+      </c>
+      <c r="AS186">
+        <v>2.09</v>
+      </c>
+      <c r="AT186">
+        <v>1.4</v>
+      </c>
+      <c r="AU186">
+        <v>1.49</v>
+      </c>
+      <c r="AV186">
+        <v>1.16</v>
+      </c>
+      <c r="AW186">
+        <v>2.65</v>
+      </c>
+      <c r="AX186">
+        <v>1.62</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>2.63</v>
+      </c>
+      <c r="BA186">
+        <v>1.23</v>
+      </c>
+      <c r="BB186">
+        <v>1.45</v>
+      </c>
+      <c r="BC186">
+        <v>1.93</v>
+      </c>
+      <c r="BD186">
+        <v>2.27</v>
+      </c>
+      <c r="BE186">
+        <v>3.04</v>
+      </c>
+      <c r="BF186">
+        <v>6</v>
+      </c>
+      <c r="BG186">
+        <v>4</v>
+      </c>
+      <c r="BH186">
+        <v>5</v>
+      </c>
+      <c r="BI186">
+        <v>2</v>
+      </c>
+      <c r="BJ186">
+        <v>11</v>
+      </c>
+      <c r="BK186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5189115</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>67</v>
+      </c>
+      <c r="H187" t="s">
+        <v>79</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+      <c r="K187">
+        <v>3</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>3</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187" t="s">
+        <v>210</v>
+      </c>
+      <c r="P187" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>7</v>
+      </c>
+      <c r="S187">
+        <v>11</v>
+      </c>
+      <c r="T187">
+        <v>3.4</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>3.5</v>
+      </c>
+      <c r="W187">
+        <v>1.5</v>
+      </c>
+      <c r="X187">
+        <v>2.5</v>
+      </c>
+      <c r="Y187">
+        <v>3.4</v>
+      </c>
+      <c r="Z187">
+        <v>1.3</v>
+      </c>
+      <c r="AA187">
+        <v>10</v>
+      </c>
+      <c r="AB187">
+        <v>1.06</v>
+      </c>
+      <c r="AC187">
+        <v>2.61</v>
+      </c>
+      <c r="AD187">
+        <v>3.25</v>
+      </c>
+      <c r="AE187">
+        <v>2.8</v>
+      </c>
+      <c r="AF187">
+        <v>1.08</v>
+      </c>
+      <c r="AG187">
+        <v>7</v>
+      </c>
+      <c r="AH187">
+        <v>1.4</v>
+      </c>
+      <c r="AI187">
+        <v>2.8</v>
+      </c>
+      <c r="AJ187">
+        <v>2.25</v>
+      </c>
+      <c r="AK187">
+        <v>1.6</v>
+      </c>
+      <c r="AL187">
+        <v>1.91</v>
+      </c>
+      <c r="AM187">
+        <v>1.91</v>
+      </c>
+      <c r="AN187">
+        <v>1.36</v>
+      </c>
+      <c r="AO187">
+        <v>1.28</v>
+      </c>
+      <c r="AP187">
+        <v>1.5</v>
+      </c>
+      <c r="AQ187">
+        <v>2.11</v>
+      </c>
+      <c r="AR187">
+        <v>1.64</v>
+      </c>
+      <c r="AS187">
+        <v>1.9</v>
+      </c>
+      <c r="AT187">
+        <v>1.75</v>
+      </c>
+      <c r="AU187">
+        <v>1.42</v>
+      </c>
+      <c r="AV187">
+        <v>1.27</v>
+      </c>
+      <c r="AW187">
+        <v>2.69</v>
+      </c>
+      <c r="AX187">
+        <v>1.83</v>
+      </c>
+      <c r="AY187">
+        <v>8</v>
+      </c>
+      <c r="AZ187">
+        <v>2.25</v>
+      </c>
+      <c r="BA187">
+        <v>1.3</v>
+      </c>
+      <c r="BB187">
+        <v>1.57</v>
+      </c>
+      <c r="BC187">
+        <v>2</v>
+      </c>
+      <c r="BD187">
+        <v>2.62</v>
+      </c>
+      <c r="BE187">
+        <v>3.56</v>
+      </c>
+      <c r="BF187">
+        <v>2</v>
+      </c>
+      <c r="BG187">
+        <v>8</v>
+      </c>
+      <c r="BH187">
+        <v>2</v>
+      </c>
+      <c r="BI187">
+        <v>5</v>
+      </c>
+      <c r="BJ187">
+        <v>4</v>
+      </c>
+      <c r="BK187">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5189119</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>70</v>
+      </c>
+      <c r="H188" t="s">
+        <v>82</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>211</v>
+      </c>
+      <c r="P188" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q188">
+        <v>6</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>8</v>
+      </c>
+      <c r="T188">
+        <v>3.75</v>
+      </c>
+      <c r="U188">
+        <v>2.05</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>1.44</v>
+      </c>
+      <c r="X188">
+        <v>2.63</v>
+      </c>
+      <c r="Y188">
+        <v>3.25</v>
+      </c>
+      <c r="Z188">
+        <v>1.33</v>
+      </c>
+      <c r="AA188">
+        <v>9</v>
+      </c>
+      <c r="AB188">
+        <v>1.07</v>
+      </c>
+      <c r="AC188">
+        <v>2.68</v>
+      </c>
+      <c r="AD188">
+        <v>3.32</v>
+      </c>
+      <c r="AE188">
+        <v>2.69</v>
+      </c>
+      <c r="AF188">
+        <v>1.07</v>
+      </c>
+      <c r="AG188">
+        <v>8</v>
+      </c>
+      <c r="AH188">
+        <v>1.34</v>
+      </c>
+      <c r="AI188">
+        <v>3</v>
+      </c>
+      <c r="AJ188">
+        <v>2.06</v>
+      </c>
+      <c r="AK188">
+        <v>1.72</v>
+      </c>
+      <c r="AL188">
+        <v>1.8</v>
+      </c>
+      <c r="AM188">
+        <v>1.95</v>
+      </c>
+      <c r="AN188">
+        <v>1.6</v>
+      </c>
+      <c r="AO188">
+        <v>1.35</v>
+      </c>
+      <c r="AP188">
+        <v>1.25</v>
+      </c>
+      <c r="AQ188">
+        <v>1.6</v>
+      </c>
+      <c r="AR188">
+        <v>1.6</v>
+      </c>
+      <c r="AS188">
+        <v>1.73</v>
+      </c>
+      <c r="AT188">
+        <v>1.45</v>
+      </c>
+      <c r="AU188">
+        <v>1.2</v>
+      </c>
+      <c r="AV188">
+        <v>1.22</v>
+      </c>
+      <c r="AW188">
+        <v>2.42</v>
+      </c>
+      <c r="AX188">
+        <v>2.25</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>1.83</v>
+      </c>
+      <c r="BA188">
+        <v>1.24</v>
+      </c>
+      <c r="BB188">
+        <v>1.48</v>
+      </c>
+      <c r="BC188">
+        <v>1.83</v>
+      </c>
+      <c r="BD188">
+        <v>2.36</v>
+      </c>
+      <c r="BE188">
+        <v>3.14</v>
+      </c>
+      <c r="BF188">
+        <v>6</v>
+      </c>
+      <c r="BG188">
+        <v>4</v>
+      </c>
+      <c r="BH188">
+        <v>6</v>
+      </c>
+      <c r="BI188">
+        <v>3</v>
+      </c>
+      <c r="BJ188">
+        <v>12</v>
+      </c>
+      <c r="BK188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5189116</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>84</v>
+      </c>
+      <c r="P189" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q189">
+        <v>7</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>7</v>
+      </c>
+      <c r="T189">
+        <v>3.2</v>
+      </c>
+      <c r="U189">
+        <v>2.05</v>
+      </c>
+      <c r="V189">
+        <v>3.6</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>2.63</v>
+      </c>
+      <c r="Y189">
+        <v>3.4</v>
+      </c>
+      <c r="Z189">
+        <v>1.3</v>
+      </c>
+      <c r="AA189">
+        <v>10</v>
+      </c>
+      <c r="AB189">
+        <v>1.06</v>
+      </c>
+      <c r="AC189">
+        <v>2.59</v>
+      </c>
+      <c r="AD189">
+        <v>3.25</v>
+      </c>
+      <c r="AE189">
+        <v>2.83</v>
+      </c>
+      <c r="AF189">
+        <v>1.08</v>
+      </c>
+      <c r="AG189">
+        <v>7</v>
+      </c>
+      <c r="AH189">
+        <v>1.36</v>
+      </c>
+      <c r="AI189">
+        <v>2.95</v>
+      </c>
+      <c r="AJ189">
+        <v>2.16</v>
+      </c>
+      <c r="AK189">
+        <v>1.66</v>
+      </c>
+      <c r="AL189">
+        <v>1.95</v>
+      </c>
+      <c r="AM189">
+        <v>1.8</v>
+      </c>
+      <c r="AN189">
+        <v>1.35</v>
+      </c>
+      <c r="AO189">
+        <v>1.28</v>
+      </c>
+      <c r="AP189">
+        <v>1.53</v>
+      </c>
+      <c r="AQ189">
+        <v>0.67</v>
+      </c>
+      <c r="AR189">
+        <v>0.67</v>
+      </c>
+      <c r="AS189">
+        <v>0.6</v>
+      </c>
+      <c r="AT189">
+        <v>0.9</v>
+      </c>
+      <c r="AU189">
+        <v>1.62</v>
+      </c>
+      <c r="AV189">
+        <v>1.07</v>
+      </c>
+      <c r="AW189">
+        <v>2.69</v>
+      </c>
+      <c r="AX189">
+        <v>1.67</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>2.6</v>
+      </c>
+      <c r="BA189">
+        <v>1.3</v>
+      </c>
+      <c r="BB189">
+        <v>1.57</v>
+      </c>
+      <c r="BC189">
+        <v>1.98</v>
+      </c>
+      <c r="BD189">
+        <v>2.58</v>
+      </c>
+      <c r="BE189">
+        <v>3.48</v>
+      </c>
+      <c r="BF189">
+        <v>4</v>
+      </c>
+      <c r="BG189">
+        <v>3</v>
+      </c>
+      <c r="BH189">
+        <v>5</v>
+      </c>
+      <c r="BI189">
+        <v>2</v>
+      </c>
+      <c r="BJ189">
+        <v>9</v>
+      </c>
+      <c r="BK189">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,9 @@
     <t>['8', '25']</t>
   </si>
   <si>
+    <t>['59', '62']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -917,6 +920,9 @@
   </si>
   <si>
     <t>['23', '45', '54']</t>
+  </si>
+  <si>
+    <t>['23', '30']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1528,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2095,7 +2101,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2477,7 +2483,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2755,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0.9</v>
@@ -2859,7 +2865,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3050,7 +3056,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3241,7 +3247,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3623,7 +3629,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3814,7 +3820,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4005,7 +4011,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4196,7 +4202,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4286,7 +4292,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4578,7 +4584,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4769,7 +4775,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4960,7 +4966,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5151,7 +5157,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5342,7 +5348,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5533,7 +5539,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -6002,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>0.8</v>
@@ -6106,7 +6112,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6679,7 +6685,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6766,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>1.45</v>
@@ -6960,7 +6966,7 @@
         <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -7061,7 +7067,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7634,7 +7640,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -8016,7 +8022,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8207,7 +8213,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8589,7 +8595,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8971,7 +8977,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9162,7 +9168,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9926,7 +9932,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10117,7 +10123,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10308,7 +10314,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10499,7 +10505,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10690,7 +10696,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10881,7 +10887,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11072,7 +11078,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11645,7 +11651,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11735,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -12305,7 +12311,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12409,7 +12415,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12600,7 +12606,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13072,7 +13078,7 @@
         <v>1.64</v>
       </c>
       <c r="AT62">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU62">
         <v>1.7</v>
@@ -13555,7 +13561,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13746,7 +13752,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14128,7 +14134,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14319,7 +14325,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14510,7 +14516,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14701,7 +14707,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14892,7 +14898,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15083,7 +15089,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15274,7 +15280,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15465,7 +15471,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15552,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>1.82</v>
@@ -15847,7 +15853,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16038,7 +16044,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16229,7 +16235,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16420,7 +16426,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16993,7 +16999,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17184,7 +17190,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17462,7 +17468,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.64</v>
@@ -17566,7 +17572,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -18139,7 +18145,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18229,7 +18235,7 @@
         <v>1.82</v>
       </c>
       <c r="AT89">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU89">
         <v>1.4</v>
@@ -18521,7 +18527,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18802,7 +18808,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18903,7 +18909,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19094,7 +19100,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19476,7 +19482,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19667,7 +19673,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20049,7 +20055,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20431,7 +20437,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20622,7 +20628,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21282,7 +21288,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>0.6</v>
@@ -21577,7 +21583,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21768,7 +21774,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21858,7 +21864,7 @@
         <v>1.9</v>
       </c>
       <c r="AT108">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -22046,7 +22052,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT109">
         <v>1.3</v>
@@ -22150,7 +22156,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22532,7 +22538,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23105,7 +23111,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23487,7 +23493,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23869,7 +23875,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24060,7 +24066,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24251,7 +24257,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24532,7 +24538,7 @@
         <v>0.82</v>
       </c>
       <c r="AT122">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU122">
         <v>1.14</v>
@@ -25015,7 +25021,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25206,7 +25212,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25397,7 +25403,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25484,7 +25490,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT127">
         <v>0.64</v>
@@ -25779,7 +25785,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25970,7 +25976,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26161,7 +26167,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26925,7 +26931,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27116,7 +27122,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27307,7 +27313,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27498,7 +27504,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27689,7 +27695,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27880,7 +27886,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28071,7 +28077,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28644,7 +28650,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29217,7 +29223,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29408,7 +29414,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29790,7 +29796,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30363,7 +30369,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30936,7 +30942,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31127,7 +31133,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31318,7 +31324,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31509,7 +31515,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31700,7 +31706,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31790,7 +31796,7 @@
         <v>2.1</v>
       </c>
       <c r="AT160">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31891,7 +31897,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32936,7 +32942,7 @@
         <v>2.09</v>
       </c>
       <c r="AT166">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU166">
         <v>1.48</v>
@@ -33419,7 +33425,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33610,7 +33616,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33697,7 +33703,7 @@
         <v>1.78</v>
       </c>
       <c r="AS170">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT170">
         <v>1.55</v>
@@ -33992,7 +33998,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34183,7 +34189,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34756,7 +34762,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35329,7 +35335,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35992,7 +35998,7 @@
         <v>2.3</v>
       </c>
       <c r="AT182">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU182">
         <v>1.66</v>
@@ -36093,7 +36099,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36284,7 +36290,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36753,7 +36759,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT186">
         <v>1.4</v>
@@ -36857,7 +36863,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37239,7 +37245,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37381,6 +37387,197 @@
       </c>
       <c r="BK189">
         <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5189066</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45129.29166666666</v>
+      </c>
+      <c r="F190">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" t="s">
+        <v>65</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>212</v>
+      </c>
+      <c r="P190" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>6</v>
+      </c>
+      <c r="S190">
+        <v>11</v>
+      </c>
+      <c r="T190">
+        <v>2.88</v>
+      </c>
+      <c r="U190">
+        <v>2.1</v>
+      </c>
+      <c r="V190">
+        <v>3.6</v>
+      </c>
+      <c r="W190">
+        <v>1.38</v>
+      </c>
+      <c r="X190">
+        <v>2.8</v>
+      </c>
+      <c r="Y190">
+        <v>2.7</v>
+      </c>
+      <c r="Z190">
+        <v>1.4</v>
+      </c>
+      <c r="AA190">
+        <v>6</v>
+      </c>
+      <c r="AB190">
+        <v>1.09</v>
+      </c>
+      <c r="AC190">
+        <v>2.26</v>
+      </c>
+      <c r="AD190">
+        <v>3.51</v>
+      </c>
+      <c r="AE190">
+        <v>3.21</v>
+      </c>
+      <c r="AF190">
+        <v>1.05</v>
+      </c>
+      <c r="AG190">
+        <v>9</v>
+      </c>
+      <c r="AH190">
+        <v>1.25</v>
+      </c>
+      <c r="AI190">
+        <v>3.6</v>
+      </c>
+      <c r="AJ190">
+        <v>1.73</v>
+      </c>
+      <c r="AK190">
+        <v>2.05</v>
+      </c>
+      <c r="AL190">
+        <v>1.65</v>
+      </c>
+      <c r="AM190">
+        <v>2.1</v>
+      </c>
+      <c r="AN190">
+        <v>1.4</v>
+      </c>
+      <c r="AO190">
+        <v>1.3</v>
+      </c>
+      <c r="AP190">
+        <v>1.62</v>
+      </c>
+      <c r="AQ190">
+        <v>2.09</v>
+      </c>
+      <c r="AR190">
+        <v>1.45</v>
+      </c>
+      <c r="AS190">
+        <v>2</v>
+      </c>
+      <c r="AT190">
+        <v>1.42</v>
+      </c>
+      <c r="AU190">
+        <v>1.49</v>
+      </c>
+      <c r="AV190">
+        <v>1.49</v>
+      </c>
+      <c r="AW190">
+        <v>2.98</v>
+      </c>
+      <c r="AX190">
+        <v>1.77</v>
+      </c>
+      <c r="AY190">
+        <v>8.6</v>
+      </c>
+      <c r="AZ190">
+        <v>2.43</v>
+      </c>
+      <c r="BA190">
+        <v>1.38</v>
+      </c>
+      <c r="BB190">
+        <v>1.7</v>
+      </c>
+      <c r="BC190">
+        <v>2.16</v>
+      </c>
+      <c r="BD190">
+        <v>2.88</v>
+      </c>
+      <c r="BE190">
+        <v>4</v>
+      </c>
+      <c r="BF190">
+        <v>3</v>
+      </c>
+      <c r="BG190">
+        <v>7</v>
+      </c>
+      <c r="BH190">
+        <v>4</v>
+      </c>
+      <c r="BI190">
+        <v>2</v>
+      </c>
+      <c r="BJ190">
+        <v>7</v>
+      </c>
+      <c r="BK190">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,9 @@
     <t>['59', '62']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -1284,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1531,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2101,7 +2104,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2483,7 +2486,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2573,7 +2576,7 @@
         <v>1.73</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2865,7 +2868,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3056,7 +3059,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3247,7 +3250,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3334,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT11">
         <v>0.6</v>
@@ -3629,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3820,7 +3823,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4011,7 +4014,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4202,7 +4205,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4480,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4584,7 +4587,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4674,7 +4677,7 @@
         <v>1.64</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU18">
         <v>1.61</v>
@@ -4775,7 +4778,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4966,7 +4969,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5056,7 +5059,7 @@
         <v>2.3</v>
       </c>
       <c r="AT20">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU20">
         <v>1.93</v>
@@ -5157,7 +5160,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5348,7 +5351,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5539,7 +5542,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -6112,7 +6115,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6685,7 +6688,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7067,7 +7070,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7640,7 +7643,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -8022,7 +8025,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8109,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8213,7 +8216,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8303,7 +8306,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU37">
         <v>2.2</v>
@@ -8491,7 +8494,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT38">
         <v>0.64</v>
@@ -8595,7 +8598,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8977,7 +8980,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9067,7 +9070,7 @@
         <v>2.1</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU41">
         <v>1.37</v>
@@ -9168,7 +9171,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9932,7 +9935,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10123,7 +10126,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10314,7 +10317,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10505,7 +10508,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10696,7 +10699,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10887,7 +10890,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10977,7 +10980,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -11078,7 +11081,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11165,7 +11168,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT52">
         <v>0.8</v>
@@ -11651,7 +11654,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12314,7 +12317,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12415,7 +12418,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12606,7 +12609,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12884,7 +12887,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT61">
         <v>1.45</v>
@@ -13561,7 +13564,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13651,7 +13654,7 @@
         <v>0.82</v>
       </c>
       <c r="AT65">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>1.03</v>
@@ -13752,7 +13755,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14134,7 +14137,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14221,7 +14224,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT68">
         <v>1.82</v>
@@ -14325,7 +14328,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14516,7 +14519,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14707,7 +14710,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14898,7 +14901,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15089,7 +15092,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15280,7 +15283,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15471,7 +15474,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15853,7 +15856,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16044,7 +16047,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16235,7 +16238,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16426,7 +16429,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16513,7 +16516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT80">
         <v>0.64</v>
@@ -16999,7 +17002,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17190,7 +17193,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17280,7 +17283,7 @@
         <v>1.73</v>
       </c>
       <c r="AT84">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU84">
         <v>1.07</v>
@@ -17572,7 +17575,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17853,7 +17856,7 @@
         <v>1.9</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -18145,7 +18148,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18527,7 +18530,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18909,7 +18912,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19100,7 +19103,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19482,7 +19485,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19569,7 +19572,7 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT96">
         <v>2.22</v>
@@ -19673,7 +19676,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19760,7 +19763,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT97">
         <v>0.5</v>
@@ -19954,7 +19957,7 @@
         <v>0.82</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU98">
         <v>1.08</v>
@@ -20055,7 +20058,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20333,7 +20336,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT100">
         <v>0.8</v>
@@ -20437,7 +20440,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20628,7 +20631,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21583,7 +21586,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21774,7 +21777,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22055,7 +22058,7 @@
         <v>2</v>
       </c>
       <c r="AT109">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -22156,7 +22159,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22243,7 +22246,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT110">
         <v>1.55</v>
@@ -22538,7 +22541,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23111,7 +23114,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23493,7 +23496,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23875,7 +23878,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24066,7 +24069,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24153,7 +24156,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT120">
         <v>1.6</v>
@@ -24257,7 +24260,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24344,10 +24347,10 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT121">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24920,7 +24923,7 @@
         <v>1.36</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU124">
         <v>1.29</v>
@@ -25021,7 +25024,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25212,7 +25215,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25403,7 +25406,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25785,7 +25788,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25976,7 +25979,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26167,7 +26170,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26931,7 +26934,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27021,7 +27024,7 @@
         <v>2.1</v>
       </c>
       <c r="AT135">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27122,7 +27125,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27313,7 +27316,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27400,10 +27403,10 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU137">
         <v>1.56</v>
@@ -27504,7 +27507,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27591,7 +27594,7 @@
         <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT138">
         <v>1.6</v>
@@ -27695,7 +27698,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27886,7 +27889,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28077,7 +28080,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28650,7 +28653,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29223,7 +29226,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29414,7 +29417,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29501,7 +29504,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT148">
         <v>0.9</v>
@@ -29796,7 +29799,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30268,7 +30271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT152">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU152">
         <v>1.62</v>
@@ -30369,7 +30372,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30650,7 +30653,7 @@
         <v>0.82</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30942,7 +30945,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31029,7 +31032,7 @@
         <v>1.38</v>
       </c>
       <c r="AS156">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT156">
         <v>1.4</v>
@@ -31133,7 +31136,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31324,7 +31327,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31515,7 +31518,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31706,7 +31709,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31897,7 +31900,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32751,7 +32754,7 @@
         <v>1.27</v>
       </c>
       <c r="AT165">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU165">
         <v>1.54</v>
@@ -32939,7 +32942,7 @@
         <v>1.44</v>
       </c>
       <c r="AS166">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT166">
         <v>1.42</v>
@@ -33425,7 +33428,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33616,7 +33619,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33998,7 +34001,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34189,7 +34192,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34276,7 +34279,7 @@
         <v>1.9</v>
       </c>
       <c r="AS173">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT173">
         <v>1.82</v>
@@ -34762,7 +34765,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35335,7 +35338,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35807,7 +35810,7 @@
         <v>1</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -36099,7 +36102,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36290,7 +36293,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36863,7 +36866,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37245,7 +37248,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37332,7 +37335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT189">
         <v>0.9</v>
@@ -37436,7 +37439,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37578,6 +37581,388 @@
       </c>
       <c r="BK190">
         <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5189122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45143.29166666666</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>80</v>
+      </c>
+      <c r="H191" t="s">
+        <v>81</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>213</v>
+      </c>
+      <c r="P191" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q191">
+        <v>2</v>
+      </c>
+      <c r="R191">
+        <v>5</v>
+      </c>
+      <c r="S191">
+        <v>7</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>2.2</v>
+      </c>
+      <c r="V191">
+        <v>4.5</v>
+      </c>
+      <c r="W191">
+        <v>1.4</v>
+      </c>
+      <c r="X191">
+        <v>2.75</v>
+      </c>
+      <c r="Y191">
+        <v>2.75</v>
+      </c>
+      <c r="Z191">
+        <v>1.4</v>
+      </c>
+      <c r="AA191">
+        <v>8</v>
+      </c>
+      <c r="AB191">
+        <v>1.08</v>
+      </c>
+      <c r="AC191">
+        <v>1.81</v>
+      </c>
+      <c r="AD191">
+        <v>4.02</v>
+      </c>
+      <c r="AE191">
+        <v>4.15</v>
+      </c>
+      <c r="AF191">
+        <v>1.02</v>
+      </c>
+      <c r="AG191">
+        <v>9.5</v>
+      </c>
+      <c r="AH191">
+        <v>1.3</v>
+      </c>
+      <c r="AI191">
+        <v>3.3</v>
+      </c>
+      <c r="AJ191">
+        <v>1.95</v>
+      </c>
+      <c r="AK191">
+        <v>1.9</v>
+      </c>
+      <c r="AL191">
+        <v>1.8</v>
+      </c>
+      <c r="AM191">
+        <v>1.95</v>
+      </c>
+      <c r="AN191">
+        <v>1.17</v>
+      </c>
+      <c r="AO191">
+        <v>1.22</v>
+      </c>
+      <c r="AP191">
+        <v>1.95</v>
+      </c>
+      <c r="AQ191">
+        <v>2.09</v>
+      </c>
+      <c r="AR191">
+        <v>1</v>
+      </c>
+      <c r="AS191">
+        <v>2.17</v>
+      </c>
+      <c r="AT191">
+        <v>0.91</v>
+      </c>
+      <c r="AU191">
+        <v>1.48</v>
+      </c>
+      <c r="AV191">
+        <v>1.26</v>
+      </c>
+      <c r="AW191">
+        <v>2.74</v>
+      </c>
+      <c r="AX191">
+        <v>1.8</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>2.3</v>
+      </c>
+      <c r="BA191">
+        <v>1.27</v>
+      </c>
+      <c r="BB191">
+        <v>1.53</v>
+      </c>
+      <c r="BC191">
+        <v>2</v>
+      </c>
+      <c r="BD191">
+        <v>2.49</v>
+      </c>
+      <c r="BE191">
+        <v>3.34</v>
+      </c>
+      <c r="BF191">
+        <v>6</v>
+      </c>
+      <c r="BG191">
+        <v>3</v>
+      </c>
+      <c r="BH191">
+        <v>4</v>
+      </c>
+      <c r="BI191">
+        <v>4</v>
+      </c>
+      <c r="BJ191">
+        <v>10</v>
+      </c>
+      <c r="BK191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5189121</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45143.29166666666</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+      <c r="H192" t="s">
+        <v>66</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>143</v>
+      </c>
+      <c r="P192" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q192">
+        <v>3</v>
+      </c>
+      <c r="R192">
+        <v>7</v>
+      </c>
+      <c r="S192">
+        <v>10</v>
+      </c>
+      <c r="T192">
+        <v>4.33</v>
+      </c>
+      <c r="U192">
+        <v>2.3</v>
+      </c>
+      <c r="V192">
+        <v>2.5</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>3.25</v>
+      </c>
+      <c r="Y192">
+        <v>2.63</v>
+      </c>
+      <c r="Z192">
+        <v>1.44</v>
+      </c>
+      <c r="AA192">
+        <v>6.5</v>
+      </c>
+      <c r="AB192">
+        <v>1.11</v>
+      </c>
+      <c r="AC192">
+        <v>3.95</v>
+      </c>
+      <c r="AD192">
+        <v>3.7</v>
+      </c>
+      <c r="AE192">
+        <v>1.78</v>
+      </c>
+      <c r="AF192">
+        <v>1.04</v>
+      </c>
+      <c r="AG192">
+        <v>10</v>
+      </c>
+      <c r="AH192">
+        <v>1.25</v>
+      </c>
+      <c r="AI192">
+        <v>3.75</v>
+      </c>
+      <c r="AJ192">
+        <v>1.75</v>
+      </c>
+      <c r="AK192">
+        <v>2</v>
+      </c>
+      <c r="AL192">
+        <v>1.67</v>
+      </c>
+      <c r="AM192">
+        <v>2.1</v>
+      </c>
+      <c r="AN192">
+        <v>1.87</v>
+      </c>
+      <c r="AO192">
+        <v>1.2</v>
+      </c>
+      <c r="AP192">
+        <v>1.25</v>
+      </c>
+      <c r="AQ192">
+        <v>0.6</v>
+      </c>
+      <c r="AR192">
+        <v>1.3</v>
+      </c>
+      <c r="AS192">
+        <v>0.82</v>
+      </c>
+      <c r="AT192">
+        <v>1.18</v>
+      </c>
+      <c r="AU192">
+        <v>1.58</v>
+      </c>
+      <c r="AV192">
+        <v>1.87</v>
+      </c>
+      <c r="AW192">
+        <v>3.45</v>
+      </c>
+      <c r="AX192">
+        <v>2.4</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>1.73</v>
+      </c>
+      <c r="BA192">
+        <v>1.25</v>
+      </c>
+      <c r="BB192">
+        <v>1.48</v>
+      </c>
+      <c r="BC192">
+        <v>2</v>
+      </c>
+      <c r="BD192">
+        <v>2.36</v>
+      </c>
+      <c r="BE192">
+        <v>3.18</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>6</v>
+      </c>
+      <c r="BH192">
+        <v>1</v>
+      </c>
+      <c r="BI192">
+        <v>7</v>
+      </c>
+      <c r="BJ192">
+        <v>5</v>
+      </c>
+      <c r="BK192">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,15 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['1', '15', '67']</t>
+  </si>
+  <si>
+    <t>['23', '65']</t>
+  </si>
+  <si>
+    <t>['27', '71', '75']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -926,6 +935,12 @@
   </si>
   <si>
     <t>['23', '30']</t>
+  </si>
+  <si>
+    <t>['13', '30', '41', '90+7']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1546,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1618,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1812,7 +1827,7 @@
         <v>1.64</v>
       </c>
       <c r="AT3">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2104,7 +2119,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2191,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>1.6</v>
@@ -2382,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT6">
         <v>1.75</v>
@@ -2486,7 +2501,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2573,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT7">
         <v>0.91</v>
@@ -2767,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2868,7 +2883,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2955,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>0.64</v>
@@ -3059,7 +3074,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3149,7 +3164,7 @@
         <v>0.82</v>
       </c>
       <c r="AT10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3250,7 +3265,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3632,7 +3647,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3722,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3823,7 +3838,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4014,7 +4029,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4205,7 +4220,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4292,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>1.42</v>
@@ -4587,7 +4602,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4778,7 +4793,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4868,7 +4883,7 @@
         <v>0.82</v>
       </c>
       <c r="AT19">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU19">
         <v>1.53</v>
@@ -4969,7 +4984,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5160,7 +5175,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5247,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>0.64</v>
@@ -5351,7 +5366,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5438,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1.75</v>
@@ -5542,7 +5557,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5632,7 +5647,7 @@
         <v>1.27</v>
       </c>
       <c r="AT23">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5820,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT24">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>0.79</v>
@@ -6014,7 +6029,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -6115,7 +6130,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6202,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -6396,7 +6411,7 @@
         <v>1.82</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6584,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT28">
         <v>1.6</v>
@@ -6688,7 +6703,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7070,7 +7085,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7157,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT31">
         <v>1.4</v>
@@ -7351,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU32">
         <v>1.7</v>
@@ -7539,10 +7554,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU33">
         <v>1.05</v>
@@ -7643,7 +7658,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -8025,7 +8040,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8216,7 +8231,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8497,7 +8512,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU38">
         <v>2.05</v>
@@ -8598,7 +8613,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8685,7 +8700,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8980,7 +8995,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9067,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>0.91</v>
@@ -9171,7 +9186,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9261,7 +9276,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9449,10 +9464,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.25</v>
@@ -9640,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>1.6</v>
@@ -9834,7 +9849,7 @@
         <v>1.64</v>
       </c>
       <c r="AT45">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU45">
         <v>2.41</v>
@@ -9935,7 +9950,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10126,7 +10141,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10317,7 +10332,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10404,10 +10419,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT48">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.03</v>
@@ -10508,7 +10523,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10595,10 +10610,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU49">
         <v>1.01</v>
@@ -10699,7 +10714,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10890,7 +10905,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10977,7 +10992,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
         <v>1.18</v>
@@ -11081,7 +11096,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11171,7 +11186,7 @@
         <v>0.82</v>
       </c>
       <c r="AT52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>2.13</v>
@@ -11359,10 +11374,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU53">
         <v>0.95</v>
@@ -11550,10 +11565,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT54">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11654,7 +11669,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12418,7 +12433,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12505,10 +12520,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT59">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12609,7 +12624,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13564,7 +13579,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13651,7 +13666,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT65">
         <v>1.18</v>
@@ -13755,7 +13770,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13845,7 +13860,7 @@
         <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU66">
         <v>1.31</v>
@@ -14033,10 +14048,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU67">
         <v>1.01</v>
@@ -14137,7 +14152,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14227,7 +14242,7 @@
         <v>0.82</v>
       </c>
       <c r="AT68">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14328,7 +14343,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14415,7 +14430,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
         <v>1.6</v>
@@ -14519,7 +14534,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14606,10 +14621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14710,7 +14725,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14797,10 +14812,10 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14901,7 +14916,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15092,7 +15107,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15179,10 +15194,10 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.01</v>
@@ -15283,7 +15298,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15373,7 +15388,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU74">
         <v>2.14</v>
@@ -15474,7 +15489,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15564,7 +15579,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15752,10 +15767,10 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU76">
         <v>1.1</v>
@@ -15856,7 +15871,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15943,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT77">
         <v>1.4</v>
@@ -16047,7 +16062,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16238,7 +16253,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16328,7 +16343,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU79">
         <v>1.8</v>
@@ -16429,7 +16444,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16707,7 +16722,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
         <v>1.45</v>
@@ -17002,7 +17017,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17089,10 +17104,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17193,7 +17208,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17280,7 +17295,7 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT84">
         <v>1.18</v>
@@ -17575,7 +17590,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -18148,7 +18163,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18426,10 +18441,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.08</v>
@@ -18530,7 +18545,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18808,7 +18823,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT92">
         <v>1.42</v>
@@ -18912,7 +18927,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19103,7 +19118,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19190,10 +19205,10 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT94">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU94">
         <v>1.02</v>
@@ -19384,7 +19399,7 @@
         <v>1.82</v>
       </c>
       <c r="AT95">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU95">
         <v>1.33</v>
@@ -19485,7 +19500,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19575,7 +19590,7 @@
         <v>2.17</v>
       </c>
       <c r="AT96">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19676,7 +19691,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19766,7 +19781,7 @@
         <v>0.82</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -19954,7 +19969,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT98">
         <v>0.91</v>
@@ -20058,7 +20073,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20148,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20339,7 +20354,7 @@
         <v>2.17</v>
       </c>
       <c r="AT100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.52</v>
@@ -20440,7 +20455,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20530,7 +20545,7 @@
         <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU101">
         <v>2.02</v>
@@ -20631,7 +20646,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20912,7 +20927,7 @@
         <v>1.27</v>
       </c>
       <c r="AT103">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU103">
         <v>1.24</v>
@@ -21100,7 +21115,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT104">
         <v>1.75</v>
@@ -21482,7 +21497,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>1.4</v>
@@ -21586,7 +21601,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21673,7 +21688,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT107">
         <v>1.4</v>
@@ -21777,7 +21792,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22159,7 +22174,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22249,7 +22264,7 @@
         <v>0.82</v>
       </c>
       <c r="AT110">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22541,7 +22556,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22628,7 +22643,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT112">
         <v>1.6</v>
@@ -23010,7 +23025,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
         <v>1.6</v>
@@ -23114,7 +23129,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23204,7 +23219,7 @@
         <v>1.27</v>
       </c>
       <c r="AT115">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU115">
         <v>1.35</v>
@@ -23392,10 +23407,10 @@
         <v>0.17</v>
       </c>
       <c r="AS116">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.52</v>
@@ -23496,7 +23511,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23878,7 +23893,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23965,10 +23980,10 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU119">
         <v>1.21</v>
@@ -24069,7 +24084,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24260,7 +24275,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24538,7 +24553,7 @@
         <v>1.71</v>
       </c>
       <c r="AS122">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT122">
         <v>1.42</v>
@@ -24732,7 +24747,7 @@
         <v>0.82</v>
       </c>
       <c r="AT123">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -24920,7 +24935,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT124">
         <v>0.91</v>
@@ -25024,7 +25039,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25114,7 +25129,7 @@
         <v>1.64</v>
       </c>
       <c r="AT125">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25215,7 +25230,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25406,7 +25421,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25496,7 +25511,7 @@
         <v>2</v>
       </c>
       <c r="AT127">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU127">
         <v>1.52</v>
@@ -25788,7 +25803,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25875,7 +25890,7 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT129">
         <v>1.75</v>
@@ -25979,7 +25994,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26066,7 +26081,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT130">
         <v>1.45</v>
@@ -26170,7 +26185,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26260,7 +26275,7 @@
         <v>1.27</v>
       </c>
       <c r="AT131">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.39</v>
@@ -26448,7 +26463,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT132">
         <v>0.6</v>
@@ -26642,7 +26657,7 @@
         <v>2.3</v>
       </c>
       <c r="AT133">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -26830,10 +26845,10 @@
         <v>0.83</v>
       </c>
       <c r="AS134">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT134">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -26934,7 +26949,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27021,7 +27036,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT135">
         <v>1.18</v>
@@ -27125,7 +27140,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27215,7 +27230,7 @@
         <v>1.9</v>
       </c>
       <c r="AT136">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27316,7 +27331,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27507,7 +27522,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27698,7 +27713,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27788,7 +27803,7 @@
         <v>1.82</v>
       </c>
       <c r="AT139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.51</v>
@@ -27889,7 +27904,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27976,7 +27991,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT140">
         <v>1.4</v>
@@ -28080,7 +28095,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28170,7 +28185,7 @@
         <v>0.82</v>
       </c>
       <c r="AT141">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU141">
         <v>1.45</v>
@@ -28549,7 +28564,7 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>1.75</v>
@@ -28653,7 +28668,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28743,7 +28758,7 @@
         <v>2.3</v>
       </c>
       <c r="AT144">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU144">
         <v>1.58</v>
@@ -28931,10 +28946,10 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT145">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -29122,10 +29137,10 @@
         <v>1.88</v>
       </c>
       <c r="AS146">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT146">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU146">
         <v>1.27</v>
@@ -29226,7 +29241,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29417,7 +29432,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29507,7 +29522,7 @@
         <v>2.17</v>
       </c>
       <c r="AT148">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU148">
         <v>1.46</v>
@@ -29695,7 +29710,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT149">
         <v>0.64</v>
@@ -29799,7 +29814,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29889,7 +29904,7 @@
         <v>1.64</v>
       </c>
       <c r="AT150">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU150">
         <v>1.85</v>
@@ -30077,7 +30092,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT151">
         <v>1.45</v>
@@ -30268,7 +30283,7 @@
         <v>1.63</v>
       </c>
       <c r="AS152">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT152">
         <v>1.18</v>
@@ -30372,7 +30387,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30945,7 +30960,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31136,7 +31151,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31223,7 +31238,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT157">
         <v>0.6</v>
@@ -31327,7 +31342,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31518,7 +31533,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31608,7 +31623,7 @@
         <v>1.64</v>
       </c>
       <c r="AT159">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU159">
         <v>2.03</v>
@@ -31709,7 +31724,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31796,7 +31811,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>1.42</v>
@@ -31900,7 +31915,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31990,7 +32005,7 @@
         <v>1.82</v>
       </c>
       <c r="AT161">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU161">
         <v>1.51</v>
@@ -32178,7 +32193,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>0.64</v>
@@ -32369,10 +32384,10 @@
         <v>0.38</v>
       </c>
       <c r="AS163">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT163">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU163">
         <v>1.2</v>
@@ -32560,7 +32575,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT164">
         <v>1</v>
@@ -33133,10 +33148,10 @@
         <v>0.78</v>
       </c>
       <c r="AS167">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT167">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU167">
         <v>1.07</v>
@@ -33327,7 +33342,7 @@
         <v>1.9</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU168">
         <v>1.42</v>
@@ -33428,7 +33443,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33515,7 +33530,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT169">
         <v>1.45</v>
@@ -33619,7 +33634,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33709,7 +33724,7 @@
         <v>2</v>
       </c>
       <c r="AT170">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU170">
         <v>1.52</v>
@@ -34001,7 +34016,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34091,7 +34106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT172">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU172">
         <v>1.54</v>
@@ -34192,7 +34207,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34282,7 +34297,7 @@
         <v>2.17</v>
       </c>
       <c r="AT173">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU173">
         <v>1.46</v>
@@ -34661,10 +34676,10 @@
         <v>0.6</v>
       </c>
       <c r="AS175">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT175">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU175">
         <v>1.66</v>
@@ -34765,7 +34780,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35043,7 +35058,7 @@
         <v>0.63</v>
       </c>
       <c r="AS177">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT177">
         <v>0.6</v>
@@ -35338,7 +35353,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35428,7 +35443,7 @@
         <v>1.82</v>
       </c>
       <c r="AT179">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU179">
         <v>1.53</v>
@@ -35616,7 +35631,7 @@
         <v>1.78</v>
       </c>
       <c r="AS180">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT180">
         <v>1.6</v>
@@ -36102,7 +36117,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36293,7 +36308,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36383,7 +36398,7 @@
         <v>1.64</v>
       </c>
       <c r="AT184">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU184">
         <v>1.73</v>
@@ -36571,7 +36586,7 @@
         <v>1.78</v>
       </c>
       <c r="AS185">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT185">
         <v>1.6</v>
@@ -36866,7 +36881,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37144,7 +37159,7 @@
         <v>1.6</v>
       </c>
       <c r="AS188">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT188">
         <v>1.45</v>
@@ -37248,7 +37263,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37338,7 +37353,7 @@
         <v>0.82</v>
       </c>
       <c r="AT189">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU189">
         <v>1.62</v>
@@ -37439,7 +37454,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37963,6 +37978,1343 @@
       </c>
       <c r="BK192">
         <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5189123</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45144.25</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>79</v>
+      </c>
+      <c r="H193" t="s">
+        <v>76</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>214</v>
+      </c>
+      <c r="P193" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>9</v>
+      </c>
+      <c r="S193">
+        <v>18</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>2.3</v>
+      </c>
+      <c r="V193">
+        <v>3.75</v>
+      </c>
+      <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>3.25</v>
+      </c>
+      <c r="Y193">
+        <v>2.63</v>
+      </c>
+      <c r="Z193">
+        <v>1.44</v>
+      </c>
+      <c r="AA193">
+        <v>6.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.11</v>
+      </c>
+      <c r="AC193">
+        <v>2</v>
+      </c>
+      <c r="AD193">
+        <v>3.6</v>
+      </c>
+      <c r="AE193">
+        <v>3.1</v>
+      </c>
+      <c r="AF193">
+        <v>1.04</v>
+      </c>
+      <c r="AG193">
+        <v>10</v>
+      </c>
+      <c r="AH193">
+        <v>1.22</v>
+      </c>
+      <c r="AI193">
+        <v>4</v>
+      </c>
+      <c r="AJ193">
+        <v>1.67</v>
+      </c>
+      <c r="AK193">
+        <v>2.05</v>
+      </c>
+      <c r="AL193">
+        <v>1.62</v>
+      </c>
+      <c r="AM193">
+        <v>2.2</v>
+      </c>
+      <c r="AN193">
+        <v>1.28</v>
+      </c>
+      <c r="AO193">
+        <v>1.22</v>
+      </c>
+      <c r="AP193">
+        <v>1.72</v>
+      </c>
+      <c r="AQ193">
+        <v>1.33</v>
+      </c>
+      <c r="AR193">
+        <v>1.55</v>
+      </c>
+      <c r="AS193">
+        <v>1.5</v>
+      </c>
+      <c r="AT193">
+        <v>1.42</v>
+      </c>
+      <c r="AU193">
+        <v>1.21</v>
+      </c>
+      <c r="AV193">
+        <v>1.51</v>
+      </c>
+      <c r="AW193">
+        <v>2.72</v>
+      </c>
+      <c r="AX193">
+        <v>1.91</v>
+      </c>
+      <c r="AY193">
+        <v>7.5</v>
+      </c>
+      <c r="AZ193">
+        <v>2.2</v>
+      </c>
+      <c r="BA193">
+        <v>1.32</v>
+      </c>
+      <c r="BB193">
+        <v>1.61</v>
+      </c>
+      <c r="BC193">
+        <v>2.02</v>
+      </c>
+      <c r="BD193">
+        <v>2.64</v>
+      </c>
+      <c r="BE193">
+        <v>3.9</v>
+      </c>
+      <c r="BF193">
+        <v>5</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>12</v>
+      </c>
+      <c r="BI193">
+        <v>9</v>
+      </c>
+      <c r="BJ193">
+        <v>17</v>
+      </c>
+      <c r="BK193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5189124</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45144.27083333334</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>215</v>
+      </c>
+      <c r="P194" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
+        <v>8</v>
+      </c>
+      <c r="S194">
+        <v>10</v>
+      </c>
+      <c r="T194">
+        <v>4.75</v>
+      </c>
+      <c r="U194">
+        <v>2.3</v>
+      </c>
+      <c r="V194">
+        <v>2.25</v>
+      </c>
+      <c r="W194">
+        <v>1.33</v>
+      </c>
+      <c r="X194">
+        <v>3.25</v>
+      </c>
+      <c r="Y194">
+        <v>2.5</v>
+      </c>
+      <c r="Z194">
+        <v>1.5</v>
+      </c>
+      <c r="AA194">
+        <v>6.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.11</v>
+      </c>
+      <c r="AC194">
+        <v>4.6</v>
+      </c>
+      <c r="AD194">
+        <v>4</v>
+      </c>
+      <c r="AE194">
+        <v>1.57</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>10</v>
+      </c>
+      <c r="AH194">
+        <v>1.22</v>
+      </c>
+      <c r="AI194">
+        <v>3.8</v>
+      </c>
+      <c r="AJ194">
+        <v>1.67</v>
+      </c>
+      <c r="AK194">
+        <v>2.1</v>
+      </c>
+      <c r="AL194">
+        <v>1.7</v>
+      </c>
+      <c r="AM194">
+        <v>2.05</v>
+      </c>
+      <c r="AN194">
+        <v>2.15</v>
+      </c>
+      <c r="AO194">
+        <v>1.25</v>
+      </c>
+      <c r="AP194">
+        <v>1.11</v>
+      </c>
+      <c r="AQ194">
+        <v>0.82</v>
+      </c>
+      <c r="AR194">
+        <v>2.22</v>
+      </c>
+      <c r="AS194">
+        <v>1</v>
+      </c>
+      <c r="AT194">
+        <v>2</v>
+      </c>
+      <c r="AU194">
+        <v>1.11</v>
+      </c>
+      <c r="AV194">
+        <v>1.43</v>
+      </c>
+      <c r="AW194">
+        <v>2.54</v>
+      </c>
+      <c r="AX194">
+        <v>2.6</v>
+      </c>
+      <c r="AY194">
+        <v>8.5</v>
+      </c>
+      <c r="AZ194">
+        <v>1.67</v>
+      </c>
+      <c r="BA194">
+        <v>1.25</v>
+      </c>
+      <c r="BB194">
+        <v>1.4</v>
+      </c>
+      <c r="BC194">
+        <v>1.72</v>
+      </c>
+      <c r="BD194">
+        <v>2.22</v>
+      </c>
+      <c r="BE194">
+        <v>2.93</v>
+      </c>
+      <c r="BF194">
+        <v>4</v>
+      </c>
+      <c r="BG194">
+        <v>3</v>
+      </c>
+      <c r="BH194">
+        <v>4</v>
+      </c>
+      <c r="BI194">
+        <v>10</v>
+      </c>
+      <c r="BJ194">
+        <v>8</v>
+      </c>
+      <c r="BK194">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5189125</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>82</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>84</v>
+      </c>
+      <c r="P195" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q195">
+        <v>4</v>
+      </c>
+      <c r="R195">
+        <v>7</v>
+      </c>
+      <c r="S195">
+        <v>11</v>
+      </c>
+      <c r="T195">
+        <v>2.88</v>
+      </c>
+      <c r="U195">
+        <v>2.38</v>
+      </c>
+      <c r="V195">
+        <v>3.2</v>
+      </c>
+      <c r="W195">
+        <v>1.3</v>
+      </c>
+      <c r="X195">
+        <v>3.4</v>
+      </c>
+      <c r="Y195">
+        <v>2.38</v>
+      </c>
+      <c r="Z195">
+        <v>1.53</v>
+      </c>
+      <c r="AA195">
+        <v>6</v>
+      </c>
+      <c r="AB195">
+        <v>1.13</v>
+      </c>
+      <c r="AC195">
+        <v>2.2</v>
+      </c>
+      <c r="AD195">
+        <v>3.7</v>
+      </c>
+      <c r="AE195">
+        <v>2.7</v>
+      </c>
+      <c r="AF195">
+        <v>1.03</v>
+      </c>
+      <c r="AG195">
+        <v>12</v>
+      </c>
+      <c r="AH195">
+        <v>1.18</v>
+      </c>
+      <c r="AI195">
+        <v>4.5</v>
+      </c>
+      <c r="AJ195">
+        <v>1.53</v>
+      </c>
+      <c r="AK195">
+        <v>2.3</v>
+      </c>
+      <c r="AL195">
+        <v>1.5</v>
+      </c>
+      <c r="AM195">
+        <v>2.5</v>
+      </c>
+      <c r="AN195">
+        <v>1.38</v>
+      </c>
+      <c r="AO195">
+        <v>1.22</v>
+      </c>
+      <c r="AP195">
+        <v>1.57</v>
+      </c>
+      <c r="AQ195">
+        <v>2.1</v>
+      </c>
+      <c r="AR195">
+        <v>1.82</v>
+      </c>
+      <c r="AS195">
+        <v>2</v>
+      </c>
+      <c r="AT195">
+        <v>1.75</v>
+      </c>
+      <c r="AU195">
+        <v>1.61</v>
+      </c>
+      <c r="AV195">
+        <v>1.42</v>
+      </c>
+      <c r="AW195">
+        <v>3.03</v>
+      </c>
+      <c r="AX195">
+        <v>1.8</v>
+      </c>
+      <c r="AY195">
+        <v>8.5</v>
+      </c>
+      <c r="AZ195">
+        <v>2.3</v>
+      </c>
+      <c r="BA195">
+        <v>1.2</v>
+      </c>
+      <c r="BB195">
+        <v>1.33</v>
+      </c>
+      <c r="BC195">
+        <v>1.6</v>
+      </c>
+      <c r="BD195">
+        <v>1.93</v>
+      </c>
+      <c r="BE195">
+        <v>2.62</v>
+      </c>
+      <c r="BF195">
+        <v>7</v>
+      </c>
+      <c r="BG195">
+        <v>4</v>
+      </c>
+      <c r="BH195">
+        <v>9</v>
+      </c>
+      <c r="BI195">
+        <v>5</v>
+      </c>
+      <c r="BJ195">
+        <v>16</v>
+      </c>
+      <c r="BK195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5189126</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>65</v>
+      </c>
+      <c r="H196" t="s">
+        <v>77</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>3</v>
+      </c>
+      <c r="K196">
+        <v>4</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>4</v>
+      </c>
+      <c r="N196">
+        <v>7</v>
+      </c>
+      <c r="O196" t="s">
+        <v>216</v>
+      </c>
+      <c r="P196" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196">
+        <v>5</v>
+      </c>
+      <c r="S196">
+        <v>14</v>
+      </c>
+      <c r="T196">
+        <v>2.38</v>
+      </c>
+      <c r="U196">
+        <v>2.2</v>
+      </c>
+      <c r="V196">
+        <v>4.75</v>
+      </c>
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>3</v>
+      </c>
+      <c r="Y196">
+        <v>2.75</v>
+      </c>
+      <c r="Z196">
+        <v>1.4</v>
+      </c>
+      <c r="AA196">
+        <v>8</v>
+      </c>
+      <c r="AB196">
+        <v>1.08</v>
+      </c>
+      <c r="AC196">
+        <v>1.65</v>
+      </c>
+      <c r="AD196">
+        <v>3.75</v>
+      </c>
+      <c r="AE196">
+        <v>4.33</v>
+      </c>
+      <c r="AF196">
+        <v>1.05</v>
+      </c>
+      <c r="AG196">
+        <v>9</v>
+      </c>
+      <c r="AH196">
+        <v>1.28</v>
+      </c>
+      <c r="AI196">
+        <v>3.5</v>
+      </c>
+      <c r="AJ196">
+        <v>1.83</v>
+      </c>
+      <c r="AK196">
+        <v>1.87</v>
+      </c>
+      <c r="AL196">
+        <v>1.8</v>
+      </c>
+      <c r="AM196">
+        <v>1.95</v>
+      </c>
+      <c r="AN196">
+        <v>1.15</v>
+      </c>
+      <c r="AO196">
+        <v>1.2</v>
+      </c>
+      <c r="AP196">
+        <v>2.05</v>
+      </c>
+      <c r="AQ196">
+        <v>1.67</v>
+      </c>
+      <c r="AR196">
+        <v>0.8</v>
+      </c>
+      <c r="AS196">
+        <v>1.5</v>
+      </c>
+      <c r="AT196">
+        <v>1</v>
+      </c>
+      <c r="AU196">
+        <v>1.55</v>
+      </c>
+      <c r="AV196">
+        <v>1.24</v>
+      </c>
+      <c r="AW196">
+        <v>2.79</v>
+      </c>
+      <c r="AX196">
+        <v>1.53</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>3</v>
+      </c>
+      <c r="BA196">
+        <v>1.39</v>
+      </c>
+      <c r="BB196">
+        <v>1.9</v>
+      </c>
+      <c r="BC196">
+        <v>2.19</v>
+      </c>
+      <c r="BD196">
+        <v>2.93</v>
+      </c>
+      <c r="BE196">
+        <v>4</v>
+      </c>
+      <c r="BF196">
+        <v>7</v>
+      </c>
+      <c r="BG196">
+        <v>7</v>
+      </c>
+      <c r="BH196">
+        <v>6</v>
+      </c>
+      <c r="BI196">
+        <v>2</v>
+      </c>
+      <c r="BJ196">
+        <v>13</v>
+      </c>
+      <c r="BK196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5189127</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>69</v>
+      </c>
+      <c r="H197" t="s">
+        <v>73</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>84</v>
+      </c>
+      <c r="P197" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q197">
+        <v>2</v>
+      </c>
+      <c r="R197">
+        <v>9</v>
+      </c>
+      <c r="S197">
+        <v>11</v>
+      </c>
+      <c r="T197">
+        <v>3.1</v>
+      </c>
+      <c r="U197">
+        <v>2.1</v>
+      </c>
+      <c r="V197">
+        <v>3.6</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>2.63</v>
+      </c>
+      <c r="Y197">
+        <v>3.25</v>
+      </c>
+      <c r="Z197">
+        <v>1.33</v>
+      </c>
+      <c r="AA197">
+        <v>9</v>
+      </c>
+      <c r="AB197">
+        <v>1.07</v>
+      </c>
+      <c r="AC197">
+        <v>2.25</v>
+      </c>
+      <c r="AD197">
+        <v>3.25</v>
+      </c>
+      <c r="AE197">
+        <v>2.88</v>
+      </c>
+      <c r="AF197">
+        <v>1.05</v>
+      </c>
+      <c r="AG197">
+        <v>8</v>
+      </c>
+      <c r="AH197">
+        <v>1.33</v>
+      </c>
+      <c r="AI197">
+        <v>3</v>
+      </c>
+      <c r="AJ197">
+        <v>2.1</v>
+      </c>
+      <c r="AK197">
+        <v>1.67</v>
+      </c>
+      <c r="AL197">
+        <v>1.91</v>
+      </c>
+      <c r="AM197">
+        <v>1.91</v>
+      </c>
+      <c r="AN197">
+        <v>1.3</v>
+      </c>
+      <c r="AO197">
+        <v>1.28</v>
+      </c>
+      <c r="AP197">
+        <v>1.57</v>
+      </c>
+      <c r="AQ197">
+        <v>1.2</v>
+      </c>
+      <c r="AR197">
+        <v>0.5</v>
+      </c>
+      <c r="AS197">
+        <v>1.09</v>
+      </c>
+      <c r="AT197">
+        <v>0.73</v>
+      </c>
+      <c r="AU197">
+        <v>1.46</v>
+      </c>
+      <c r="AV197">
+        <v>1.17</v>
+      </c>
+      <c r="AW197">
+        <v>2.63</v>
+      </c>
+      <c r="AX197">
+        <v>1.8</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>2.38</v>
+      </c>
+      <c r="BA197">
+        <v>1.25</v>
+      </c>
+      <c r="BB197">
+        <v>1.48</v>
+      </c>
+      <c r="BC197">
+        <v>1.79</v>
+      </c>
+      <c r="BD197">
+        <v>2.22</v>
+      </c>
+      <c r="BE197">
+        <v>2.7</v>
+      </c>
+      <c r="BF197">
+        <v>4</v>
+      </c>
+      <c r="BG197">
+        <v>2</v>
+      </c>
+      <c r="BH197">
+        <v>5</v>
+      </c>
+      <c r="BI197">
+        <v>5</v>
+      </c>
+      <c r="BJ197">
+        <v>9</v>
+      </c>
+      <c r="BK197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5189128</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>70</v>
+      </c>
+      <c r="H198" t="s">
+        <v>67</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>84</v>
+      </c>
+      <c r="P198" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q198">
+        <v>5</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>7</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>2.1</v>
+      </c>
+      <c r="V198">
+        <v>4</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>2.75</v>
+      </c>
+      <c r="Y198">
+        <v>3</v>
+      </c>
+      <c r="Z198">
+        <v>1.36</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>1.08</v>
+      </c>
+      <c r="AC198">
+        <v>2.05</v>
+      </c>
+      <c r="AD198">
+        <v>3.4</v>
+      </c>
+      <c r="AE198">
+        <v>3.2</v>
+      </c>
+      <c r="AF198">
+        <v>1.06</v>
+      </c>
+      <c r="AG198">
+        <v>8.75</v>
+      </c>
+      <c r="AH198">
+        <v>1.33</v>
+      </c>
+      <c r="AI198">
+        <v>3.2</v>
+      </c>
+      <c r="AJ198">
+        <v>1.95</v>
+      </c>
+      <c r="AK198">
+        <v>1.75</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.25</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>1.7</v>
+      </c>
+      <c r="AQ198">
+        <v>1.73</v>
+      </c>
+      <c r="AR198">
+        <v>0.64</v>
+      </c>
+      <c r="AS198">
+        <v>1.58</v>
+      </c>
+      <c r="AT198">
+        <v>0.83</v>
+      </c>
+      <c r="AU198">
+        <v>1.23</v>
+      </c>
+      <c r="AV198">
+        <v>1.15</v>
+      </c>
+      <c r="AW198">
+        <v>2.38</v>
+      </c>
+      <c r="AX198">
+        <v>1.83</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
+        <v>2.25</v>
+      </c>
+      <c r="BA198">
+        <v>1.32</v>
+      </c>
+      <c r="BB198">
+        <v>1.6</v>
+      </c>
+      <c r="BC198">
+        <v>1.98</v>
+      </c>
+      <c r="BD198">
+        <v>2.69</v>
+      </c>
+      <c r="BE198">
+        <v>3.65</v>
+      </c>
+      <c r="BF198">
+        <v>8</v>
+      </c>
+      <c r="BG198">
+        <v>6</v>
+      </c>
+      <c r="BH198">
+        <v>8</v>
+      </c>
+      <c r="BI198">
+        <v>5</v>
+      </c>
+      <c r="BJ198">
+        <v>16</v>
+      </c>
+      <c r="BK198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5189129</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45144.29166666666</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>72</v>
+      </c>
+      <c r="H199" t="s">
+        <v>78</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>84</v>
+      </c>
+      <c r="P199" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q199">
+        <v>8</v>
+      </c>
+      <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="S199">
+        <v>9</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
+        <v>3.6</v>
+      </c>
+      <c r="W199">
+        <v>1.5</v>
+      </c>
+      <c r="X199">
+        <v>2.5</v>
+      </c>
+      <c r="Y199">
+        <v>3.4</v>
+      </c>
+      <c r="Z199">
+        <v>1.3</v>
+      </c>
+      <c r="AA199">
+        <v>10</v>
+      </c>
+      <c r="AB199">
+        <v>1.06</v>
+      </c>
+      <c r="AC199">
+        <v>2.4</v>
+      </c>
+      <c r="AD199">
+        <v>3.2</v>
+      </c>
+      <c r="AE199">
+        <v>2.7</v>
+      </c>
+      <c r="AF199">
+        <v>1.08</v>
+      </c>
+      <c r="AG199">
+        <v>7</v>
+      </c>
+      <c r="AH199">
+        <v>1.42</v>
+      </c>
+      <c r="AI199">
+        <v>2.75</v>
+      </c>
+      <c r="AJ199">
+        <v>2.3</v>
+      </c>
+      <c r="AK199">
+        <v>1.57</v>
+      </c>
+      <c r="AL199">
+        <v>1.95</v>
+      </c>
+      <c r="AM199">
+        <v>1.8</v>
+      </c>
+      <c r="AN199">
+        <v>1.42</v>
+      </c>
+      <c r="AO199">
+        <v>1.28</v>
+      </c>
+      <c r="AP199">
+        <v>1.53</v>
+      </c>
+      <c r="AQ199">
+        <v>1.36</v>
+      </c>
+      <c r="AR199">
+        <v>0.9</v>
+      </c>
+      <c r="AS199">
+        <v>1.25</v>
+      </c>
+      <c r="AT199">
+        <v>1.09</v>
+      </c>
+      <c r="AU199">
+        <v>1.22</v>
+      </c>
+      <c r="AV199">
+        <v>1.03</v>
+      </c>
+      <c r="AW199">
+        <v>2.25</v>
+      </c>
+      <c r="AX199">
+        <v>1.8</v>
+      </c>
+      <c r="AY199">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199">
+        <v>2.4</v>
+      </c>
+      <c r="BA199">
+        <v>1.42</v>
+      </c>
+      <c r="BB199">
+        <v>1.93</v>
+      </c>
+      <c r="BC199">
+        <v>2.29</v>
+      </c>
+      <c r="BD199">
+        <v>3.08</v>
+      </c>
+      <c r="BE199">
+        <v>4.3</v>
+      </c>
+      <c r="BF199">
+        <v>6</v>
+      </c>
+      <c r="BG199">
+        <v>3</v>
+      </c>
+      <c r="BH199">
+        <v>5</v>
+      </c>
+      <c r="BI199">
+        <v>4</v>
+      </c>
+      <c r="BJ199">
+        <v>11</v>
+      </c>
+      <c r="BK199">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,10 +667,31 @@
     <t>['27', '71', '75']</t>
   </si>
   <si>
-    <t>['4', '38']</t>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['75', '90+3']</t>
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['36', '58']</t>
+  </si>
+  <si>
+    <t>['2', '48']</t>
+  </si>
+  <si>
+    <t>['34', '51']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['69', '90+3']</t>
+  </si>
+  <si>
+    <t>['4', '38']</t>
   </si>
   <si>
     <t>['22', '80']</t>
@@ -785,9 +806,6 @@
   </si>
   <si>
     <t>['59', '84']</t>
-  </si>
-  <si>
-    <t>['37']</t>
   </si>
   <si>
     <t>['5', '28']</t>
@@ -941,6 +959,12 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['10', '26']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1570,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1633,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT2">
         <v>1.75</v>
@@ -1824,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>1.42</v>
@@ -2015,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2119,7 +2143,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2400,7 +2424,7 @@
         <v>1.09</v>
       </c>
       <c r="AT6">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2501,7 +2525,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2883,7 +2907,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2973,7 +2997,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3074,7 +3098,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3161,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3265,7 +3289,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3355,7 +3379,7 @@
         <v>0.82</v>
       </c>
       <c r="AT11">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3543,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT12">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3647,7 +3671,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3737,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3838,7 +3862,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3928,7 +3952,7 @@
         <v>1.64</v>
       </c>
       <c r="AT14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4029,7 +4053,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4116,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT15">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4220,7 +4244,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4498,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4602,7 +4626,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4689,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT18">
         <v>0.91</v>
@@ -4793,7 +4817,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4880,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT19">
         <v>0.83</v>
@@ -4984,7 +5008,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5071,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT20">
         <v>1.18</v>
@@ -5175,7 +5199,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5262,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>1.61</v>
@@ -5366,7 +5390,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5456,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU22">
         <v>1.4</v>
@@ -5557,7 +5581,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5644,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
         <v>1.42</v>
@@ -6029,7 +6053,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -6130,7 +6154,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6220,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6408,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT27">
         <v>0.73</v>
@@ -6703,7 +6727,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6793,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -6981,7 +7005,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT30">
         <v>1.42</v>
@@ -7085,7 +7109,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7175,7 +7199,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU31">
         <v>1.05</v>
@@ -7658,7 +7682,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7745,7 +7769,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT34">
         <v>1.6</v>
@@ -7936,10 +7960,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU35">
         <v>1.14</v>
@@ -8040,7 +8064,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8130,7 +8154,7 @@
         <v>0.82</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU36">
         <v>2.48</v>
@@ -8231,7 +8255,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8509,7 +8533,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT38">
         <v>0.83</v>
@@ -8613,7 +8637,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8703,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU39">
         <v>0.96</v>
@@ -8891,10 +8915,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT40">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU40">
         <v>1.61</v>
@@ -8995,7 +9019,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9186,7 +9210,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9467,7 +9491,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU43">
         <v>1.25</v>
@@ -9655,10 +9679,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU44">
         <v>1.37</v>
@@ -9846,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT45">
         <v>0.73</v>
@@ -9950,7 +9974,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10037,10 +10061,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>1.39</v>
@@ -10141,7 +10165,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10228,10 +10252,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT47">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -10332,7 +10356,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10422,7 +10446,7 @@
         <v>1.09</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU48">
         <v>1.03</v>
@@ -10523,7 +10547,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10714,7 +10738,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10801,7 +10825,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT50">
         <v>1.6</v>
@@ -10905,7 +10929,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11096,7 +11120,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11186,7 +11210,7 @@
         <v>0.82</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU52">
         <v>2.13</v>
@@ -11669,7 +11693,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11947,10 +11971,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT56">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12138,10 +12162,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU57">
         <v>2.14</v>
@@ -12433,7 +12457,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12624,7 +12648,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12711,10 +12735,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -12902,10 +12926,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT61">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13284,10 +13308,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13475,10 +13499,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13579,7 +13603,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13770,7 +13794,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13857,7 +13881,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT66">
         <v>1.09</v>
@@ -14152,7 +14176,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14343,7 +14367,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14430,7 +14454,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT69">
         <v>1.6</v>
@@ -14534,7 +14558,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14725,7 +14749,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14815,7 +14839,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14916,7 +14940,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15003,10 +15027,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -15107,7 +15131,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15197,7 +15221,7 @@
         <v>1.09</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU73">
         <v>1.01</v>
@@ -15298,7 +15322,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15385,7 +15409,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT74">
         <v>0.83</v>
@@ -15489,7 +15513,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15871,7 +15895,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15961,7 +15985,7 @@
         <v>1.09</v>
       </c>
       <c r="AT77">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU77">
         <v>1.14</v>
@@ -16062,7 +16086,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16149,10 +16173,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16253,7 +16277,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16444,7 +16468,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16531,10 +16555,10 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT80">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.44</v>
@@ -16722,10 +16746,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16916,7 +16940,7 @@
         <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU82">
         <v>1.7</v>
@@ -17017,7 +17041,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17208,7 +17232,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17489,7 +17513,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17590,7 +17614,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17677,7 +17701,7 @@
         <v>2.4</v>
       </c>
       <c r="AS86">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT86">
         <v>1.6</v>
@@ -17868,7 +17892,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>0.91</v>
@@ -18059,10 +18083,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.19</v>
@@ -18163,7 +18187,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18250,7 +18274,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT89">
         <v>1.42</v>
@@ -18444,7 +18468,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU90">
         <v>1.08</v>
@@ -18545,7 +18569,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18635,7 +18659,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18927,7 +18951,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19017,7 +19041,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU93">
         <v>1.88</v>
@@ -19118,7 +19142,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19396,7 +19420,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT95">
         <v>0.83</v>
@@ -19500,7 +19524,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19587,10 +19611,10 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19691,7 +19715,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20073,7 +20097,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20351,10 +20375,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU100">
         <v>1.52</v>
@@ -20455,7 +20479,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20542,7 +20566,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
         <v>1.09</v>
@@ -20646,7 +20670,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20733,10 +20757,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20924,7 +20948,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT103">
         <v>0.73</v>
@@ -21118,7 +21142,7 @@
         <v>1.58</v>
       </c>
       <c r="AT104">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU104">
         <v>1.03</v>
@@ -21309,7 +21333,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU105">
         <v>1.51</v>
@@ -21497,10 +21521,10 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21601,7 +21625,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21691,7 +21715,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21792,7 +21816,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21879,7 +21903,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>1.42</v>
@@ -22174,7 +22198,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22452,10 +22476,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT111">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU111">
         <v>1.2</v>
@@ -22556,7 +22580,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22646,7 +22670,7 @@
         <v>1.09</v>
       </c>
       <c r="AT112">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -22834,10 +22858,10 @@
         <v>1.17</v>
       </c>
       <c r="AS113">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT113">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -23129,7 +23153,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23216,7 +23240,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT115">
         <v>1.75</v>
@@ -23410,7 +23434,7 @@
         <v>2</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU116">
         <v>1.52</v>
@@ -23511,7 +23535,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23601,7 +23625,7 @@
         <v>1</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU117">
         <v>1.79</v>
@@ -23789,10 +23813,10 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT118">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23893,7 +23917,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24084,7 +24108,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24174,7 +24198,7 @@
         <v>0.82</v>
       </c>
       <c r="AT120">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU120">
         <v>1.63</v>
@@ -24275,7 +24299,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24362,7 +24386,7 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT121">
         <v>1.18</v>
@@ -24744,10 +24768,10 @@
         <v>2.6</v>
       </c>
       <c r="AS123">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25039,7 +25063,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25230,7 +25254,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25421,7 +25445,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25699,10 +25723,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT128">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25803,7 +25827,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25893,7 +25917,7 @@
         <v>1.25</v>
       </c>
       <c r="AT129">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU129">
         <v>1.26</v>
@@ -25994,7 +26018,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26084,7 +26108,7 @@
         <v>1.09</v>
       </c>
       <c r="AT130">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26185,7 +26209,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26272,10 +26296,10 @@
         <v>0.14</v>
       </c>
       <c r="AS131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU131">
         <v>1.39</v>
@@ -26466,7 +26490,7 @@
         <v>1.58</v>
       </c>
       <c r="AT132">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU132">
         <v>1</v>
@@ -26654,7 +26678,7 @@
         <v>0.5</v>
       </c>
       <c r="AS133">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT133">
         <v>1.09</v>
@@ -26845,7 +26869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT134">
         <v>0.73</v>
@@ -26949,7 +26973,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27140,7 +27164,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27227,7 +27251,7 @@
         <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>1.75</v>
@@ -27331,7 +27355,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27522,7 +27546,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27609,10 +27633,10 @@
         <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT138">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -27713,7 +27737,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27800,10 +27824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU139">
         <v>1.51</v>
@@ -27904,7 +27928,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27994,7 +28018,7 @@
         <v>1</v>
       </c>
       <c r="AT140">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU140">
         <v>1.12</v>
@@ -28095,7 +28119,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28182,7 +28206,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT141">
         <v>1.42</v>
@@ -28373,10 +28397,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT142">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU142">
         <v>2.04</v>
@@ -28567,7 +28591,7 @@
         <v>2</v>
       </c>
       <c r="AT143">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU143">
         <v>1.7</v>
@@ -28668,7 +28692,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28755,7 +28779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT144">
         <v>0.73</v>
@@ -28949,7 +28973,7 @@
         <v>1.58</v>
       </c>
       <c r="AT145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -29241,7 +29265,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29328,10 +29352,10 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT147">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU147">
         <v>1.53</v>
@@ -29432,7 +29456,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29519,7 +29543,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT148">
         <v>1.09</v>
@@ -29713,7 +29737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU149">
         <v>1.2</v>
@@ -29814,7 +29838,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30095,7 +30119,7 @@
         <v>1</v>
       </c>
       <c r="AT151">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU151">
         <v>1.08</v>
@@ -30283,7 +30307,7 @@
         <v>1.63</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT152">
         <v>1.18</v>
@@ -30387,7 +30411,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30477,7 +30501,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU153">
         <v>1.8</v>
@@ -30665,7 +30689,7 @@
         <v>0.75</v>
       </c>
       <c r="AS154">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT154">
         <v>0.91</v>
@@ -30856,7 +30880,7 @@
         <v>2</v>
       </c>
       <c r="AS155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT155">
         <v>1.6</v>
@@ -30960,7 +30984,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31050,7 +31074,7 @@
         <v>0.82</v>
       </c>
       <c r="AT156">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31151,7 +31175,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31241,7 +31265,7 @@
         <v>1.09</v>
       </c>
       <c r="AT157">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31342,7 +31366,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31432,7 +31456,7 @@
         <v>1.64</v>
       </c>
       <c r="AT158">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU158">
         <v>1.87</v>
@@ -31533,7 +31557,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31620,7 +31644,7 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT159">
         <v>1.75</v>
@@ -31724,7 +31748,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31915,7 +31939,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32002,10 +32026,10 @@
         <v>2</v>
       </c>
       <c r="AS161">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT161">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU161">
         <v>1.51</v>
@@ -32196,7 +32220,7 @@
         <v>2</v>
       </c>
       <c r="AT162">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU162">
         <v>1.58</v>
@@ -32578,7 +32602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT164">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU164">
         <v>1.17</v>
@@ -32766,7 +32790,7 @@
         <v>1.44</v>
       </c>
       <c r="AS165">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT165">
         <v>1.18</v>
@@ -32957,7 +32981,7 @@
         <v>1.44</v>
       </c>
       <c r="AS166">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT166">
         <v>1.42</v>
@@ -33151,7 +33175,7 @@
         <v>1</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU167">
         <v>1.07</v>
@@ -33339,7 +33363,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT168">
         <v>0.73</v>
@@ -33443,7 +33467,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33533,7 +33557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT169">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU169">
         <v>1.18</v>
@@ -33634,7 +33658,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33912,10 +33936,10 @@
         <v>0.67</v>
       </c>
       <c r="AS171">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT171">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU171">
         <v>1.55</v>
@@ -34016,7 +34040,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34103,10 +34127,10 @@
         <v>2.13</v>
       </c>
       <c r="AS172">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT172">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU172">
         <v>1.54</v>
@@ -34207,7 +34231,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34294,7 +34318,7 @@
         <v>1.9</v>
       </c>
       <c r="AS173">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT173">
         <v>1.75</v>
@@ -34485,10 +34509,10 @@
         <v>1.7</v>
       </c>
       <c r="AS174">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT174">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU174">
         <v>1.97</v>
@@ -34780,7 +34804,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34867,10 +34891,10 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT176">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU176">
         <v>1.43</v>
@@ -35058,10 +35082,10 @@
         <v>0.63</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT177">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU177">
         <v>1.53</v>
@@ -35252,7 +35276,7 @@
         <v>1.64</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU178">
         <v>1.81</v>
@@ -35353,7 +35377,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35440,7 +35464,7 @@
         <v>1.7</v>
       </c>
       <c r="AS179">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT179">
         <v>1.42</v>
@@ -35634,7 +35658,7 @@
         <v>1.25</v>
       </c>
       <c r="AT180">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU180">
         <v>1.18</v>
@@ -36013,7 +36037,7 @@
         <v>1.3</v>
       </c>
       <c r="AS182">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT182">
         <v>1.42</v>
@@ -36117,7 +36141,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36204,10 +36228,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT183">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU183">
         <v>1.92</v>
@@ -36308,7 +36332,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36780,7 +36804,7 @@
         <v>2</v>
       </c>
       <c r="AT186">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU186">
         <v>1.49</v>
@@ -36881,7 +36905,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -36968,10 +36992,10 @@
         <v>1.64</v>
       </c>
       <c r="AS187">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT187">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU187">
         <v>1.42</v>
@@ -37162,7 +37186,7 @@
         <v>1.58</v>
       </c>
       <c r="AT188">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU188">
         <v>1.2</v>
@@ -37263,7 +37287,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37454,7 +37478,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37732,7 +37756,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT191">
         <v>0.91</v>
@@ -38308,7 +38332,7 @@
         <v>1</v>
       </c>
       <c r="AT194">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU194">
         <v>1.11</v>
@@ -38600,7 +38624,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38687,10 +38711,10 @@
         <v>0.8</v>
       </c>
       <c r="AS196">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT196">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU196">
         <v>1.55</v>
@@ -38791,7 +38815,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39315,6 +39339,1725 @@
       </c>
       <c r="BK199">
         <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>5189130</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45150.08333333334</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>76</v>
+      </c>
+      <c r="H200" t="s">
+        <v>72</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>217</v>
+      </c>
+      <c r="P200" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>2.3</v>
+      </c>
+      <c r="U200">
+        <v>2.4</v>
+      </c>
+      <c r="V200">
+        <v>4</v>
+      </c>
+      <c r="W200">
+        <v>1.25</v>
+      </c>
+      <c r="X200">
+        <v>3.6</v>
+      </c>
+      <c r="Y200">
+        <v>2.2</v>
+      </c>
+      <c r="Z200">
+        <v>1.6</v>
+      </c>
+      <c r="AA200">
+        <v>4.75</v>
+      </c>
+      <c r="AB200">
+        <v>1.15</v>
+      </c>
+      <c r="AC200">
+        <v>1.83</v>
+      </c>
+      <c r="AD200">
+        <v>4.2</v>
+      </c>
+      <c r="AE200">
+        <v>3.35</v>
+      </c>
+      <c r="AF200">
+        <v>1.02</v>
+      </c>
+      <c r="AG200">
+        <v>13</v>
+      </c>
+      <c r="AH200">
+        <v>1.15</v>
+      </c>
+      <c r="AI200">
+        <v>4.75</v>
+      </c>
+      <c r="AJ200">
+        <v>1.5</v>
+      </c>
+      <c r="AK200">
+        <v>2.4</v>
+      </c>
+      <c r="AL200">
+        <v>1.5</v>
+      </c>
+      <c r="AM200">
+        <v>2.4</v>
+      </c>
+      <c r="AN200">
+        <v>1.29</v>
+      </c>
+      <c r="AO200">
+        <v>1.22</v>
+      </c>
+      <c r="AP200">
+        <v>2</v>
+      </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
+      <c r="AR200">
+        <v>1.4</v>
+      </c>
+      <c r="AS200">
+        <v>1</v>
+      </c>
+      <c r="AT200">
+        <v>1.36</v>
+      </c>
+      <c r="AU200">
+        <v>1.71</v>
+      </c>
+      <c r="AV200">
+        <v>1.13</v>
+      </c>
+      <c r="AW200">
+        <v>2.84</v>
+      </c>
+      <c r="AX200">
+        <v>1.68</v>
+      </c>
+      <c r="AY200">
+        <v>9</v>
+      </c>
+      <c r="AZ200">
+        <v>2.58</v>
+      </c>
+      <c r="BA200">
+        <v>1.25</v>
+      </c>
+      <c r="BB200">
+        <v>1.49</v>
+      </c>
+      <c r="BC200">
+        <v>1.86</v>
+      </c>
+      <c r="BD200">
+        <v>2.39</v>
+      </c>
+      <c r="BE200">
+        <v>3.18</v>
+      </c>
+      <c r="BF200">
+        <v>6</v>
+      </c>
+      <c r="BG200">
+        <v>2</v>
+      </c>
+      <c r="BH200">
+        <v>8</v>
+      </c>
+      <c r="BI200">
+        <v>2</v>
+      </c>
+      <c r="BJ200">
+        <v>14</v>
+      </c>
+      <c r="BK200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>5189131</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45150.25</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201" t="s">
+        <v>218</v>
+      </c>
+      <c r="P201" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q201">
+        <v>6</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>7</v>
+      </c>
+      <c r="T201">
+        <v>2.8</v>
+      </c>
+      <c r="U201">
+        <v>2.15</v>
+      </c>
+      <c r="V201">
+        <v>3.5</v>
+      </c>
+      <c r="W201">
+        <v>1.36</v>
+      </c>
+      <c r="X201">
+        <v>2.9</v>
+      </c>
+      <c r="Y201">
+        <v>2.62</v>
+      </c>
+      <c r="Z201">
+        <v>1.42</v>
+      </c>
+      <c r="AA201">
+        <v>5.75</v>
+      </c>
+      <c r="AB201">
+        <v>1.1</v>
+      </c>
+      <c r="AC201">
+        <v>2.2</v>
+      </c>
+      <c r="AD201">
+        <v>3.3</v>
+      </c>
+      <c r="AE201">
+        <v>3.05</v>
+      </c>
+      <c r="AF201">
+        <v>1.05</v>
+      </c>
+      <c r="AG201">
+        <v>7.8</v>
+      </c>
+      <c r="AH201">
+        <v>1.28</v>
+      </c>
+      <c r="AI201">
+        <v>3.5</v>
+      </c>
+      <c r="AJ201">
+        <v>1.85</v>
+      </c>
+      <c r="AK201">
+        <v>1.85</v>
+      </c>
+      <c r="AL201">
+        <v>1.68</v>
+      </c>
+      <c r="AM201">
+        <v>2.1</v>
+      </c>
+      <c r="AN201">
+        <v>1.35</v>
+      </c>
+      <c r="AO201">
+        <v>1.28</v>
+      </c>
+      <c r="AP201">
+        <v>1.58</v>
+      </c>
+      <c r="AQ201">
+        <v>1.27</v>
+      </c>
+      <c r="AR201">
+        <v>0.64</v>
+      </c>
+      <c r="AS201">
+        <v>1.25</v>
+      </c>
+      <c r="AT201">
+        <v>0.67</v>
+      </c>
+      <c r="AU201">
+        <v>1.54</v>
+      </c>
+      <c r="AV201">
+        <v>1.38</v>
+      </c>
+      <c r="AW201">
+        <v>2.92</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+      <c r="AY201">
+        <v>6.5</v>
+      </c>
+      <c r="AZ201">
+        <v>2.25</v>
+      </c>
+      <c r="BA201">
+        <v>1.28</v>
+      </c>
+      <c r="BB201">
+        <v>1.52</v>
+      </c>
+      <c r="BC201">
+        <v>1.93</v>
+      </c>
+      <c r="BD201">
+        <v>2.35</v>
+      </c>
+      <c r="BE201">
+        <v>3</v>
+      </c>
+      <c r="BF201">
+        <v>10</v>
+      </c>
+      <c r="BG201">
+        <v>3</v>
+      </c>
+      <c r="BH201">
+        <v>5</v>
+      </c>
+      <c r="BI201">
+        <v>6</v>
+      </c>
+      <c r="BJ201">
+        <v>15</v>
+      </c>
+      <c r="BK201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>5189132</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>73</v>
+      </c>
+      <c r="H202" t="s">
+        <v>70</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>219</v>
+      </c>
+      <c r="P202" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>9</v>
+      </c>
+      <c r="S202">
+        <v>14</v>
+      </c>
+      <c r="T202">
+        <v>3.3</v>
+      </c>
+      <c r="U202">
+        <v>2.15</v>
+      </c>
+      <c r="V202">
+        <v>3</v>
+      </c>
+      <c r="W202">
+        <v>1.38</v>
+      </c>
+      <c r="X202">
+        <v>2.8</v>
+      </c>
+      <c r="Y202">
+        <v>2.7</v>
+      </c>
+      <c r="Z202">
+        <v>1.4</v>
+      </c>
+      <c r="AA202">
+        <v>6</v>
+      </c>
+      <c r="AB202">
+        <v>1.09</v>
+      </c>
+      <c r="AC202">
+        <v>2.6</v>
+      </c>
+      <c r="AD202">
+        <v>3.3</v>
+      </c>
+      <c r="AE202">
+        <v>2.5</v>
+      </c>
+      <c r="AF202">
+        <v>1.02</v>
+      </c>
+      <c r="AG202">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH202">
+        <v>1.29</v>
+      </c>
+      <c r="AI202">
+        <v>3.3</v>
+      </c>
+      <c r="AJ202">
+        <v>1.85</v>
+      </c>
+      <c r="AK202">
+        <v>1.85</v>
+      </c>
+      <c r="AL202">
+        <v>1.7</v>
+      </c>
+      <c r="AM202">
+        <v>2.05</v>
+      </c>
+      <c r="AN202">
+        <v>1.53</v>
+      </c>
+      <c r="AO202">
+        <v>1.3</v>
+      </c>
+      <c r="AP202">
+        <v>1.48</v>
+      </c>
+      <c r="AQ202">
+        <v>0.82</v>
+      </c>
+      <c r="AR202">
+        <v>1.6</v>
+      </c>
+      <c r="AS202">
+        <v>0.83</v>
+      </c>
+      <c r="AT202">
+        <v>1.55</v>
+      </c>
+      <c r="AU202">
+        <v>1.39</v>
+      </c>
+      <c r="AV202">
+        <v>1.24</v>
+      </c>
+      <c r="AW202">
+        <v>2.63</v>
+      </c>
+      <c r="AX202">
+        <v>1.85</v>
+      </c>
+      <c r="AY202">
+        <v>7</v>
+      </c>
+      <c r="AZ202">
+        <v>2.4</v>
+      </c>
+      <c r="BA202">
+        <v>1.33</v>
+      </c>
+      <c r="BB202">
+        <v>1.6</v>
+      </c>
+      <c r="BC202">
+        <v>1.95</v>
+      </c>
+      <c r="BD202">
+        <v>2.55</v>
+      </c>
+      <c r="BE202">
+        <v>3.4</v>
+      </c>
+      <c r="BF202">
+        <v>5</v>
+      </c>
+      <c r="BG202">
+        <v>2</v>
+      </c>
+      <c r="BH202">
+        <v>7</v>
+      </c>
+      <c r="BI202">
+        <v>5</v>
+      </c>
+      <c r="BJ202">
+        <v>12</v>
+      </c>
+      <c r="BK202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5189133</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>67</v>
+      </c>
+      <c r="H203" t="s">
+        <v>69</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>220</v>
+      </c>
+      <c r="P203" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>5</v>
+      </c>
+      <c r="T203">
+        <v>2.45</v>
+      </c>
+      <c r="U203">
+        <v>2.1</v>
+      </c>
+      <c r="V203">
+        <v>4.2</v>
+      </c>
+      <c r="W203">
+        <v>1.39</v>
+      </c>
+      <c r="X203">
+        <v>2.75</v>
+      </c>
+      <c r="Y203">
+        <v>2.8</v>
+      </c>
+      <c r="Z203">
+        <v>1.38</v>
+      </c>
+      <c r="AA203">
+        <v>7.25</v>
+      </c>
+      <c r="AB203">
+        <v>1.08</v>
+      </c>
+      <c r="AC203">
+        <v>1.95</v>
+      </c>
+      <c r="AD203">
+        <v>3.35</v>
+      </c>
+      <c r="AE203">
+        <v>3.65</v>
+      </c>
+      <c r="AF203">
+        <v>1.06</v>
+      </c>
+      <c r="AG203">
+        <v>9</v>
+      </c>
+      <c r="AH203">
+        <v>1.3</v>
+      </c>
+      <c r="AI203">
+        <v>3.2</v>
+      </c>
+      <c r="AJ203">
+        <v>1.9</v>
+      </c>
+      <c r="AK203">
+        <v>1.8</v>
+      </c>
+      <c r="AL203">
+        <v>1.82</v>
+      </c>
+      <c r="AM203">
+        <v>1.87</v>
+      </c>
+      <c r="AN203">
+        <v>1.24</v>
+      </c>
+      <c r="AO203">
+        <v>1.28</v>
+      </c>
+      <c r="AP203">
+        <v>1.88</v>
+      </c>
+      <c r="AQ203">
+        <v>1.9</v>
+      </c>
+      <c r="AR203">
+        <v>1</v>
+      </c>
+      <c r="AS203">
+        <v>2</v>
+      </c>
+      <c r="AT203">
+        <v>0.92</v>
+      </c>
+      <c r="AU203">
+        <v>1.36</v>
+      </c>
+      <c r="AV203">
+        <v>1.2</v>
+      </c>
+      <c r="AW203">
+        <v>2.56</v>
+      </c>
+      <c r="AX203">
+        <v>1.46</v>
+      </c>
+      <c r="AY203">
+        <v>6</v>
+      </c>
+      <c r="AZ203">
+        <v>3.15</v>
+      </c>
+      <c r="BA203">
+        <v>1.28</v>
+      </c>
+      <c r="BB203">
+        <v>1.47</v>
+      </c>
+      <c r="BC203">
+        <v>1.8</v>
+      </c>
+      <c r="BD203">
+        <v>2.25</v>
+      </c>
+      <c r="BE203">
+        <v>3</v>
+      </c>
+      <c r="BF203">
+        <v>7</v>
+      </c>
+      <c r="BG203">
+        <v>6</v>
+      </c>
+      <c r="BH203">
+        <v>7</v>
+      </c>
+      <c r="BI203">
+        <v>3</v>
+      </c>
+      <c r="BJ203">
+        <v>14</v>
+      </c>
+      <c r="BK203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>5189134</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>65</v>
+      </c>
+      <c r="H204" t="s">
+        <v>71</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>84</v>
+      </c>
+      <c r="P204" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>5</v>
+      </c>
+      <c r="S204">
+        <v>10</v>
+      </c>
+      <c r="T204">
+        <v>2.63</v>
+      </c>
+      <c r="U204">
+        <v>2.2</v>
+      </c>
+      <c r="V204">
+        <v>3.75</v>
+      </c>
+      <c r="W204">
+        <v>1.33</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>2.5</v>
+      </c>
+      <c r="Z204">
+        <v>1.48</v>
+      </c>
+      <c r="AA204">
+        <v>5.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.11</v>
+      </c>
+      <c r="AC204">
+        <v>2.1</v>
+      </c>
+      <c r="AD204">
+        <v>3.45</v>
+      </c>
+      <c r="AE204">
+        <v>3.2</v>
+      </c>
+      <c r="AF204">
+        <v>1.05</v>
+      </c>
+      <c r="AG204">
+        <v>8</v>
+      </c>
+      <c r="AH204">
+        <v>1.25</v>
+      </c>
+      <c r="AI204">
+        <v>3.6</v>
+      </c>
+      <c r="AJ204">
+        <v>1.75</v>
+      </c>
+      <c r="AK204">
+        <v>1.95</v>
+      </c>
+      <c r="AL204">
+        <v>1.65</v>
+      </c>
+      <c r="AM204">
+        <v>2.1</v>
+      </c>
+      <c r="AN204">
+        <v>1.33</v>
+      </c>
+      <c r="AO204">
+        <v>1.3</v>
+      </c>
+      <c r="AP204">
+        <v>1.73</v>
+      </c>
+      <c r="AQ204">
+        <v>1.5</v>
+      </c>
+      <c r="AR204">
+        <v>2</v>
+      </c>
+      <c r="AS204">
+        <v>1.36</v>
+      </c>
+      <c r="AT204">
+        <v>2.09</v>
+      </c>
+      <c r="AU204">
+        <v>1.57</v>
+      </c>
+      <c r="AV204">
+        <v>1.43</v>
+      </c>
+      <c r="AW204">
+        <v>3</v>
+      </c>
+      <c r="AX204">
+        <v>1.62</v>
+      </c>
+      <c r="AY204">
+        <v>7.5</v>
+      </c>
+      <c r="AZ204">
+        <v>2.88</v>
+      </c>
+      <c r="BA204">
+        <v>1.3</v>
+      </c>
+      <c r="BB204">
+        <v>1.52</v>
+      </c>
+      <c r="BC204">
+        <v>2</v>
+      </c>
+      <c r="BD204">
+        <v>2.35</v>
+      </c>
+      <c r="BE204">
+        <v>3.1</v>
+      </c>
+      <c r="BF204">
+        <v>0</v>
+      </c>
+      <c r="BG204">
+        <v>7</v>
+      </c>
+      <c r="BH204">
+        <v>4</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>4</v>
+      </c>
+      <c r="BK204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>5189135</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>78</v>
+      </c>
+      <c r="H205" t="s">
+        <v>68</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>221</v>
+      </c>
+      <c r="P205" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>12</v>
+      </c>
+      <c r="S205">
+        <v>12</v>
+      </c>
+      <c r="T205">
+        <v>2.4</v>
+      </c>
+      <c r="U205">
+        <v>2.1</v>
+      </c>
+      <c r="V205">
+        <v>4.75</v>
+      </c>
+      <c r="W205">
+        <v>1.42</v>
+      </c>
+      <c r="X205">
+        <v>2.62</v>
+      </c>
+      <c r="Y205">
+        <v>3</v>
+      </c>
+      <c r="Z205">
+        <v>1.33</v>
+      </c>
+      <c r="AA205">
+        <v>7</v>
+      </c>
+      <c r="AB205">
+        <v>1.07</v>
+      </c>
+      <c r="AC205">
+        <v>1.8</v>
+      </c>
+      <c r="AD205">
+        <v>3.45</v>
+      </c>
+      <c r="AE205">
+        <v>4.2</v>
+      </c>
+      <c r="AF205">
+        <v>1.06</v>
+      </c>
+      <c r="AG205">
+        <v>7.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.36</v>
+      </c>
+      <c r="AI205">
+        <v>2.9</v>
+      </c>
+      <c r="AJ205">
+        <v>2</v>
+      </c>
+      <c r="AK205">
+        <v>1.7</v>
+      </c>
+      <c r="AL205">
+        <v>1.95</v>
+      </c>
+      <c r="AM205">
+        <v>1.75</v>
+      </c>
+      <c r="AN205">
+        <v>1.22</v>
+      </c>
+      <c r="AO205">
+        <v>1.3</v>
+      </c>
+      <c r="AP205">
+        <v>1.95</v>
+      </c>
+      <c r="AQ205">
+        <v>1.82</v>
+      </c>
+      <c r="AR205">
+        <v>0.6</v>
+      </c>
+      <c r="AS205">
+        <v>1.92</v>
+      </c>
+      <c r="AT205">
+        <v>0.55</v>
+      </c>
+      <c r="AU205">
+        <v>1.47</v>
+      </c>
+      <c r="AV205">
+        <v>1.38</v>
+      </c>
+      <c r="AW205">
+        <v>2.85</v>
+      </c>
+      <c r="AX205">
+        <v>1.48</v>
+      </c>
+      <c r="AY205">
+        <v>6</v>
+      </c>
+      <c r="AZ205">
+        <v>3</v>
+      </c>
+      <c r="BA205">
+        <v>1.3</v>
+      </c>
+      <c r="BB205">
+        <v>1.53</v>
+      </c>
+      <c r="BC205">
+        <v>2</v>
+      </c>
+      <c r="BD205">
+        <v>2.4</v>
+      </c>
+      <c r="BE205">
+        <v>3.1</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>6</v>
+      </c>
+      <c r="BH205">
+        <v>2</v>
+      </c>
+      <c r="BI205">
+        <v>4</v>
+      </c>
+      <c r="BJ205">
+        <v>8</v>
+      </c>
+      <c r="BK205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>5189136</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45150.3125</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>77</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>222</v>
+      </c>
+      <c r="P206" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q206">
+        <v>9</v>
+      </c>
+      <c r="R206">
+        <v>5</v>
+      </c>
+      <c r="S206">
+        <v>14</v>
+      </c>
+      <c r="T206">
+        <v>2.14</v>
+      </c>
+      <c r="U206">
+        <v>2.51</v>
+      </c>
+      <c r="V206">
+        <v>4.4</v>
+      </c>
+      <c r="W206">
+        <v>1.23</v>
+      </c>
+      <c r="X206">
+        <v>3.92</v>
+      </c>
+      <c r="Y206">
+        <v>2.05</v>
+      </c>
+      <c r="Z206">
+        <v>1.73</v>
+      </c>
+      <c r="AA206">
+        <v>4.33</v>
+      </c>
+      <c r="AB206">
+        <v>1.19</v>
+      </c>
+      <c r="AC206">
+        <v>1.62</v>
+      </c>
+      <c r="AD206">
+        <v>4.2</v>
+      </c>
+      <c r="AE206">
+        <v>4.33</v>
+      </c>
+      <c r="AF206">
+        <v>1.02</v>
+      </c>
+      <c r="AG206">
+        <v>15</v>
+      </c>
+      <c r="AH206">
+        <v>1.18</v>
+      </c>
+      <c r="AI206">
+        <v>4.5</v>
+      </c>
+      <c r="AJ206">
+        <v>1.4</v>
+      </c>
+      <c r="AK206">
+        <v>2.75</v>
+      </c>
+      <c r="AL206">
+        <v>1.45</v>
+      </c>
+      <c r="AM206">
+        <v>2.66</v>
+      </c>
+      <c r="AN206">
+        <v>1.21</v>
+      </c>
+      <c r="AO206">
+        <v>1.22</v>
+      </c>
+      <c r="AP206">
+        <v>2.18</v>
+      </c>
+      <c r="AQ206">
+        <v>2.3</v>
+      </c>
+      <c r="AR206">
+        <v>1</v>
+      </c>
+      <c r="AS206">
+        <v>2.36</v>
+      </c>
+      <c r="AT206">
+        <v>0.92</v>
+      </c>
+      <c r="AU206">
+        <v>1.64</v>
+      </c>
+      <c r="AV206">
+        <v>1.24</v>
+      </c>
+      <c r="AW206">
+        <v>2.88</v>
+      </c>
+      <c r="AX206">
+        <v>1.5</v>
+      </c>
+      <c r="AY206">
+        <v>7.5</v>
+      </c>
+      <c r="AZ206">
+        <v>3.3</v>
+      </c>
+      <c r="BA206">
+        <v>1.3</v>
+      </c>
+      <c r="BB206">
+        <v>1.53</v>
+      </c>
+      <c r="BC206">
+        <v>2</v>
+      </c>
+      <c r="BD206">
+        <v>2.4</v>
+      </c>
+      <c r="BE206">
+        <v>3.1</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>4</v>
+      </c>
+      <c r="BH206">
+        <v>10</v>
+      </c>
+      <c r="BI206">
+        <v>6</v>
+      </c>
+      <c r="BJ206">
+        <v>14</v>
+      </c>
+      <c r="BK206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5189137</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45151.25</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>80</v>
+      </c>
+      <c r="H207" t="s">
+        <v>79</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>223</v>
+      </c>
+      <c r="P207" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q207">
+        <v>3</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="S207">
+        <v>8</v>
+      </c>
+      <c r="T207">
+        <v>3.2</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
+        <v>3.75</v>
+      </c>
+      <c r="W207">
+        <v>1.53</v>
+      </c>
+      <c r="X207">
+        <v>2.38</v>
+      </c>
+      <c r="Y207">
+        <v>3.5</v>
+      </c>
+      <c r="Z207">
+        <v>1.29</v>
+      </c>
+      <c r="AA207">
+        <v>11</v>
+      </c>
+      <c r="AB207">
+        <v>1.05</v>
+      </c>
+      <c r="AC207">
+        <v>2.25</v>
+      </c>
+      <c r="AD207">
+        <v>3</v>
+      </c>
+      <c r="AE207">
+        <v>2.9</v>
+      </c>
+      <c r="AF207">
+        <v>1.08</v>
+      </c>
+      <c r="AG207">
+        <v>6.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.44</v>
+      </c>
+      <c r="AI207">
+        <v>2.6</v>
+      </c>
+      <c r="AJ207">
+        <v>2.3</v>
+      </c>
+      <c r="AK207">
+        <v>1.54</v>
+      </c>
+      <c r="AL207">
+        <v>2</v>
+      </c>
+      <c r="AM207">
+        <v>1.75</v>
+      </c>
+      <c r="AN207">
+        <v>1.36</v>
+      </c>
+      <c r="AO207">
+        <v>1.36</v>
+      </c>
+      <c r="AP207">
+        <v>1.58</v>
+      </c>
+      <c r="AQ207">
+        <v>2.17</v>
+      </c>
+      <c r="AR207">
+        <v>1.75</v>
+      </c>
+      <c r="AS207">
+        <v>2.23</v>
+      </c>
+      <c r="AT207">
+        <v>1.62</v>
+      </c>
+      <c r="AU207">
+        <v>1.47</v>
+      </c>
+      <c r="AV207">
+        <v>1.3</v>
+      </c>
+      <c r="AW207">
+        <v>2.77</v>
+      </c>
+      <c r="AX207">
+        <v>1.71</v>
+      </c>
+      <c r="AY207">
+        <v>5.5</v>
+      </c>
+      <c r="AZ207">
+        <v>2.45</v>
+      </c>
+      <c r="BA207">
+        <v>1.33</v>
+      </c>
+      <c r="BB207">
+        <v>1.6</v>
+      </c>
+      <c r="BC207">
+        <v>1.95</v>
+      </c>
+      <c r="BD207">
+        <v>2.55</v>
+      </c>
+      <c r="BE207">
+        <v>3.4</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>4</v>
+      </c>
+      <c r="BH207">
+        <v>4</v>
+      </c>
+      <c r="BI207">
+        <v>7</v>
+      </c>
+      <c r="BJ207">
+        <v>8</v>
+      </c>
+      <c r="BK207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5189138</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45151.25</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>66</v>
+      </c>
+      <c r="H208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>224</v>
+      </c>
+      <c r="P208" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q208">
+        <v>6</v>
+      </c>
+      <c r="R208">
+        <v>11</v>
+      </c>
+      <c r="S208">
+        <v>17</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>2.1</v>
+      </c>
+      <c r="V208">
+        <v>3.75</v>
+      </c>
+      <c r="W208">
+        <v>1.44</v>
+      </c>
+      <c r="X208">
+        <v>2.63</v>
+      </c>
+      <c r="Y208">
+        <v>3.25</v>
+      </c>
+      <c r="Z208">
+        <v>1.33</v>
+      </c>
+      <c r="AA208">
+        <v>9</v>
+      </c>
+      <c r="AB208">
+        <v>1.07</v>
+      </c>
+      <c r="AC208">
+        <v>2.15</v>
+      </c>
+      <c r="AD208">
+        <v>3.15</v>
+      </c>
+      <c r="AE208">
+        <v>2.9</v>
+      </c>
+      <c r="AF208">
+        <v>1.04</v>
+      </c>
+      <c r="AG208">
+        <v>7.8</v>
+      </c>
+      <c r="AH208">
+        <v>1.3</v>
+      </c>
+      <c r="AI208">
+        <v>3.2</v>
+      </c>
+      <c r="AJ208">
+        <v>1.91</v>
+      </c>
+      <c r="AK208">
+        <v>1.74</v>
+      </c>
+      <c r="AL208">
+        <v>1.91</v>
+      </c>
+      <c r="AM208">
+        <v>1.91</v>
+      </c>
+      <c r="AN208">
+        <v>1.4</v>
+      </c>
+      <c r="AO208">
+        <v>1.33</v>
+      </c>
+      <c r="AP208">
+        <v>1.57</v>
+      </c>
+      <c r="AQ208">
+        <v>1.64</v>
+      </c>
+      <c r="AR208">
+        <v>1.45</v>
+      </c>
+      <c r="AS208">
+        <v>1.75</v>
+      </c>
+      <c r="AT208">
+        <v>1.33</v>
+      </c>
+      <c r="AU208">
+        <v>1.88</v>
+      </c>
+      <c r="AV208">
+        <v>1.2</v>
+      </c>
+      <c r="AW208">
+        <v>3.08</v>
+      </c>
+      <c r="AX208">
+        <v>1.39</v>
+      </c>
+      <c r="AY208">
+        <v>6</v>
+      </c>
+      <c r="AZ208">
+        <v>3.45</v>
+      </c>
+      <c r="BA208">
+        <v>1.3</v>
+      </c>
+      <c r="BB208">
+        <v>1.55</v>
+      </c>
+      <c r="BC208">
+        <v>2</v>
+      </c>
+      <c r="BD208">
+        <v>2.45</v>
+      </c>
+      <c r="BE208">
+        <v>3.25</v>
+      </c>
+      <c r="BF208">
+        <v>15</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>5</v>
+      </c>
+      <c r="BI208">
+        <v>2</v>
+      </c>
+      <c r="BJ208">
+        <v>20</v>
+      </c>
+      <c r="BK208">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -40854,19 +40854,19 @@
         <v>4</v>
       </c>
       <c r="BG207">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH207">
         <v>4</v>
       </c>
       <c r="BI207">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ207">
         <v>8</v>
       </c>
       <c r="BK207">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:63">
@@ -41042,19 +41042,19 @@
         <v>3.25</v>
       </c>
       <c r="BF208">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BG208">
         <v>3</v>
       </c>
       <c r="BH208">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI208">
         <v>2</v>
       </c>
       <c r="BJ208">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BK208">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -40854,19 +40854,19 @@
         <v>4</v>
       </c>
       <c r="BG207">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH207">
         <v>4</v>
       </c>
       <c r="BI207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ207">
         <v>8</v>
       </c>
       <c r="BK207">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:63">
@@ -41042,19 +41042,19 @@
         <v>3.25</v>
       </c>
       <c r="BF208">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BG208">
         <v>3</v>
       </c>
       <c r="BH208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI208">
         <v>2</v>
       </c>
       <c r="BJ208">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BK208">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,9 @@
     <t>['69', '90+3']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -1326,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1573,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2233,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2525,7 +2528,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2615,7 +2618,7 @@
         <v>1.58</v>
       </c>
       <c r="AT7">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2907,7 +2910,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3098,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3289,7 +3292,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3671,7 +3674,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3862,7 +3865,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4053,7 +4056,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4140,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT15">
         <v>1.55</v>
@@ -4244,7 +4247,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4626,7 +4629,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4716,7 +4719,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU18">
         <v>1.61</v>
@@ -4817,7 +4820,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5199,7 +5202,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5390,7 +5393,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5581,7 +5584,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -6154,7 +6157,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6241,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT26">
         <v>1.55</v>
@@ -6432,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT27">
         <v>0.73</v>
@@ -6626,7 +6629,7 @@
         <v>1.25</v>
       </c>
       <c r="AT28">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU28">
         <v>1.2</v>
@@ -6727,7 +6730,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7109,7 +7112,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7682,7 +7685,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7772,7 +7775,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -8064,7 +8067,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8255,7 +8258,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8637,7 +8640,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -9019,7 +9022,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9106,10 +9109,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT41">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU41">
         <v>1.37</v>
@@ -9210,7 +9213,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9974,7 +9977,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10061,7 +10064,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT46">
         <v>0.67</v>
@@ -10165,7 +10168,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10356,7 +10359,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10547,7 +10550,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10738,7 +10741,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10828,7 +10831,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU50">
         <v>1.26</v>
@@ -10929,7 +10932,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11120,7 +11123,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11693,7 +11696,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12356,7 +12359,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12457,7 +12460,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12648,7 +12651,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -13308,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT63">
         <v>0.92</v>
@@ -13603,7 +13606,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13794,7 +13797,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14176,7 +14179,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14367,7 +14370,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14457,7 +14460,7 @@
         <v>1.36</v>
       </c>
       <c r="AT69">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU69">
         <v>1.37</v>
@@ -14558,7 +14561,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14645,7 +14648,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT70">
         <v>1.42</v>
@@ -14749,7 +14752,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14940,7 +14943,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15322,7 +15325,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15513,7 +15516,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15895,7 +15898,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16086,7 +16089,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16277,7 +16280,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16468,7 +16471,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17041,7 +17044,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17232,7 +17235,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17614,7 +17617,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17704,7 +17707,7 @@
         <v>2.36</v>
       </c>
       <c r="AT86">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17895,7 +17898,7 @@
         <v>2</v>
       </c>
       <c r="AT87">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -18187,7 +18190,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18274,7 +18277,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT89">
         <v>1.42</v>
@@ -18569,7 +18572,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18951,7 +18954,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19142,7 +19145,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19420,7 +19423,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT95">
         <v>0.83</v>
@@ -19524,7 +19527,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19715,7 +19718,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19996,7 +19999,7 @@
         <v>1</v>
       </c>
       <c r="AT98">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU98">
         <v>1.08</v>
@@ -20097,7 +20100,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20479,7 +20482,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20670,7 +20673,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21625,7 +21628,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21712,7 +21715,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT107">
         <v>1.36</v>
@@ -21816,7 +21819,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -22198,7 +22201,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22580,7 +22583,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22858,7 +22861,7 @@
         <v>1.17</v>
       </c>
       <c r="AS113">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT113">
         <v>1.36</v>
@@ -23052,7 +23055,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU114">
         <v>1.16</v>
@@ -23153,7 +23156,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23431,7 +23434,7 @@
         <v>0.17</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT116">
         <v>0.92</v>
@@ -23535,7 +23538,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23813,7 +23816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT118">
         <v>1.33</v>
@@ -23917,7 +23920,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24108,7 +24111,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24962,7 +24965,7 @@
         <v>1.25</v>
       </c>
       <c r="AT124">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU124">
         <v>1.29</v>
@@ -25063,7 +25066,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25254,7 +25257,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25344,7 +25347,7 @@
         <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU126">
         <v>1.76</v>
@@ -25445,7 +25448,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25827,7 +25830,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26018,7 +26021,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26209,7 +26212,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26973,7 +26976,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27060,7 +27063,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT135">
         <v>1.18</v>
@@ -27164,7 +27167,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27355,7 +27358,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27445,7 +27448,7 @@
         <v>0.82</v>
       </c>
       <c r="AT137">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU137">
         <v>1.56</v>
@@ -27737,7 +27740,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27824,7 +27827,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT139">
         <v>0.92</v>
@@ -27928,7 +27931,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28119,7 +28122,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28588,7 +28591,7 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT143">
         <v>1.62</v>
@@ -28692,7 +28695,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29265,7 +29268,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29456,7 +29459,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29838,7 +29841,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30411,7 +30414,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30692,7 +30695,7 @@
         <v>0.83</v>
       </c>
       <c r="AT154">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30883,7 +30886,7 @@
         <v>2</v>
       </c>
       <c r="AT155">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU155">
         <v>1.4</v>
@@ -30984,7 +30987,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31175,7 +31178,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31366,7 +31369,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31557,7 +31560,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31748,7 +31751,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31835,7 +31838,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT160">
         <v>1.42</v>
@@ -31939,7 +31942,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32026,7 +32029,7 @@
         <v>2</v>
       </c>
       <c r="AS161">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT161">
         <v>2.09</v>
@@ -32217,7 +32220,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT162">
         <v>0.67</v>
@@ -33467,7 +33470,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33658,7 +33661,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -34040,7 +34043,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34231,7 +34234,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34700,7 +34703,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT175">
         <v>0.83</v>
@@ -34804,7 +34807,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35377,7 +35380,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35464,7 +35467,7 @@
         <v>1.7</v>
       </c>
       <c r="AS179">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT179">
         <v>1.42</v>
@@ -35849,7 +35852,7 @@
         <v>1</v>
       </c>
       <c r="AT181">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -36141,7 +36144,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36332,7 +36335,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36613,7 +36616,7 @@
         <v>1.09</v>
       </c>
       <c r="AT185">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU185">
         <v>1.38</v>
@@ -36905,7 +36908,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37287,7 +37290,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37478,7 +37481,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37759,7 +37762,7 @@
         <v>2.23</v>
       </c>
       <c r="AT191">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU191">
         <v>1.48</v>
@@ -38520,7 +38523,7 @@
         <v>1.82</v>
       </c>
       <c r="AS195">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT195">
         <v>1.75</v>
@@ -38624,7 +38627,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38815,7 +38818,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39579,7 +39582,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -40152,7 +40155,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40430,7 +40433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS205">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT205">
         <v>0.55</v>
@@ -40534,7 +40537,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40916,7 +40919,7 @@
         <v>224</v>
       </c>
       <c r="P208" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41058,6 +41061,388 @@
       </c>
       <c r="BK208">
         <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5189139</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45156.29166666666</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" t="s">
+        <v>81</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>84</v>
+      </c>
+      <c r="P209" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
+        <v>6</v>
+      </c>
+      <c r="T209">
+        <v>3.1</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>3.8</v>
+      </c>
+      <c r="W209">
+        <v>1.49</v>
+      </c>
+      <c r="X209">
+        <v>2.4</v>
+      </c>
+      <c r="Y209">
+        <v>3.3</v>
+      </c>
+      <c r="Z209">
+        <v>1.29</v>
+      </c>
+      <c r="AA209">
+        <v>9.25</v>
+      </c>
+      <c r="AB209">
+        <v>1.05</v>
+      </c>
+      <c r="AC209">
+        <v>2.27</v>
+      </c>
+      <c r="AD209">
+        <v>3</v>
+      </c>
+      <c r="AE209">
+        <v>3.2</v>
+      </c>
+      <c r="AF209">
+        <v>1.08</v>
+      </c>
+      <c r="AG209">
+        <v>6.5</v>
+      </c>
+      <c r="AH209">
+        <v>1.42</v>
+      </c>
+      <c r="AI209">
+        <v>2.62</v>
+      </c>
+      <c r="AJ209">
+        <v>2.35</v>
+      </c>
+      <c r="AK209">
+        <v>1.53</v>
+      </c>
+      <c r="AL209">
+        <v>2</v>
+      </c>
+      <c r="AM209">
+        <v>1.73</v>
+      </c>
+      <c r="AN209">
+        <v>1.36</v>
+      </c>
+      <c r="AO209">
+        <v>1.35</v>
+      </c>
+      <c r="AP209">
+        <v>1.6</v>
+      </c>
+      <c r="AQ209">
+        <v>1.92</v>
+      </c>
+      <c r="AR209">
+        <v>0.91</v>
+      </c>
+      <c r="AS209">
+        <v>1.77</v>
+      </c>
+      <c r="AT209">
+        <v>1.08</v>
+      </c>
+      <c r="AU209">
+        <v>1.44</v>
+      </c>
+      <c r="AV209">
+        <v>1.24</v>
+      </c>
+      <c r="AW209">
+        <v>2.68</v>
+      </c>
+      <c r="AX209">
+        <v>1.95</v>
+      </c>
+      <c r="AY209">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209">
+        <v>2.1</v>
+      </c>
+      <c r="BA209">
+        <v>1.34</v>
+      </c>
+      <c r="BB209">
+        <v>1.64</v>
+      </c>
+      <c r="BC209">
+        <v>2.12</v>
+      </c>
+      <c r="BD209">
+        <v>2.8</v>
+      </c>
+      <c r="BE209">
+        <v>3.86</v>
+      </c>
+      <c r="BF209">
+        <v>5</v>
+      </c>
+      <c r="BG209">
+        <v>3</v>
+      </c>
+      <c r="BH209">
+        <v>1</v>
+      </c>
+      <c r="BI209">
+        <v>9</v>
+      </c>
+      <c r="BJ209">
+        <v>6</v>
+      </c>
+      <c r="BK209">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5189141</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45156.3125</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210" t="s">
+        <v>80</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>225</v>
+      </c>
+      <c r="P210" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q210">
+        <v>5</v>
+      </c>
+      <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
+        <v>12</v>
+      </c>
+      <c r="T210">
+        <v>3.1</v>
+      </c>
+      <c r="U210">
+        <v>1.91</v>
+      </c>
+      <c r="V210">
+        <v>4.33</v>
+      </c>
+      <c r="W210">
+        <v>1.57</v>
+      </c>
+      <c r="X210">
+        <v>2.25</v>
+      </c>
+      <c r="Y210">
+        <v>3.75</v>
+      </c>
+      <c r="Z210">
+        <v>1.25</v>
+      </c>
+      <c r="AA210">
+        <v>13</v>
+      </c>
+      <c r="AB210">
+        <v>1.04</v>
+      </c>
+      <c r="AC210">
+        <v>2.33</v>
+      </c>
+      <c r="AD210">
+        <v>2.9</v>
+      </c>
+      <c r="AE210">
+        <v>3.15</v>
+      </c>
+      <c r="AF210">
+        <v>1.09</v>
+      </c>
+      <c r="AG210">
+        <v>7</v>
+      </c>
+      <c r="AH210">
+        <v>1.5</v>
+      </c>
+      <c r="AI210">
+        <v>2.48</v>
+      </c>
+      <c r="AJ210">
+        <v>2.45</v>
+      </c>
+      <c r="AK210">
+        <v>1.48</v>
+      </c>
+      <c r="AL210">
+        <v>2.2</v>
+      </c>
+      <c r="AM210">
+        <v>1.62</v>
+      </c>
+      <c r="AN210">
+        <v>1.3</v>
+      </c>
+      <c r="AO210">
+        <v>1.28</v>
+      </c>
+      <c r="AP210">
+        <v>1.57</v>
+      </c>
+      <c r="AQ210">
+        <v>2</v>
+      </c>
+      <c r="AR210">
+        <v>1.6</v>
+      </c>
+      <c r="AS210">
+        <v>2.08</v>
+      </c>
+      <c r="AT210">
+        <v>1.45</v>
+      </c>
+      <c r="AU210">
+        <v>1.64</v>
+      </c>
+      <c r="AV210">
+        <v>1.41</v>
+      </c>
+      <c r="AW210">
+        <v>3.05</v>
+      </c>
+      <c r="AX210">
+        <v>1.73</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>2.5</v>
+      </c>
+      <c r="BA210">
+        <v>1.3</v>
+      </c>
+      <c r="BB210">
+        <v>1.55</v>
+      </c>
+      <c r="BC210">
+        <v>1.98</v>
+      </c>
+      <c r="BD210">
+        <v>2.6</v>
+      </c>
+      <c r="BE210">
+        <v>3.6</v>
+      </c>
+      <c r="BF210">
+        <v>5</v>
+      </c>
+      <c r="BG210">
+        <v>5</v>
+      </c>
+      <c r="BH210">
+        <v>8</v>
+      </c>
+      <c r="BI210">
+        <v>12</v>
+      </c>
+      <c r="BJ210">
+        <v>13</v>
+      </c>
+      <c r="BK210">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,24 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['26', '80']</t>
+  </si>
+  <si>
+    <t>['40', '73', '90+2']</t>
+  </si>
+  <si>
+    <t>['37', '61']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['15', '60', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '90+1']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -968,6 +986,9 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['24', '71']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1851,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT3">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2424,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
         <v>1.62</v>
@@ -2528,7 +2549,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2806,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT8">
         <v>1.09</v>
@@ -2910,7 +2931,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3000,7 +3021,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3101,7 +3122,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3292,7 +3313,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3570,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -3674,7 +3695,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3865,7 +3886,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3952,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4056,7 +4077,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4247,7 +4268,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4334,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT16">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4629,7 +4650,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4716,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT18">
         <v>1.08</v>
@@ -4820,7 +4841,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4910,7 +4931,7 @@
         <v>0.83</v>
       </c>
       <c r="AT19">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU19">
         <v>1.53</v>
@@ -5098,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT20">
         <v>1.18</v>
@@ -5202,7 +5223,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5292,7 +5313,7 @@
         <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU21">
         <v>1.61</v>
@@ -5393,7 +5414,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5584,7 +5605,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5674,7 +5695,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5862,10 +5883,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU24">
         <v>0.79</v>
@@ -6053,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT25">
         <v>0.92</v>
@@ -6157,7 +6178,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6438,7 +6459,7 @@
         <v>1.77</v>
       </c>
       <c r="AT27">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6730,7 +6751,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6817,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT29">
         <v>1.33</v>
@@ -7011,7 +7032,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -7112,7 +7133,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7202,7 +7223,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>1.05</v>
@@ -7581,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT33">
         <v>1.09</v>
@@ -7685,7 +7706,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -8067,7 +8088,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8258,7 +8279,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8345,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT37">
         <v>1.18</v>
@@ -8539,7 +8560,7 @@
         <v>2.23</v>
       </c>
       <c r="AT38">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU38">
         <v>2.05</v>
@@ -8640,7 +8661,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8918,7 +8939,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT40">
         <v>1.62</v>
@@ -9022,7 +9043,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9213,7 +9234,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9300,10 +9321,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9873,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT45">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>2.41</v>
@@ -9977,7 +9998,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10067,7 +10088,7 @@
         <v>1.77</v>
       </c>
       <c r="AT46">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU46">
         <v>1.39</v>
@@ -10168,7 +10189,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10359,7 +10380,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10446,7 +10467,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>2.09</v>
@@ -10550,7 +10571,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10741,7 +10762,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10932,7 +10953,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11019,7 +11040,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
         <v>1.18</v>
@@ -11123,7 +11144,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11404,7 +11425,7 @@
         <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU53">
         <v>0.95</v>
@@ -11696,7 +11717,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11786,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -11974,7 +11995,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT56">
         <v>0.55</v>
@@ -12165,10 +12186,10 @@
         <v>0.5</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT57">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU57">
         <v>2.14</v>
@@ -12356,7 +12377,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT58">
         <v>1.08</v>
@@ -12460,7 +12481,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12550,7 +12571,7 @@
         <v>1.58</v>
       </c>
       <c r="AT59">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12651,7 +12672,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12741,7 +12762,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU60">
         <v>1.47</v>
@@ -13120,10 +13141,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT62">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU62">
         <v>1.7</v>
@@ -13606,7 +13627,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13797,7 +13818,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14078,7 +14099,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>1.01</v>
@@ -14179,7 +14200,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14370,7 +14391,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14561,7 +14582,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14651,7 +14672,7 @@
         <v>2.08</v>
       </c>
       <c r="AT70">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14752,7 +14773,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14839,7 +14860,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT71">
         <v>2.09</v>
@@ -14943,7 +14964,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15221,7 +15242,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
         <v>0.92</v>
@@ -15325,7 +15346,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15412,10 +15433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT74">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU74">
         <v>2.14</v>
@@ -15516,7 +15537,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15603,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT75">
         <v>1.75</v>
@@ -15797,7 +15818,7 @@
         <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU76">
         <v>1.1</v>
@@ -15898,7 +15919,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15985,10 +16006,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT77">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.14</v>
@@ -16089,7 +16110,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16280,7 +16301,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16471,7 +16492,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16561,7 +16582,7 @@
         <v>2.23</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU80">
         <v>1.44</v>
@@ -16940,7 +16961,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT82">
         <v>0.55</v>
@@ -17044,7 +17065,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17134,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17235,7 +17256,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17513,10 +17534,10 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17617,7 +17638,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17704,7 +17725,7 @@
         <v>2.4</v>
       </c>
       <c r="AS86">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT86">
         <v>1.45</v>
@@ -18190,7 +18211,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18280,7 +18301,7 @@
         <v>1.77</v>
       </c>
       <c r="AT89">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU89">
         <v>1.4</v>
@@ -18468,7 +18489,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT90">
         <v>0.92</v>
@@ -18572,7 +18593,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18850,10 +18871,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18954,7 +18975,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19041,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
         <v>1.55</v>
@@ -19145,7 +19166,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19426,7 +19447,7 @@
         <v>1.77</v>
       </c>
       <c r="AT95">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU95">
         <v>1.33</v>
@@ -19527,7 +19548,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19718,7 +19739,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19808,7 +19829,7 @@
         <v>0.82</v>
       </c>
       <c r="AT97">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -20100,7 +20121,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20190,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU99">
         <v>1.59</v>
@@ -20482,7 +20503,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20569,7 +20590,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT101">
         <v>1.09</v>
@@ -20673,7 +20694,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20760,7 +20781,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT102">
         <v>0.92</v>
@@ -20954,7 +20975,7 @@
         <v>1.25</v>
       </c>
       <c r="AT103">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU103">
         <v>1.24</v>
@@ -21333,7 +21354,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT105">
         <v>0.55</v>
@@ -21527,7 +21548,7 @@
         <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21628,7 +21649,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21718,7 +21739,7 @@
         <v>2.08</v>
       </c>
       <c r="AT107">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU107">
         <v>1.29</v>
@@ -21819,7 +21840,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21909,7 +21930,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -22097,7 +22118,7 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT109">
         <v>1.18</v>
@@ -22201,7 +22222,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22291,7 +22312,7 @@
         <v>0.82</v>
       </c>
       <c r="AT110">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22583,7 +22604,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22670,7 +22691,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT112">
         <v>1.55</v>
@@ -22864,7 +22885,7 @@
         <v>1.77</v>
       </c>
       <c r="AT113">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -23052,7 +23073,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT114">
         <v>1.45</v>
@@ -23156,7 +23177,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23538,7 +23559,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23920,7 +23941,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24007,10 +24028,10 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU119">
         <v>1.21</v>
@@ -24111,7 +24132,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24583,7 +24604,7 @@
         <v>1</v>
       </c>
       <c r="AT122">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU122">
         <v>1.14</v>
@@ -25066,7 +25087,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25153,7 +25174,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT125">
         <v>1.75</v>
@@ -25257,7 +25278,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25448,7 +25469,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25535,10 +25556,10 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT127">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU127">
         <v>1.52</v>
@@ -25726,10 +25747,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU128">
         <v>1.93</v>
@@ -25830,7 +25851,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26021,7 +26042,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26108,7 +26129,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT130">
         <v>1.33</v>
@@ -26212,7 +26233,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26681,7 +26702,7 @@
         <v>0.5</v>
       </c>
       <c r="AS133">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT133">
         <v>1.09</v>
@@ -26875,7 +26896,7 @@
         <v>1.36</v>
       </c>
       <c r="AT134">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -26976,7 +26997,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27167,7 +27188,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27358,7 +27379,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27740,7 +27761,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27931,7 +27952,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28021,7 +28042,7 @@
         <v>1</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU140">
         <v>1.12</v>
@@ -28122,7 +28143,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28212,7 +28233,7 @@
         <v>0.83</v>
       </c>
       <c r="AT141">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU141">
         <v>1.45</v>
@@ -28400,7 +28421,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT142">
         <v>0.92</v>
@@ -28695,7 +28716,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28782,10 +28803,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT144">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU144">
         <v>1.58</v>
@@ -29167,7 +29188,7 @@
         <v>1.25</v>
       </c>
       <c r="AT146">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU146">
         <v>1.27</v>
@@ -29268,7 +29289,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29459,7 +29480,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29737,10 +29758,10 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT149">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU149">
         <v>1.2</v>
@@ -29841,7 +29862,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29928,10 +29949,10 @@
         <v>0.67</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT150">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU150">
         <v>1.85</v>
@@ -30414,7 +30435,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30987,7 +31008,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31077,7 +31098,7 @@
         <v>0.82</v>
       </c>
       <c r="AT156">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU156">
         <v>1.55</v>
@@ -31178,7 +31199,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31265,7 +31286,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT157">
         <v>0.55</v>
@@ -31369,7 +31390,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31456,7 +31477,7 @@
         <v>1.89</v>
       </c>
       <c r="AS158">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT158">
         <v>1.62</v>
@@ -31560,7 +31581,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31647,7 +31668,7 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT159">
         <v>1.75</v>
@@ -31751,7 +31772,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31841,7 +31862,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31942,7 +31963,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32223,7 +32244,7 @@
         <v>2.08</v>
       </c>
       <c r="AT162">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU162">
         <v>1.58</v>
@@ -32602,7 +32623,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT164">
         <v>0.92</v>
@@ -32987,7 +33008,7 @@
         <v>2.23</v>
       </c>
       <c r="AT166">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU166">
         <v>1.48</v>
@@ -33369,7 +33390,7 @@
         <v>2</v>
       </c>
       <c r="AT168">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU168">
         <v>1.42</v>
@@ -33470,7 +33491,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33661,7 +33682,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33748,10 +33769,10 @@
         <v>1.78</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT170">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU170">
         <v>1.52</v>
@@ -33939,10 +33960,10 @@
         <v>0.67</v>
       </c>
       <c r="AS171">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT171">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU171">
         <v>1.55</v>
@@ -34043,7 +34064,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34234,7 +34255,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34512,7 +34533,7 @@
         <v>1.7</v>
       </c>
       <c r="AS174">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT174">
         <v>1.62</v>
@@ -34706,7 +34727,7 @@
         <v>2.08</v>
       </c>
       <c r="AT175">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU175">
         <v>1.66</v>
@@ -34807,7 +34828,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34897,7 +34918,7 @@
         <v>0.83</v>
       </c>
       <c r="AT176">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU176">
         <v>1.43</v>
@@ -35276,7 +35297,7 @@
         <v>1.1</v>
       </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT178">
         <v>0.92</v>
@@ -35380,7 +35401,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35470,7 +35491,7 @@
         <v>1.77</v>
       </c>
       <c r="AT179">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU179">
         <v>1.53</v>
@@ -36040,10 +36061,10 @@
         <v>1.3</v>
       </c>
       <c r="AS182">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT182">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU182">
         <v>1.66</v>
@@ -36144,7 +36165,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36231,7 +36252,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS183">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT183">
         <v>0.55</v>
@@ -36335,7 +36356,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36422,10 +36443,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT184">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU184">
         <v>1.73</v>
@@ -36613,7 +36634,7 @@
         <v>1.78</v>
       </c>
       <c r="AS185">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
         <v>1.45</v>
@@ -36804,10 +36825,10 @@
         <v>1.56</v>
       </c>
       <c r="AS186">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT186">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU186">
         <v>1.49</v>
@@ -36908,7 +36929,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37290,7 +37311,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37481,7 +37502,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37568,10 +37589,10 @@
         <v>1.45</v>
       </c>
       <c r="AS190">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT190">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU190">
         <v>1.49</v>
@@ -38141,10 +38162,10 @@
         <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU193">
         <v>1.21</v>
@@ -38627,7 +38648,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38818,7 +38839,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -38905,10 +38926,10 @@
         <v>0.5</v>
       </c>
       <c r="AS197">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT197">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU197">
         <v>1.46</v>
@@ -39099,7 +39120,7 @@
         <v>1.58</v>
       </c>
       <c r="AT198">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU198">
         <v>1.23</v>
@@ -39481,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="AT200">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU200">
         <v>1.71</v>
@@ -39582,7 +39603,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39672,7 +39693,7 @@
         <v>1.25</v>
       </c>
       <c r="AT201">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -40155,7 +40176,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40537,7 +40558,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40624,7 +40645,7 @@
         <v>1</v>
       </c>
       <c r="AS206">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT206">
         <v>0.92</v>
@@ -40919,7 +40940,7 @@
         <v>224</v>
       </c>
       <c r="P208" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41006,7 +41027,7 @@
         <v>1.45</v>
       </c>
       <c r="AS208">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT208">
         <v>1.33</v>
@@ -41427,22 +41448,1168 @@
         <v>3.6</v>
       </c>
       <c r="BF210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG210">
         <v>5</v>
       </c>
       <c r="BH210">
+        <v>3</v>
+      </c>
+      <c r="BI210">
+        <v>6</v>
+      </c>
+      <c r="BJ210">
+        <v>9</v>
+      </c>
+      <c r="BK210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5189140</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45157.25</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>79</v>
+      </c>
+      <c r="H211" t="s">
+        <v>72</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>226</v>
+      </c>
+      <c r="P211" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q211">
+        <v>4</v>
+      </c>
+      <c r="R211">
+        <v>5</v>
+      </c>
+      <c r="S211">
+        <v>9</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>2.25</v>
+      </c>
+      <c r="V211">
+        <v>5.5</v>
+      </c>
+      <c r="W211">
+        <v>1.36</v>
+      </c>
+      <c r="X211">
+        <v>3</v>
+      </c>
+      <c r="Y211">
+        <v>2.75</v>
+      </c>
+      <c r="Z211">
+        <v>1.4</v>
+      </c>
+      <c r="AA211">
         <v>8</v>
       </c>
-      <c r="BI210">
+      <c r="AB211">
+        <v>1.08</v>
+      </c>
+      <c r="AC211">
+        <v>2.93</v>
+      </c>
+      <c r="AD211">
+        <v>1.67</v>
+      </c>
+      <c r="AE211">
+        <v>5.9</v>
+      </c>
+      <c r="AF211">
+        <v>1.06</v>
+      </c>
+      <c r="AG211">
+        <v>7.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.28</v>
+      </c>
+      <c r="AI211">
+        <v>3.4</v>
+      </c>
+      <c r="AJ211">
+        <v>1.92</v>
+      </c>
+      <c r="AK211">
+        <v>1.88</v>
+      </c>
+      <c r="AL211">
+        <v>1.91</v>
+      </c>
+      <c r="AM211">
+        <v>1.91</v>
+      </c>
+      <c r="AN211">
+        <v>1.12</v>
+      </c>
+      <c r="AO211">
+        <v>1.2</v>
+      </c>
+      <c r="AP211">
+        <v>2.05</v>
+      </c>
+      <c r="AQ211">
+        <v>1.5</v>
+      </c>
+      <c r="AR211">
+        <v>1.36</v>
+      </c>
+      <c r="AS211">
+        <v>1.64</v>
+      </c>
+      <c r="AT211">
+        <v>1.25</v>
+      </c>
+      <c r="AU211">
+        <v>1.26</v>
+      </c>
+      <c r="AV211">
+        <v>1.08</v>
+      </c>
+      <c r="AW211">
+        <v>2.34</v>
+      </c>
+      <c r="AX211">
+        <v>1.73</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>2.5</v>
+      </c>
+      <c r="BA211">
+        <v>1.25</v>
+      </c>
+      <c r="BB211">
+        <v>1.49</v>
+      </c>
+      <c r="BC211">
+        <v>1.93</v>
+      </c>
+      <c r="BD211">
+        <v>2.39</v>
+      </c>
+      <c r="BE211">
+        <v>3.18</v>
+      </c>
+      <c r="BF211">
+        <v>5</v>
+      </c>
+      <c r="BG211">
+        <v>6</v>
+      </c>
+      <c r="BH211">
+        <v>4</v>
+      </c>
+      <c r="BI211">
+        <v>6</v>
+      </c>
+      <c r="BJ211">
+        <v>9</v>
+      </c>
+      <c r="BK211">
         <v>12</v>
       </c>
-      <c r="BJ210">
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5189142</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>69</v>
+      </c>
+      <c r="H212" t="s">
+        <v>76</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>227</v>
+      </c>
+      <c r="P212" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q212">
+        <v>7</v>
+      </c>
+      <c r="R212">
+        <v>4</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>3.4</v>
+      </c>
+      <c r="U212">
+        <v>2.3</v>
+      </c>
+      <c r="V212">
+        <v>2.75</v>
+      </c>
+      <c r="W212">
+        <v>1.3</v>
+      </c>
+      <c r="X212">
+        <v>3.4</v>
+      </c>
+      <c r="Y212">
+        <v>2.5</v>
+      </c>
+      <c r="Z212">
+        <v>1.5</v>
+      </c>
+      <c r="AA212">
+        <v>6</v>
+      </c>
+      <c r="AB212">
+        <v>1.13</v>
+      </c>
+      <c r="AC212">
+        <v>3.21</v>
+      </c>
+      <c r="AD212">
+        <v>4.45</v>
+      </c>
+      <c r="AE212">
+        <v>1.75</v>
+      </c>
+      <c r="AF212">
+        <v>1.03</v>
+      </c>
+      <c r="AG212">
+        <v>11</v>
+      </c>
+      <c r="AH212">
+        <v>1.16</v>
+      </c>
+      <c r="AI212">
+        <v>4.4</v>
+      </c>
+      <c r="AJ212">
+        <v>1.61</v>
+      </c>
+      <c r="AK212">
+        <v>2.15</v>
+      </c>
+      <c r="AL212">
+        <v>1.53</v>
+      </c>
+      <c r="AM212">
+        <v>2.38</v>
+      </c>
+      <c r="AN212">
+        <v>1.69</v>
+      </c>
+      <c r="AO212">
+        <v>1.27</v>
+      </c>
+      <c r="AP212">
+        <v>1.38</v>
+      </c>
+      <c r="AQ212">
+        <v>1.09</v>
+      </c>
+      <c r="AR212">
+        <v>1.42</v>
+      </c>
+      <c r="AS212">
+        <v>1.25</v>
+      </c>
+      <c r="AT212">
+        <v>1.31</v>
+      </c>
+      <c r="AU212">
+        <v>1.42</v>
+      </c>
+      <c r="AV212">
+        <v>1.5</v>
+      </c>
+      <c r="AW212">
+        <v>2.92</v>
+      </c>
+      <c r="AX212">
+        <v>2.38</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>1.8</v>
+      </c>
+      <c r="BA212">
+        <v>1.22</v>
+      </c>
+      <c r="BB212">
+        <v>1.44</v>
+      </c>
+      <c r="BC212">
+        <v>1.85</v>
+      </c>
+      <c r="BD212">
+        <v>2.27</v>
+      </c>
+      <c r="BE212">
+        <v>2.98</v>
+      </c>
+      <c r="BF212">
+        <v>6</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
+        <v>7</v>
+      </c>
+      <c r="BI212">
+        <v>8</v>
+      </c>
+      <c r="BJ212">
         <v>13</v>
       </c>
-      <c r="BK210">
-        <v>17</v>
+      <c r="BK212">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5189143</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>77</v>
+      </c>
+      <c r="H213" t="s">
+        <v>74</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>228</v>
+      </c>
+      <c r="P213" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q213">
+        <v>1</v>
+      </c>
+      <c r="R213">
+        <v>4</v>
+      </c>
+      <c r="S213">
+        <v>5</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>2.25</v>
+      </c>
+      <c r="V213">
+        <v>3.75</v>
+      </c>
+      <c r="W213">
+        <v>1.36</v>
+      </c>
+      <c r="X213">
+        <v>3</v>
+      </c>
+      <c r="Y213">
+        <v>2.63</v>
+      </c>
+      <c r="Z213">
+        <v>1.44</v>
+      </c>
+      <c r="AA213">
+        <v>7</v>
+      </c>
+      <c r="AB213">
+        <v>1.1</v>
+      </c>
+      <c r="AC213">
+        <v>2.84</v>
+      </c>
+      <c r="AD213">
+        <v>1.77</v>
+      </c>
+      <c r="AE213">
+        <v>5.2</v>
+      </c>
+      <c r="AF213">
+        <v>1.02</v>
+      </c>
+      <c r="AG213">
+        <v>9.5</v>
+      </c>
+      <c r="AH213">
+        <v>1.25</v>
+      </c>
+      <c r="AI213">
+        <v>3.6</v>
+      </c>
+      <c r="AJ213">
+        <v>1.81</v>
+      </c>
+      <c r="AK213">
+        <v>1.99</v>
+      </c>
+      <c r="AL213">
+        <v>1.67</v>
+      </c>
+      <c r="AM213">
+        <v>2.1</v>
+      </c>
+      <c r="AN213">
+        <v>1.3</v>
+      </c>
+      <c r="AO213">
+        <v>1.22</v>
+      </c>
+      <c r="AP213">
+        <v>1.72</v>
+      </c>
+      <c r="AQ213">
+        <v>1.64</v>
+      </c>
+      <c r="AR213">
+        <v>0.67</v>
+      </c>
+      <c r="AS213">
+        <v>1.75</v>
+      </c>
+      <c r="AT213">
+        <v>0.62</v>
+      </c>
+      <c r="AU213">
+        <v>1.65</v>
+      </c>
+      <c r="AV213">
+        <v>1.34</v>
+      </c>
+      <c r="AW213">
+        <v>2.99</v>
+      </c>
+      <c r="AX213">
+        <v>2.05</v>
+      </c>
+      <c r="AY213">
+        <v>8</v>
+      </c>
+      <c r="AZ213">
+        <v>1.95</v>
+      </c>
+      <c r="BA213">
+        <v>1.24</v>
+      </c>
+      <c r="BB213">
+        <v>1.44</v>
+      </c>
+      <c r="BC213">
+        <v>1.8</v>
+      </c>
+      <c r="BD213">
+        <v>2.3</v>
+      </c>
+      <c r="BE213">
+        <v>3.1</v>
+      </c>
+      <c r="BF213">
+        <v>8</v>
+      </c>
+      <c r="BG213">
+        <v>4</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>5</v>
+      </c>
+      <c r="BJ213">
+        <v>13</v>
+      </c>
+      <c r="BK213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5189144</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>71</v>
+      </c>
+      <c r="H214" t="s">
+        <v>73</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>229</v>
+      </c>
+      <c r="P214" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q214">
+        <v>2</v>
+      </c>
+      <c r="R214">
+        <v>5</v>
+      </c>
+      <c r="S214">
+        <v>7</v>
+      </c>
+      <c r="T214">
+        <v>2.3</v>
+      </c>
+      <c r="U214">
+        <v>2.2</v>
+      </c>
+      <c r="V214">
+        <v>4.5</v>
+      </c>
+      <c r="W214">
+        <v>1.35</v>
+      </c>
+      <c r="X214">
+        <v>2.95</v>
+      </c>
+      <c r="Y214">
+        <v>2.65</v>
+      </c>
+      <c r="Z214">
+        <v>1.42</v>
+      </c>
+      <c r="AA214">
+        <v>6.45</v>
+      </c>
+      <c r="AB214">
+        <v>1.09</v>
+      </c>
+      <c r="AC214">
+        <v>1.73</v>
+      </c>
+      <c r="AD214">
+        <v>4.21</v>
+      </c>
+      <c r="AE214">
+        <v>3.4</v>
+      </c>
+      <c r="AF214">
+        <v>1.02</v>
+      </c>
+      <c r="AG214">
+        <v>9.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.22</v>
+      </c>
+      <c r="AI214">
+        <v>3.7</v>
+      </c>
+      <c r="AJ214">
+        <v>1.86</v>
+      </c>
+      <c r="AK214">
+        <v>1.94</v>
+      </c>
+      <c r="AL214">
+        <v>1.78</v>
+      </c>
+      <c r="AM214">
+        <v>1.95</v>
+      </c>
+      <c r="AN214">
+        <v>1.16</v>
+      </c>
+      <c r="AO214">
+        <v>1.2</v>
+      </c>
+      <c r="AP214">
+        <v>1.95</v>
+      </c>
+      <c r="AQ214">
+        <v>2</v>
+      </c>
+      <c r="AR214">
+        <v>0.73</v>
+      </c>
+      <c r="AS214">
+        <v>1.92</v>
+      </c>
+      <c r="AT214">
+        <v>0.75</v>
+      </c>
+      <c r="AU214">
+        <v>1.46</v>
+      </c>
+      <c r="AV214">
+        <v>1.15</v>
+      </c>
+      <c r="AW214">
+        <v>2.61</v>
+      </c>
+      <c r="AX214">
+        <v>1.57</v>
+      </c>
+      <c r="AY214">
+        <v>8.5</v>
+      </c>
+      <c r="AZ214">
+        <v>2.88</v>
+      </c>
+      <c r="BA214">
+        <v>1.22</v>
+      </c>
+      <c r="BB214">
+        <v>1.44</v>
+      </c>
+      <c r="BC214">
+        <v>1.85</v>
+      </c>
+      <c r="BD214">
+        <v>2.25</v>
+      </c>
+      <c r="BE214">
+        <v>2.98</v>
+      </c>
+      <c r="BF214">
+        <v>4</v>
+      </c>
+      <c r="BG214">
+        <v>2</v>
+      </c>
+      <c r="BH214">
+        <v>2</v>
+      </c>
+      <c r="BI214">
+        <v>3</v>
+      </c>
+      <c r="BJ214">
+        <v>6</v>
+      </c>
+      <c r="BK214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5189145</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45157.29166666666</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>66</v>
+      </c>
+      <c r="H215" t="s">
+        <v>65</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>230</v>
+      </c>
+      <c r="P215" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q215">
+        <v>3</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>3</v>
+      </c>
+      <c r="U215">
+        <v>2.1</v>
+      </c>
+      <c r="V215">
+        <v>3.3</v>
+      </c>
+      <c r="W215">
+        <v>1.39</v>
+      </c>
+      <c r="X215">
+        <v>2.8</v>
+      </c>
+      <c r="Y215">
+        <v>2.75</v>
+      </c>
+      <c r="Z215">
+        <v>1.4</v>
+      </c>
+      <c r="AA215">
+        <v>6.95</v>
+      </c>
+      <c r="AB215">
+        <v>1.07</v>
+      </c>
+      <c r="AC215">
+        <v>2.48</v>
+      </c>
+      <c r="AD215">
+        <v>4.6</v>
+      </c>
+      <c r="AE215">
+        <v>2.05</v>
+      </c>
+      <c r="AF215">
+        <v>1.03</v>
+      </c>
+      <c r="AG215">
+        <v>8.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.22</v>
+      </c>
+      <c r="AI215">
+        <v>3.7</v>
+      </c>
+      <c r="AJ215">
+        <v>1.89</v>
+      </c>
+      <c r="AK215">
+        <v>1.91</v>
+      </c>
+      <c r="AL215">
+        <v>1.7</v>
+      </c>
+      <c r="AM215">
+        <v>2.1</v>
+      </c>
+      <c r="AN215">
+        <v>1.35</v>
+      </c>
+      <c r="AO215">
+        <v>1.25</v>
+      </c>
+      <c r="AP215">
+        <v>1.55</v>
+      </c>
+      <c r="AQ215">
+        <v>1.75</v>
+      </c>
+      <c r="AR215">
+        <v>1.42</v>
+      </c>
+      <c r="AS215">
+        <v>1.85</v>
+      </c>
+      <c r="AT215">
+        <v>1.31</v>
+      </c>
+      <c r="AU215">
+        <v>1.96</v>
+      </c>
+      <c r="AV215">
+        <v>1.49</v>
+      </c>
+      <c r="AW215">
+        <v>3.45</v>
+      </c>
+      <c r="AX215">
+        <v>1.62</v>
+      </c>
+      <c r="AY215">
+        <v>8</v>
+      </c>
+      <c r="AZ215">
+        <v>2.75</v>
+      </c>
+      <c r="BA215">
+        <v>1.41</v>
+      </c>
+      <c r="BB215">
+        <v>1.74</v>
+      </c>
+      <c r="BC215">
+        <v>2.28</v>
+      </c>
+      <c r="BD215">
+        <v>3.15</v>
+      </c>
+      <c r="BE215">
+        <v>4.5</v>
+      </c>
+      <c r="BF215">
+        <v>12</v>
+      </c>
+      <c r="BG215">
+        <v>6</v>
+      </c>
+      <c r="BH215">
+        <v>2</v>
+      </c>
+      <c r="BI215">
+        <v>2</v>
+      </c>
+      <c r="BJ215">
+        <v>14</v>
+      </c>
+      <c r="BK215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5189146</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45157.3125</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>75</v>
+      </c>
+      <c r="H216" t="s">
+        <v>67</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>231</v>
+      </c>
+      <c r="P216" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q216">
+        <v>4</v>
+      </c>
+      <c r="R216">
+        <v>1</v>
+      </c>
+      <c r="S216">
+        <v>5</v>
+      </c>
+      <c r="T216">
+        <v>2.15</v>
+      </c>
+      <c r="U216">
+        <v>2.5</v>
+      </c>
+      <c r="V216">
+        <v>4</v>
+      </c>
+      <c r="W216">
+        <v>1.21</v>
+      </c>
+      <c r="X216">
+        <v>3.95</v>
+      </c>
+      <c r="Y216">
+        <v>2.09</v>
+      </c>
+      <c r="Z216">
+        <v>1.67</v>
+      </c>
+      <c r="AA216">
+        <v>4.45</v>
+      </c>
+      <c r="AB216">
+        <v>1.17</v>
+      </c>
+      <c r="AC216">
+        <v>1.63</v>
+      </c>
+      <c r="AD216">
+        <v>4.3</v>
+      </c>
+      <c r="AE216">
+        <v>3.9</v>
+      </c>
+      <c r="AF216">
+        <v>1.01</v>
+      </c>
+      <c r="AG216">
+        <v>13</v>
+      </c>
+      <c r="AH216">
+        <v>1.14</v>
+      </c>
+      <c r="AI216">
+        <v>6.11</v>
+      </c>
+      <c r="AJ216">
+        <v>1.67</v>
+      </c>
+      <c r="AK216">
+        <v>2.1</v>
+      </c>
+      <c r="AL216">
+        <v>1.45</v>
+      </c>
+      <c r="AM216">
+        <v>2.65</v>
+      </c>
+      <c r="AN216">
+        <v>1.17</v>
+      </c>
+      <c r="AO216">
+        <v>1.17</v>
+      </c>
+      <c r="AP216">
+        <v>2.1</v>
+      </c>
+      <c r="AQ216">
+        <v>2.36</v>
+      </c>
+      <c r="AR216">
+        <v>0.83</v>
+      </c>
+      <c r="AS216">
+        <v>2.42</v>
+      </c>
+      <c r="AT216">
+        <v>0.77</v>
+      </c>
+      <c r="AU216">
+        <v>1.62</v>
+      </c>
+      <c r="AV216">
+        <v>1.17</v>
+      </c>
+      <c r="AW216">
+        <v>2.79</v>
+      </c>
+      <c r="AX216">
+        <v>1.62</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>2.63</v>
+      </c>
+      <c r="BA216">
+        <v>1.29</v>
+      </c>
+      <c r="BB216">
+        <v>1.53</v>
+      </c>
+      <c r="BC216">
+        <v>1.95</v>
+      </c>
+      <c r="BD216">
+        <v>2.55</v>
+      </c>
+      <c r="BE216">
+        <v>3.5</v>
+      </c>
+      <c r="BF216">
+        <v>7</v>
+      </c>
+      <c r="BG216">
+        <v>6</v>
+      </c>
+      <c r="BH216">
+        <v>5</v>
+      </c>
+      <c r="BI216">
+        <v>3</v>
+      </c>
+      <c r="BJ216">
+        <v>12</v>
+      </c>
+      <c r="BK216">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT5">
         <v>1.45</v>
@@ -4167,7 +4167,7 @@
         <v>1.77</v>
       </c>
       <c r="AT15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT22">
         <v>1.62</v>
@@ -6268,7 +6268,7 @@
         <v>2.08</v>
       </c>
       <c r="AT26">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT39">
         <v>0.92</v>
@@ -9706,7 +9706,7 @@
         <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU44">
         <v>1.37</v>
@@ -10658,7 +10658,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT49">
         <v>1.09</v>
@@ -13714,7 +13714,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT65">
         <v>1.18</v>
@@ -15054,7 +15054,7 @@
         <v>2</v>
       </c>
       <c r="AT72">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU72">
         <v>1.48</v>
@@ -17152,7 +17152,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT83">
         <v>1.31</v>
@@ -19065,7 +19065,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU93">
         <v>1.88</v>
@@ -20017,7 +20017,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT98">
         <v>1.08</v>
@@ -22694,7 +22694,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -24222,7 +24222,7 @@
         <v>0.82</v>
       </c>
       <c r="AT120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU120">
         <v>1.63</v>
@@ -24601,7 +24601,7 @@
         <v>1.71</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT122">
         <v>1.31</v>
@@ -27660,7 +27660,7 @@
         <v>2.23</v>
       </c>
       <c r="AT138">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -28039,7 +28039,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT140">
         <v>1.25</v>
@@ -30140,7 +30140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT151">
         <v>1.33</v>
@@ -30525,7 +30525,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU153">
         <v>1.8</v>
@@ -33196,7 +33196,7 @@
         <v>0.78</v>
       </c>
       <c r="AS167">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT167">
         <v>0.92</v>
@@ -35682,7 +35682,7 @@
         <v>1.25</v>
       </c>
       <c r="AT180">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU180">
         <v>1.18</v>
@@ -38353,7 +38353,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT194">
         <v>2.09</v>
@@ -39884,7 +39884,7 @@
         <v>0.83</v>
       </c>
       <c r="AT202">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU202">
         <v>1.39</v>
@@ -42610,6 +42610,197 @@
       </c>
       <c r="BK216">
         <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5189147</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45158.27083333334</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>68</v>
+      </c>
+      <c r="H217" t="s">
+        <v>70</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>84</v>
+      </c>
+      <c r="P217" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q217">
+        <v>2</v>
+      </c>
+      <c r="R217">
+        <v>4</v>
+      </c>
+      <c r="S217">
+        <v>6</v>
+      </c>
+      <c r="T217">
+        <v>4</v>
+      </c>
+      <c r="U217">
+        <v>2.2</v>
+      </c>
+      <c r="V217">
+        <v>2.63</v>
+      </c>
+      <c r="W217">
+        <v>1.4</v>
+      </c>
+      <c r="X217">
+        <v>2.75</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.4</v>
+      </c>
+      <c r="AA217">
+        <v>8</v>
+      </c>
+      <c r="AB217">
+        <v>1.08</v>
+      </c>
+      <c r="AC217">
+        <v>3.4</v>
+      </c>
+      <c r="AD217">
+        <v>3.75</v>
+      </c>
+      <c r="AE217">
+        <v>2.04</v>
+      </c>
+      <c r="AF217">
+        <v>1.01</v>
+      </c>
+      <c r="AG217">
+        <v>9.6</v>
+      </c>
+      <c r="AH217">
+        <v>1.28</v>
+      </c>
+      <c r="AI217">
+        <v>3.5</v>
+      </c>
+      <c r="AJ217">
+        <v>1.88</v>
+      </c>
+      <c r="AK217">
+        <v>1.98</v>
+      </c>
+      <c r="AL217">
+        <v>1.75</v>
+      </c>
+      <c r="AM217">
+        <v>2</v>
+      </c>
+      <c r="AN217">
+        <v>1.75</v>
+      </c>
+      <c r="AO217">
+        <v>1.22</v>
+      </c>
+      <c r="AP217">
+        <v>1.3</v>
+      </c>
+      <c r="AQ217">
+        <v>1</v>
+      </c>
+      <c r="AR217">
+        <v>1.55</v>
+      </c>
+      <c r="AS217">
+        <v>0.92</v>
+      </c>
+      <c r="AT217">
+        <v>1.67</v>
+      </c>
+      <c r="AU217">
+        <v>1.1</v>
+      </c>
+      <c r="AV217">
+        <v>1.23</v>
+      </c>
+      <c r="AW217">
+        <v>2.33</v>
+      </c>
+      <c r="AX217">
+        <v>2.2</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>1.91</v>
+      </c>
+      <c r="BA217">
+        <v>1.27</v>
+      </c>
+      <c r="BB217">
+        <v>1.5</v>
+      </c>
+      <c r="BC217">
+        <v>1.9</v>
+      </c>
+      <c r="BD217">
+        <v>2.45</v>
+      </c>
+      <c r="BE217">
+        <v>3.4</v>
+      </c>
+      <c r="BF217">
+        <v>3</v>
+      </c>
+      <c r="BG217">
+        <v>11</v>
+      </c>
+      <c r="BH217">
+        <v>5</v>
+      </c>
+      <c r="BI217">
+        <v>5</v>
+      </c>
+      <c r="BJ217">
+        <v>8</v>
+      </c>
+      <c r="BK217">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT11">
         <v>0.55</v>
@@ -3594,7 +3594,7 @@
         <v>2.42</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>1.92</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT36">
         <v>0.92</v>
@@ -10279,7 +10279,7 @@
         <v>0.83</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -11231,7 +11231,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT52">
         <v>0.92</v>
@@ -12953,7 +12953,7 @@
         <v>2.23</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -14287,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT68">
         <v>1.75</v>
@@ -16773,7 +16773,7 @@
         <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -19826,7 +19826,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT97">
         <v>0.75</v>
@@ -22309,7 +22309,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT110">
         <v>1.31</v>
@@ -23840,7 +23840,7 @@
         <v>1.77</v>
       </c>
       <c r="AT118">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -24219,7 +24219,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT120">
         <v>1.67</v>
@@ -26132,7 +26132,7 @@
         <v>1.25</v>
       </c>
       <c r="AT130">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -27466,7 +27466,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT137">
         <v>1.08</v>
@@ -30143,7 +30143,7 @@
         <v>0.92</v>
       </c>
       <c r="AT151">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU151">
         <v>1.08</v>
@@ -31095,7 +31095,7 @@
         <v>1.38</v>
       </c>
       <c r="AS156">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT156">
         <v>1.25</v>
@@ -33581,7 +33581,7 @@
         <v>1.25</v>
       </c>
       <c r="AT169">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU169">
         <v>1.18</v>
@@ -37210,7 +37210,7 @@
         <v>1.58</v>
       </c>
       <c r="AT188">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU188">
         <v>1.2</v>
@@ -37398,7 +37398,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT189">
         <v>1.09</v>
@@ -37971,7 +37971,7 @@
         <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT192">
         <v>1.18</v>
@@ -41030,7 +41030,7 @@
         <v>1.85</v>
       </c>
       <c r="AT208">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU208">
         <v>1.88</v>
@@ -42801,6 +42801,197 @@
       </c>
       <c r="BK217">
         <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5189148</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45163.29166666666</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>74</v>
+      </c>
+      <c r="H218" t="s">
+        <v>82</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>84</v>
+      </c>
+      <c r="P218" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q218">
+        <v>4</v>
+      </c>
+      <c r="R218">
+        <v>8</v>
+      </c>
+      <c r="S218">
+        <v>12</v>
+      </c>
+      <c r="T218">
+        <v>3.75</v>
+      </c>
+      <c r="U218">
+        <v>2.1</v>
+      </c>
+      <c r="V218">
+        <v>2.7</v>
+      </c>
+      <c r="W218">
+        <v>1.39</v>
+      </c>
+      <c r="X218">
+        <v>2.8</v>
+      </c>
+      <c r="Y218">
+        <v>2.85</v>
+      </c>
+      <c r="Z218">
+        <v>1.37</v>
+      </c>
+      <c r="AA218">
+        <v>6.95</v>
+      </c>
+      <c r="AB218">
+        <v>1.07</v>
+      </c>
+      <c r="AC218">
+        <v>3.25</v>
+      </c>
+      <c r="AD218">
+        <v>3.4</v>
+      </c>
+      <c r="AE218">
+        <v>2.15</v>
+      </c>
+      <c r="AF218">
+        <v>1.05</v>
+      </c>
+      <c r="AG218">
+        <v>8</v>
+      </c>
+      <c r="AH218">
+        <v>1.3</v>
+      </c>
+      <c r="AI218">
+        <v>3.3</v>
+      </c>
+      <c r="AJ218">
+        <v>1.91</v>
+      </c>
+      <c r="AK218">
+        <v>1.9</v>
+      </c>
+      <c r="AL218">
+        <v>1.78</v>
+      </c>
+      <c r="AM218">
+        <v>1.95</v>
+      </c>
+      <c r="AN218">
+        <v>1.72</v>
+      </c>
+      <c r="AO218">
+        <v>1.22</v>
+      </c>
+      <c r="AP218">
+        <v>1.33</v>
+      </c>
+      <c r="AQ218">
+        <v>0.82</v>
+      </c>
+      <c r="AR218">
+        <v>1.33</v>
+      </c>
+      <c r="AS218">
+        <v>0.75</v>
+      </c>
+      <c r="AT218">
+        <v>1.46</v>
+      </c>
+      <c r="AU218">
+        <v>1.52</v>
+      </c>
+      <c r="AV218">
+        <v>1.16</v>
+      </c>
+      <c r="AW218">
+        <v>2.68</v>
+      </c>
+      <c r="AX218">
+        <v>1.8</v>
+      </c>
+      <c r="AY218">
+        <v>8</v>
+      </c>
+      <c r="AZ218">
+        <v>2.3</v>
+      </c>
+      <c r="BA218">
+        <v>1.22</v>
+      </c>
+      <c r="BB218">
+        <v>1.43</v>
+      </c>
+      <c r="BC218">
+        <v>1.83</v>
+      </c>
+      <c r="BD218">
+        <v>2.23</v>
+      </c>
+      <c r="BE218">
+        <v>2.93</v>
+      </c>
+      <c r="BF218">
+        <v>3</v>
+      </c>
+      <c r="BG218">
+        <v>3</v>
+      </c>
+      <c r="BH218">
+        <v>2</v>
+      </c>
+      <c r="BI218">
+        <v>3</v>
+      </c>
+      <c r="BJ218">
+        <v>5</v>
+      </c>
+      <c r="BK218">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,24 @@
     <t>['12', '90+1']</t>
   </si>
   <si>
+    <t>['9', '30']</t>
+  </si>
+  <si>
+    <t>['36', '52', '62', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '24']</t>
+  </si>
+  <si>
+    <t>['67', '71']</t>
+  </si>
+  <si>
+    <t>['18', '90+10']</t>
+  </si>
+  <si>
+    <t>['9', '71', '88']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -989,6 +1007,12 @@
   </si>
   <si>
     <t>['24', '71']</t>
+  </si>
+  <si>
+    <t>['27', '35']</t>
+  </si>
+  <si>
+    <t>['90+3', '90+14']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK218"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1618,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1681,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1875,7 +1899,7 @@
         <v>1.85</v>
       </c>
       <c r="AT3">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2063,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT4">
         <v>1.46</v>
@@ -2254,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT5">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2445,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT6">
         <v>1.62</v>
@@ -2549,7 +2573,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2636,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT7">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2830,7 +2854,7 @@
         <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2931,7 +2955,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3018,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT9">
         <v>0.62</v>
@@ -3122,7 +3146,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3209,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT10">
         <v>0.92</v>
@@ -3313,7 +3337,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3695,7 +3719,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3785,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3886,7 +3910,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4077,7 +4101,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4268,7 +4292,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4355,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>1.31</v>
@@ -4650,7 +4674,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4740,7 +4764,7 @@
         <v>1.85</v>
       </c>
       <c r="AT18">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>1.61</v>
@@ -4841,7 +4865,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4928,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT19">
         <v>0.77</v>
@@ -5122,7 +5146,7 @@
         <v>2.42</v>
       </c>
       <c r="AT20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU20">
         <v>1.93</v>
@@ -5223,7 +5247,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5310,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>0.62</v>
@@ -5414,7 +5438,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5501,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT22">
         <v>1.62</v>
@@ -5605,7 +5629,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5695,7 +5719,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5883,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT24">
         <v>0.77</v>
@@ -6178,7 +6202,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6647,10 +6671,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT28">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.2</v>
@@ -6751,7 +6775,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -7133,7 +7157,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7220,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7414,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU32">
         <v>1.7</v>
@@ -7602,10 +7626,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.05</v>
@@ -7706,7 +7730,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7793,10 +7817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT34">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -7984,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT35">
         <v>0.55</v>
@@ -8088,7 +8112,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8279,7 +8303,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8369,7 +8393,7 @@
         <v>1.75</v>
       </c>
       <c r="AT37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU37">
         <v>2.2</v>
@@ -8661,7 +8685,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8748,7 +8772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT39">
         <v>0.92</v>
@@ -9043,7 +9067,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9133,7 +9157,7 @@
         <v>2.08</v>
       </c>
       <c r="AT41">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.37</v>
@@ -9234,7 +9258,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9324,7 +9348,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU42">
         <v>1.84</v>
@@ -9512,10 +9536,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT43">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.25</v>
@@ -9703,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT44">
         <v>1.67</v>
@@ -9998,7 +10022,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10189,7 +10213,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10276,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT47">
         <v>1.46</v>
@@ -10380,7 +10404,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10467,10 +10491,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.03</v>
@@ -10571,7 +10595,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10658,10 +10682,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT49">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.01</v>
@@ -10762,7 +10786,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10852,7 +10876,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.26</v>
@@ -10953,7 +10977,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11040,10 +11064,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -11144,7 +11168,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11422,7 +11446,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT53">
         <v>0.77</v>
@@ -11613,10 +11637,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11717,7 +11741,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12380,7 +12404,7 @@
         <v>1.92</v>
       </c>
       <c r="AT58">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12481,7 +12505,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12568,10 +12592,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT59">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12672,7 +12696,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12759,7 +12783,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT60">
         <v>0.62</v>
@@ -13523,7 +13547,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT64">
         <v>1.62</v>
@@ -13627,7 +13651,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13714,10 +13738,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU65">
         <v>1.03</v>
@@ -13818,7 +13842,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13908,7 +13932,7 @@
         <v>1.25</v>
       </c>
       <c r="AT66">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.31</v>
@@ -14096,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14200,7 +14224,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14290,7 +14314,7 @@
         <v>0.75</v>
       </c>
       <c r="AT68">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14391,7 +14415,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14478,10 +14502,10 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT69">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.37</v>
@@ -14582,7 +14606,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14672,7 +14696,7 @@
         <v>2.08</v>
       </c>
       <c r="AT70">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU70">
         <v>1.28</v>
@@ -14773,7 +14797,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14860,10 +14884,10 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14964,7 +14988,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15051,7 +15075,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT72">
         <v>1.67</v>
@@ -15242,7 +15266,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
         <v>0.92</v>
@@ -15346,7 +15370,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15537,7 +15561,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15627,7 +15651,7 @@
         <v>1.92</v>
       </c>
       <c r="AT75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15815,7 +15839,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT76">
         <v>0.75</v>
@@ -15919,7 +15943,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16006,7 +16030,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT77">
         <v>1.25</v>
@@ -16110,7 +16134,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16301,7 +16325,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16391,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.8</v>
@@ -16492,7 +16516,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16770,7 +16794,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
         <v>1.46</v>
@@ -17065,7 +17089,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17152,10 +17176,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT83">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU83">
         <v>1.03</v>
@@ -17256,7 +17280,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17343,10 +17367,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT84">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU84">
         <v>1.07</v>
@@ -17638,7 +17662,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17728,7 +17752,7 @@
         <v>2.42</v>
       </c>
       <c r="AT86">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17916,10 +17940,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -18107,7 +18131,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT88">
         <v>0.92</v>
@@ -18211,7 +18235,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18489,7 +18513,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT90">
         <v>0.92</v>
@@ -18593,7 +18617,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18871,7 +18895,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT92">
         <v>1.31</v>
@@ -18975,7 +18999,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19166,7 +19190,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19253,10 +19277,10 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT94">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU94">
         <v>1.02</v>
@@ -19548,7 +19572,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19638,7 +19662,7 @@
         <v>2.23</v>
       </c>
       <c r="AT96">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19739,7 +19763,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20017,10 +20041,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.08</v>
@@ -20121,7 +20145,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20503,7 +20527,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20593,7 +20617,7 @@
         <v>1.85</v>
       </c>
       <c r="AT101">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>2.02</v>
@@ -20694,7 +20718,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21163,7 +21187,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT104">
         <v>1.62</v>
@@ -21545,7 +21569,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
         <v>1.25</v>
@@ -21649,7 +21673,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21840,7 +21864,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21927,7 +21951,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT108">
         <v>1.31</v>
@@ -22121,7 +22145,7 @@
         <v>1.92</v>
       </c>
       <c r="AT109">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -22222,7 +22246,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22312,7 +22336,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU110">
         <v>1.74</v>
@@ -22500,7 +22524,7 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT111">
         <v>0.55</v>
@@ -22604,7 +22628,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22691,7 +22715,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT112">
         <v>1.67</v>
@@ -23073,10 +23097,10 @@
         <v>2.17</v>
       </c>
       <c r="AS114">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.16</v>
@@ -23177,7 +23201,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23267,7 +23291,7 @@
         <v>1.25</v>
       </c>
       <c r="AT115">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU115">
         <v>1.35</v>
@@ -23559,7 +23583,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23941,7 +23965,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24028,7 +24052,7 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT119">
         <v>0.77</v>
@@ -24132,7 +24156,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24413,7 +24437,7 @@
         <v>2.23</v>
       </c>
       <c r="AT121">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24601,7 +24625,7 @@
         <v>1.71</v>
       </c>
       <c r="AS122">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT122">
         <v>1.31</v>
@@ -24792,10 +24816,10 @@
         <v>2.6</v>
       </c>
       <c r="AS123">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT123">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -24983,10 +25007,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>1.29</v>
@@ -25087,7 +25111,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25177,7 +25201,7 @@
         <v>1.75</v>
       </c>
       <c r="AT125">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25278,7 +25302,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25368,7 +25392,7 @@
         <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU126">
         <v>1.76</v>
@@ -25469,7 +25493,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25851,7 +25875,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25938,7 +25962,7 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT129">
         <v>1.62</v>
@@ -26042,7 +26066,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26129,7 +26153,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT130">
         <v>1.46</v>
@@ -26233,7 +26257,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26511,7 +26535,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT132">
         <v>0.55</v>
@@ -26705,7 +26729,7 @@
         <v>2.42</v>
       </c>
       <c r="AT133">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -26893,7 +26917,7 @@
         <v>0.83</v>
       </c>
       <c r="AS134">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
         <v>0.75</v>
@@ -26997,7 +27021,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27087,7 +27111,7 @@
         <v>2.08</v>
       </c>
       <c r="AT135">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27188,7 +27212,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27275,10 +27299,10 @@
         <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27379,7 +27403,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27469,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.56</v>
@@ -27761,7 +27785,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27952,7 +27976,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28039,7 +28063,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT140">
         <v>1.25</v>
@@ -28143,7 +28167,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28230,10 +28254,10 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT141">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU141">
         <v>1.45</v>
@@ -28716,7 +28740,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28994,10 +29018,10 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT145">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -29185,10 +29209,10 @@
         <v>1.88</v>
       </c>
       <c r="AS146">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT146">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU146">
         <v>1.27</v>
@@ -29289,7 +29313,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29480,7 +29504,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29570,7 +29594,7 @@
         <v>2.23</v>
       </c>
       <c r="AT148">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.46</v>
@@ -29758,7 +29782,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT149">
         <v>0.62</v>
@@ -29862,7 +29886,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30140,7 +30164,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT151">
         <v>1.46</v>
@@ -30331,10 +30355,10 @@
         <v>1.63</v>
       </c>
       <c r="AS152">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT152">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU152">
         <v>1.62</v>
@@ -30435,7 +30459,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30713,10 +30737,10 @@
         <v>0.75</v>
       </c>
       <c r="AS154">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT154">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30904,10 +30928,10 @@
         <v>2</v>
       </c>
       <c r="AS155">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT155">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU155">
         <v>1.4</v>
@@ -31008,7 +31032,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31199,7 +31223,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31286,7 +31310,7 @@
         <v>0.71</v>
       </c>
       <c r="AS157">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT157">
         <v>0.55</v>
@@ -31390,7 +31414,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31581,7 +31605,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31671,7 +31695,7 @@
         <v>1.85</v>
       </c>
       <c r="AT159">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU159">
         <v>2.03</v>
@@ -31772,7 +31796,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31963,7 +31987,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32053,7 +32077,7 @@
         <v>1.77</v>
       </c>
       <c r="AT161">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU161">
         <v>1.51</v>
@@ -32432,10 +32456,10 @@
         <v>0.38</v>
       </c>
       <c r="AS163">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT163">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU163">
         <v>1.2</v>
@@ -32623,7 +32647,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT164">
         <v>0.92</v>
@@ -32817,7 +32841,7 @@
         <v>1.25</v>
       </c>
       <c r="AT165">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU165">
         <v>1.54</v>
@@ -33196,7 +33220,7 @@
         <v>0.78</v>
       </c>
       <c r="AS167">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT167">
         <v>0.92</v>
@@ -33387,7 +33411,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT168">
         <v>0.75</v>
@@ -33491,7 +33515,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33578,7 +33602,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT169">
         <v>1.46</v>
@@ -33682,7 +33706,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33772,7 +33796,7 @@
         <v>1.92</v>
       </c>
       <c r="AT170">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU170">
         <v>1.52</v>
@@ -34064,7 +34088,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34154,7 +34178,7 @@
         <v>1.25</v>
       </c>
       <c r="AT172">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU172">
         <v>1.54</v>
@@ -34255,7 +34279,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34345,7 +34369,7 @@
         <v>2.23</v>
       </c>
       <c r="AT173">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU173">
         <v>1.46</v>
@@ -34828,7 +34852,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34915,7 +34939,7 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT176">
         <v>0.62</v>
@@ -35106,7 +35130,7 @@
         <v>0.63</v>
       </c>
       <c r="AS177">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT177">
         <v>0.55</v>
@@ -35401,7 +35425,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35491,7 +35515,7 @@
         <v>1.77</v>
       </c>
       <c r="AT179">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU179">
         <v>1.53</v>
@@ -35679,7 +35703,7 @@
         <v>1.78</v>
       </c>
       <c r="AS180">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT180">
         <v>1.67</v>
@@ -35873,7 +35897,7 @@
         <v>1</v>
       </c>
       <c r="AT181">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -36165,7 +36189,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36356,7 +36380,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36634,10 +36658,10 @@
         <v>1.78</v>
       </c>
       <c r="AS185">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT185">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU185">
         <v>1.38</v>
@@ -36929,7 +36953,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37016,7 +37040,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT187">
         <v>1.62</v>
@@ -37207,7 +37231,7 @@
         <v>1.6</v>
       </c>
       <c r="AS188">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT188">
         <v>1.46</v>
@@ -37311,7 +37335,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37401,7 +37425,7 @@
         <v>0.75</v>
       </c>
       <c r="AT189">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU189">
         <v>1.62</v>
@@ -37502,7 +37526,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37783,7 +37807,7 @@
         <v>2.23</v>
       </c>
       <c r="AT191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.48</v>
@@ -37974,7 +37998,7 @@
         <v>0.75</v>
       </c>
       <c r="AT192">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -38162,10 +38186,10 @@
         <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT193">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU193">
         <v>1.21</v>
@@ -38353,10 +38377,10 @@
         <v>2.22</v>
       </c>
       <c r="AS194">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT194">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU194">
         <v>1.11</v>
@@ -38547,7 +38571,7 @@
         <v>2.08</v>
       </c>
       <c r="AT195">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU195">
         <v>1.61</v>
@@ -38648,7 +38672,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38735,7 +38759,7 @@
         <v>0.8</v>
       </c>
       <c r="AS196">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT196">
         <v>0.92</v>
@@ -38839,7 +38863,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -38926,7 +38950,7 @@
         <v>0.5</v>
       </c>
       <c r="AS197">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT197">
         <v>0.75</v>
@@ -39117,7 +39141,7 @@
         <v>0.64</v>
       </c>
       <c r="AS198">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT198">
         <v>0.77</v>
@@ -39308,10 +39332,10 @@
         <v>0.9</v>
       </c>
       <c r="AS199">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT199">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>1.22</v>
@@ -39603,7 +39627,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39881,7 +39905,7 @@
         <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT202">
         <v>1.67</v>
@@ -40072,7 +40096,7 @@
         <v>1</v>
       </c>
       <c r="AS203">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT203">
         <v>0.92</v>
@@ -40176,7 +40200,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40263,10 +40287,10 @@
         <v>2</v>
       </c>
       <c r="AS204">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT204">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU204">
         <v>1.57</v>
@@ -40558,7 +40582,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40940,7 +40964,7 @@
         <v>224</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41221,7 +41245,7 @@
         <v>1.77</v>
       </c>
       <c r="AT209">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU209">
         <v>1.44</v>
@@ -41412,7 +41436,7 @@
         <v>2.08</v>
       </c>
       <c r="AT210">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU210">
         <v>1.64</v>
@@ -41600,7 +41624,7 @@
         <v>1.36</v>
       </c>
       <c r="AS211">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT211">
         <v>1.25</v>
@@ -41791,10 +41815,10 @@
         <v>1.42</v>
       </c>
       <c r="AS212">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT212">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU212">
         <v>1.42</v>
@@ -42277,7 +42301,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42746,7 +42770,7 @@
         <v>1.55</v>
       </c>
       <c r="AS217">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT217">
         <v>1.67</v>
@@ -42992,6 +43016,1534 @@
       </c>
       <c r="BK218">
         <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5189149</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45164.25</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>79</v>
+      </c>
+      <c r="H219" t="s">
+        <v>81</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>232</v>
+      </c>
+      <c r="P219" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q219">
+        <v>4</v>
+      </c>
+      <c r="R219">
+        <v>6</v>
+      </c>
+      <c r="S219">
+        <v>10</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>2.1</v>
+      </c>
+      <c r="V219">
+        <v>5</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>2.63</v>
+      </c>
+      <c r="Y219">
+        <v>3.25</v>
+      </c>
+      <c r="Z219">
+        <v>1.33</v>
+      </c>
+      <c r="AA219">
+        <v>9</v>
+      </c>
+      <c r="AB219">
+        <v>1.07</v>
+      </c>
+      <c r="AC219">
+        <v>1.78</v>
+      </c>
+      <c r="AD219">
+        <v>3.55</v>
+      </c>
+      <c r="AE219">
+        <v>3.9</v>
+      </c>
+      <c r="AF219">
+        <v>1.05</v>
+      </c>
+      <c r="AG219">
+        <v>8</v>
+      </c>
+      <c r="AH219">
+        <v>1.36</v>
+      </c>
+      <c r="AI219">
+        <v>2.9</v>
+      </c>
+      <c r="AJ219">
+        <v>2.18</v>
+      </c>
+      <c r="AK219">
+        <v>1.65</v>
+      </c>
+      <c r="AL219">
+        <v>1.95</v>
+      </c>
+      <c r="AM219">
+        <v>1.8</v>
+      </c>
+      <c r="AN219">
+        <v>1.2</v>
+      </c>
+      <c r="AO219">
+        <v>1.27</v>
+      </c>
+      <c r="AP219">
+        <v>1.85</v>
+      </c>
+      <c r="AQ219">
+        <v>1.64</v>
+      </c>
+      <c r="AR219">
+        <v>1.08</v>
+      </c>
+      <c r="AS219">
+        <v>1.75</v>
+      </c>
+      <c r="AT219">
+        <v>1</v>
+      </c>
+      <c r="AU219">
+        <v>1.25</v>
+      </c>
+      <c r="AV219">
+        <v>1.24</v>
+      </c>
+      <c r="AW219">
+        <v>2.49</v>
+      </c>
+      <c r="AX219">
+        <v>1.73</v>
+      </c>
+      <c r="AY219">
+        <v>8</v>
+      </c>
+      <c r="AZ219">
+        <v>2.5</v>
+      </c>
+      <c r="BA219">
+        <v>1.33</v>
+      </c>
+      <c r="BB219">
+        <v>1.6</v>
+      </c>
+      <c r="BC219">
+        <v>2</v>
+      </c>
+      <c r="BD219">
+        <v>2.55</v>
+      </c>
+      <c r="BE219">
+        <v>3.4</v>
+      </c>
+      <c r="BF219">
+        <v>4</v>
+      </c>
+      <c r="BG219">
+        <v>4</v>
+      </c>
+      <c r="BH219">
+        <v>3</v>
+      </c>
+      <c r="BI219">
+        <v>4</v>
+      </c>
+      <c r="BJ219">
+        <v>7</v>
+      </c>
+      <c r="BK219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>5189150</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45164.27083333334</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>68</v>
+      </c>
+      <c r="H220" t="s">
+        <v>75</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>4</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>233</v>
+      </c>
+      <c r="P220" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q220">
+        <v>8</v>
+      </c>
+      <c r="R220">
+        <v>13</v>
+      </c>
+      <c r="S220">
+        <v>21</v>
+      </c>
+      <c r="T220">
+        <v>4.5</v>
+      </c>
+      <c r="U220">
+        <v>2.55</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>1.21</v>
+      </c>
+      <c r="X220">
+        <v>3.95</v>
+      </c>
+      <c r="Y220">
+        <v>2.04</v>
+      </c>
+      <c r="Z220">
+        <v>1.71</v>
+      </c>
+      <c r="AA220">
+        <v>4.25</v>
+      </c>
+      <c r="AB220">
+        <v>1.19</v>
+      </c>
+      <c r="AC220">
+        <v>4.5</v>
+      </c>
+      <c r="AD220">
+        <v>4.3</v>
+      </c>
+      <c r="AE220">
+        <v>1.55</v>
+      </c>
+      <c r="AF220">
+        <v>1.01</v>
+      </c>
+      <c r="AG220">
+        <v>17.5</v>
+      </c>
+      <c r="AH220">
+        <v>1.11</v>
+      </c>
+      <c r="AI220">
+        <v>5.5</v>
+      </c>
+      <c r="AJ220">
+        <v>1.75</v>
+      </c>
+      <c r="AK220">
+        <v>1.95</v>
+      </c>
+      <c r="AL220">
+        <v>1.5</v>
+      </c>
+      <c r="AM220">
+        <v>2.4</v>
+      </c>
+      <c r="AN220">
+        <v>2.35</v>
+      </c>
+      <c r="AO220">
+        <v>1.15</v>
+      </c>
+      <c r="AP220">
+        <v>1.17</v>
+      </c>
+      <c r="AQ220">
+        <v>0.92</v>
+      </c>
+      <c r="AR220">
+        <v>1.75</v>
+      </c>
+      <c r="AS220">
+        <v>1.07</v>
+      </c>
+      <c r="AT220">
+        <v>1.62</v>
+      </c>
+      <c r="AU220">
+        <v>1.09</v>
+      </c>
+      <c r="AV220">
+        <v>1.4</v>
+      </c>
+      <c r="AW220">
+        <v>2.49</v>
+      </c>
+      <c r="AX220">
+        <v>2.6</v>
+      </c>
+      <c r="AY220">
+        <v>8.5</v>
+      </c>
+      <c r="AZ220">
+        <v>1.62</v>
+      </c>
+      <c r="BA220">
+        <v>1.28</v>
+      </c>
+      <c r="BB220">
+        <v>1.47</v>
+      </c>
+      <c r="BC220">
+        <v>1.8</v>
+      </c>
+      <c r="BD220">
+        <v>2.25</v>
+      </c>
+      <c r="BE220">
+        <v>3</v>
+      </c>
+      <c r="BF220">
+        <v>8</v>
+      </c>
+      <c r="BG220">
+        <v>7</v>
+      </c>
+      <c r="BH220">
+        <v>5</v>
+      </c>
+      <c r="BI220">
+        <v>9</v>
+      </c>
+      <c r="BJ220">
+        <v>13</v>
+      </c>
+      <c r="BK220">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>5189154</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>69</v>
+      </c>
+      <c r="H221" t="s">
+        <v>78</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>234</v>
+      </c>
+      <c r="P221" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q221">
+        <v>2</v>
+      </c>
+      <c r="R221">
+        <v>8</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
+      <c r="T221">
+        <v>3.2</v>
+      </c>
+      <c r="U221">
+        <v>2</v>
+      </c>
+      <c r="V221">
+        <v>3.75</v>
+      </c>
+      <c r="W221">
+        <v>1.5</v>
+      </c>
+      <c r="X221">
+        <v>2.5</v>
+      </c>
+      <c r="Y221">
+        <v>3.5</v>
+      </c>
+      <c r="Z221">
+        <v>1.29</v>
+      </c>
+      <c r="AA221">
+        <v>10</v>
+      </c>
+      <c r="AB221">
+        <v>1.06</v>
+      </c>
+      <c r="AC221">
+        <v>2.41</v>
+      </c>
+      <c r="AD221">
+        <v>3.1</v>
+      </c>
+      <c r="AE221">
+        <v>2.77</v>
+      </c>
+      <c r="AF221">
+        <v>1.08</v>
+      </c>
+      <c r="AG221">
+        <v>6.5</v>
+      </c>
+      <c r="AH221">
+        <v>1.37</v>
+      </c>
+      <c r="AI221">
+        <v>2.8</v>
+      </c>
+      <c r="AJ221">
+        <v>2.38</v>
+      </c>
+      <c r="AK221">
+        <v>1.55</v>
+      </c>
+      <c r="AL221">
+        <v>1.95</v>
+      </c>
+      <c r="AM221">
+        <v>1.8</v>
+      </c>
+      <c r="AN221">
+        <v>1.33</v>
+      </c>
+      <c r="AO221">
+        <v>1.28</v>
+      </c>
+      <c r="AP221">
+        <v>1.57</v>
+      </c>
+      <c r="AQ221">
+        <v>1.25</v>
+      </c>
+      <c r="AR221">
+        <v>1.09</v>
+      </c>
+      <c r="AS221">
+        <v>1.38</v>
+      </c>
+      <c r="AT221">
+        <v>1</v>
+      </c>
+      <c r="AU221">
+        <v>1.43</v>
+      </c>
+      <c r="AV221">
+        <v>1.02</v>
+      </c>
+      <c r="AW221">
+        <v>2.45</v>
+      </c>
+      <c r="AX221">
+        <v>1.67</v>
+      </c>
+      <c r="AY221">
+        <v>8</v>
+      </c>
+      <c r="AZ221">
+        <v>2.5</v>
+      </c>
+      <c r="BA221">
+        <v>1.36</v>
+      </c>
+      <c r="BB221">
+        <v>1.62</v>
+      </c>
+      <c r="BC221">
+        <v>2</v>
+      </c>
+      <c r="BD221">
+        <v>2.65</v>
+      </c>
+      <c r="BE221">
+        <v>3.5</v>
+      </c>
+      <c r="BF221">
+        <v>5</v>
+      </c>
+      <c r="BG221">
+        <v>2</v>
+      </c>
+      <c r="BH221">
+        <v>1</v>
+      </c>
+      <c r="BI221">
+        <v>7</v>
+      </c>
+      <c r="BJ221">
+        <v>6</v>
+      </c>
+      <c r="BK221">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>5189153</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>65</v>
+      </c>
+      <c r="H222" t="s">
+        <v>76</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>235</v>
+      </c>
+      <c r="P222" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q222">
+        <v>4</v>
+      </c>
+      <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="S222">
+        <v>5</v>
+      </c>
+      <c r="T222">
+        <v>2.4</v>
+      </c>
+      <c r="U222">
+        <v>2.5</v>
+      </c>
+      <c r="V222">
+        <v>3.75</v>
+      </c>
+      <c r="W222">
+        <v>1.25</v>
+      </c>
+      <c r="X222">
+        <v>3.75</v>
+      </c>
+      <c r="Y222">
+        <v>2.2</v>
+      </c>
+      <c r="Z222">
+        <v>1.62</v>
+      </c>
+      <c r="AA222">
+        <v>5</v>
+      </c>
+      <c r="AB222">
+        <v>1.17</v>
+      </c>
+      <c r="AC222">
+        <v>1.99</v>
+      </c>
+      <c r="AD222">
+        <v>3.5</v>
+      </c>
+      <c r="AE222">
+        <v>3.2</v>
+      </c>
+      <c r="AF222">
+        <v>1.02</v>
+      </c>
+      <c r="AG222">
+        <v>12</v>
+      </c>
+      <c r="AH222">
+        <v>1.15</v>
+      </c>
+      <c r="AI222">
+        <v>4.75</v>
+      </c>
+      <c r="AJ222">
+        <v>1.61</v>
+      </c>
+      <c r="AK222">
+        <v>2.15</v>
+      </c>
+      <c r="AL222">
+        <v>1.5</v>
+      </c>
+      <c r="AM222">
+        <v>2.5</v>
+      </c>
+      <c r="AN222">
+        <v>1.3</v>
+      </c>
+      <c r="AO222">
+        <v>1.22</v>
+      </c>
+      <c r="AP222">
+        <v>1.8</v>
+      </c>
+      <c r="AQ222">
+        <v>1.36</v>
+      </c>
+      <c r="AR222">
+        <v>1.31</v>
+      </c>
+      <c r="AS222">
+        <v>1.33</v>
+      </c>
+      <c r="AT222">
+        <v>1.29</v>
+      </c>
+      <c r="AU222">
+        <v>1.49</v>
+      </c>
+      <c r="AV222">
+        <v>1.5</v>
+      </c>
+      <c r="AW222">
+        <v>2.99</v>
+      </c>
+      <c r="AX222">
+        <v>1.83</v>
+      </c>
+      <c r="AY222">
+        <v>8</v>
+      </c>
+      <c r="AZ222">
+        <v>2.25</v>
+      </c>
+      <c r="BA222">
+        <v>1.28</v>
+      </c>
+      <c r="BB222">
+        <v>1.47</v>
+      </c>
+      <c r="BC222">
+        <v>2</v>
+      </c>
+      <c r="BD222">
+        <v>2.25</v>
+      </c>
+      <c r="BE222">
+        <v>3</v>
+      </c>
+      <c r="BF222">
+        <v>4</v>
+      </c>
+      <c r="BG222">
+        <v>6</v>
+      </c>
+      <c r="BH222">
+        <v>8</v>
+      </c>
+      <c r="BI222">
+        <v>4</v>
+      </c>
+      <c r="BJ222">
+        <v>12</v>
+      </c>
+      <c r="BK222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>5189156</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+      <c r="H223" t="s">
+        <v>77</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>134</v>
+      </c>
+      <c r="P223" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q223">
+        <v>4</v>
+      </c>
+      <c r="R223">
+        <v>6</v>
+      </c>
+      <c r="S223">
+        <v>10</v>
+      </c>
+      <c r="T223">
+        <v>3.2</v>
+      </c>
+      <c r="U223">
+        <v>2.25</v>
+      </c>
+      <c r="V223">
+        <v>3.1</v>
+      </c>
+      <c r="W223">
+        <v>1.33</v>
+      </c>
+      <c r="X223">
+        <v>3.25</v>
+      </c>
+      <c r="Y223">
+        <v>2.63</v>
+      </c>
+      <c r="Z223">
+        <v>1.44</v>
+      </c>
+      <c r="AA223">
+        <v>6.5</v>
+      </c>
+      <c r="AB223">
+        <v>1.11</v>
+      </c>
+      <c r="AC223">
+        <v>2.6</v>
+      </c>
+      <c r="AD223">
+        <v>3.2</v>
+      </c>
+      <c r="AE223">
+        <v>2.47</v>
+      </c>
+      <c r="AF223">
+        <v>1.04</v>
+      </c>
+      <c r="AG223">
+        <v>8.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.2</v>
+      </c>
+      <c r="AI223">
+        <v>3.9</v>
+      </c>
+      <c r="AJ223">
+        <v>1.66</v>
+      </c>
+      <c r="AK223">
+        <v>2.16</v>
+      </c>
+      <c r="AL223">
+        <v>1.57</v>
+      </c>
+      <c r="AM223">
+        <v>2.25</v>
+      </c>
+      <c r="AN223">
+        <v>1.48</v>
+      </c>
+      <c r="AO223">
+        <v>1.28</v>
+      </c>
+      <c r="AP223">
+        <v>1.42</v>
+      </c>
+      <c r="AQ223">
+        <v>1.25</v>
+      </c>
+      <c r="AR223">
+        <v>0.92</v>
+      </c>
+      <c r="AS223">
+        <v>1.23</v>
+      </c>
+      <c r="AT223">
+        <v>0.92</v>
+      </c>
+      <c r="AU223">
+        <v>1.25</v>
+      </c>
+      <c r="AV223">
+        <v>1.25</v>
+      </c>
+      <c r="AW223">
+        <v>2.5</v>
+      </c>
+      <c r="AX223">
+        <v>1.67</v>
+      </c>
+      <c r="AY223">
+        <v>8</v>
+      </c>
+      <c r="AZ223">
+        <v>2.6</v>
+      </c>
+      <c r="BA223">
+        <v>1.28</v>
+      </c>
+      <c r="BB223">
+        <v>1.52</v>
+      </c>
+      <c r="BC223">
+        <v>2</v>
+      </c>
+      <c r="BD223">
+        <v>2.35</v>
+      </c>
+      <c r="BE223">
+        <v>3</v>
+      </c>
+      <c r="BF223">
+        <v>3</v>
+      </c>
+      <c r="BG223">
+        <v>9</v>
+      </c>
+      <c r="BH223">
+        <v>5</v>
+      </c>
+      <c r="BI223">
+        <v>6</v>
+      </c>
+      <c r="BJ223">
+        <v>8</v>
+      </c>
+      <c r="BK223">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>5189151</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>73</v>
+      </c>
+      <c r="H224" t="s">
+        <v>66</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224" t="s">
+        <v>84</v>
+      </c>
+      <c r="P224" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q224">
+        <v>6</v>
+      </c>
+      <c r="R224">
+        <v>9</v>
+      </c>
+      <c r="S224">
+        <v>15</v>
+      </c>
+      <c r="T224">
+        <v>3.75</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>2.88</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>2.75</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>8</v>
+      </c>
+      <c r="AB224">
+        <v>1.08</v>
+      </c>
+      <c r="AC224">
+        <v>2.95</v>
+      </c>
+      <c r="AD224">
+        <v>3.25</v>
+      </c>
+      <c r="AE224">
+        <v>2.2</v>
+      </c>
+      <c r="AF224">
+        <v>1.06</v>
+      </c>
+      <c r="AG224">
+        <v>7.2</v>
+      </c>
+      <c r="AH224">
+        <v>1.27</v>
+      </c>
+      <c r="AI224">
+        <v>3.4</v>
+      </c>
+      <c r="AJ224">
+        <v>2.02</v>
+      </c>
+      <c r="AK224">
+        <v>1.86</v>
+      </c>
+      <c r="AL224">
+        <v>1.75</v>
+      </c>
+      <c r="AM224">
+        <v>2</v>
+      </c>
+      <c r="AN224">
+        <v>1.58</v>
+      </c>
+      <c r="AO224">
+        <v>1.3</v>
+      </c>
+      <c r="AP224">
+        <v>1.32</v>
+      </c>
+      <c r="AQ224">
+        <v>0.83</v>
+      </c>
+      <c r="AR224">
+        <v>1.18</v>
+      </c>
+      <c r="AS224">
+        <v>0.85</v>
+      </c>
+      <c r="AT224">
+        <v>1.17</v>
+      </c>
+      <c r="AU224">
+        <v>1.38</v>
+      </c>
+      <c r="AV224">
+        <v>1.85</v>
+      </c>
+      <c r="AW224">
+        <v>3.23</v>
+      </c>
+      <c r="AX224">
+        <v>2.5</v>
+      </c>
+      <c r="AY224">
+        <v>8</v>
+      </c>
+      <c r="AZ224">
+        <v>1.73</v>
+      </c>
+      <c r="BA224">
+        <v>1.33</v>
+      </c>
+      <c r="BB224">
+        <v>1.6</v>
+      </c>
+      <c r="BC224">
+        <v>2</v>
+      </c>
+      <c r="BD224">
+        <v>2.55</v>
+      </c>
+      <c r="BE224">
+        <v>3.4</v>
+      </c>
+      <c r="BF224">
+        <v>3</v>
+      </c>
+      <c r="BG224">
+        <v>4</v>
+      </c>
+      <c r="BH224">
+        <v>2</v>
+      </c>
+      <c r="BI224">
+        <v>8</v>
+      </c>
+      <c r="BJ224">
+        <v>5</v>
+      </c>
+      <c r="BK224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>5189152</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45164.29166666666</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>67</v>
+      </c>
+      <c r="H225" t="s">
+        <v>71</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>236</v>
+      </c>
+      <c r="P225" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q225">
+        <v>6</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>10</v>
+      </c>
+      <c r="T225">
+        <v>3.6</v>
+      </c>
+      <c r="U225">
+        <v>2.2</v>
+      </c>
+      <c r="V225">
+        <v>2.88</v>
+      </c>
+      <c r="W225">
+        <v>1.4</v>
+      </c>
+      <c r="X225">
+        <v>2.75</v>
+      </c>
+      <c r="Y225">
+        <v>2.75</v>
+      </c>
+      <c r="Z225">
+        <v>1.4</v>
+      </c>
+      <c r="AA225">
+        <v>8</v>
+      </c>
+      <c r="AB225">
+        <v>1.08</v>
+      </c>
+      <c r="AC225">
+        <v>2.79</v>
+      </c>
+      <c r="AD225">
+        <v>3.25</v>
+      </c>
+      <c r="AE225">
+        <v>2.32</v>
+      </c>
+      <c r="AF225">
+        <v>1.05</v>
+      </c>
+      <c r="AG225">
+        <v>9.25</v>
+      </c>
+      <c r="AH225">
+        <v>1.28</v>
+      </c>
+      <c r="AI225">
+        <v>3.3</v>
+      </c>
+      <c r="AJ225">
+        <v>1.92</v>
+      </c>
+      <c r="AK225">
+        <v>1.96</v>
+      </c>
+      <c r="AL225">
+        <v>1.75</v>
+      </c>
+      <c r="AM225">
+        <v>2</v>
+      </c>
+      <c r="AN225">
+        <v>1.58</v>
+      </c>
+      <c r="AO225">
+        <v>1.28</v>
+      </c>
+      <c r="AP225">
+        <v>1.35</v>
+      </c>
+      <c r="AQ225">
+        <v>2</v>
+      </c>
+      <c r="AR225">
+        <v>2.09</v>
+      </c>
+      <c r="AS225">
+        <v>1.92</v>
+      </c>
+      <c r="AT225">
+        <v>2</v>
+      </c>
+      <c r="AU225">
+        <v>1.38</v>
+      </c>
+      <c r="AV225">
+        <v>1.44</v>
+      </c>
+      <c r="AW225">
+        <v>2.82</v>
+      </c>
+      <c r="AX225">
+        <v>2.1</v>
+      </c>
+      <c r="AY225">
+        <v>8</v>
+      </c>
+      <c r="AZ225">
+        <v>1.95</v>
+      </c>
+      <c r="BA225">
+        <v>1.33</v>
+      </c>
+      <c r="BB225">
+        <v>1.72</v>
+      </c>
+      <c r="BC225">
+        <v>2</v>
+      </c>
+      <c r="BD225">
+        <v>2.35</v>
+      </c>
+      <c r="BE225">
+        <v>3.3</v>
+      </c>
+      <c r="BF225">
+        <v>5</v>
+      </c>
+      <c r="BG225">
+        <v>6</v>
+      </c>
+      <c r="BH225">
+        <v>6</v>
+      </c>
+      <c r="BI225">
+        <v>7</v>
+      </c>
+      <c r="BJ225">
+        <v>11</v>
+      </c>
+      <c r="BK225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>5189155</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45164.3125</v>
+      </c>
+      <c r="F226">
+        <v>25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>70</v>
+      </c>
+      <c r="H226" t="s">
+        <v>80</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>237</v>
+      </c>
+      <c r="P226" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>8</v>
+      </c>
+      <c r="S226">
+        <v>8</v>
+      </c>
+      <c r="T226">
+        <v>3.25</v>
+      </c>
+      <c r="U226">
+        <v>2.05</v>
+      </c>
+      <c r="V226">
+        <v>3.2</v>
+      </c>
+      <c r="W226">
+        <v>1.44</v>
+      </c>
+      <c r="X226">
+        <v>2.6</v>
+      </c>
+      <c r="Y226">
+        <v>2.95</v>
+      </c>
+      <c r="Z226">
+        <v>1.35</v>
+      </c>
+      <c r="AA226">
+        <v>7.9</v>
+      </c>
+      <c r="AB226">
+        <v>1.05</v>
+      </c>
+      <c r="AC226">
+        <v>2.51</v>
+      </c>
+      <c r="AD226">
+        <v>3.2</v>
+      </c>
+      <c r="AE226">
+        <v>2.57</v>
+      </c>
+      <c r="AF226">
+        <v>1.06</v>
+      </c>
+      <c r="AG226">
+        <v>7.5</v>
+      </c>
+      <c r="AH226">
+        <v>1.36</v>
+      </c>
+      <c r="AI226">
+        <v>2.9</v>
+      </c>
+      <c r="AJ226">
+        <v>2.05</v>
+      </c>
+      <c r="AK226">
+        <v>1.73</v>
+      </c>
+      <c r="AL226">
+        <v>1.83</v>
+      </c>
+      <c r="AM226">
+        <v>1.9</v>
+      </c>
+      <c r="AN226">
+        <v>1.42</v>
+      </c>
+      <c r="AO226">
+        <v>1.25</v>
+      </c>
+      <c r="AP226">
+        <v>1.45</v>
+      </c>
+      <c r="AQ226">
+        <v>1.58</v>
+      </c>
+      <c r="AR226">
+        <v>1.45</v>
+      </c>
+      <c r="AS226">
+        <v>1.69</v>
+      </c>
+      <c r="AT226">
+        <v>1.33</v>
+      </c>
+      <c r="AU226">
+        <v>1.29</v>
+      </c>
+      <c r="AV226">
+        <v>1.43</v>
+      </c>
+      <c r="AW226">
+        <v>2.72</v>
+      </c>
+      <c r="AX226">
+        <v>1.91</v>
+      </c>
+      <c r="AY226">
+        <v>8</v>
+      </c>
+      <c r="AZ226">
+        <v>2.2</v>
+      </c>
+      <c r="BA226">
+        <v>1.3</v>
+      </c>
+      <c r="BB226">
+        <v>1.53</v>
+      </c>
+      <c r="BC226">
+        <v>1.95</v>
+      </c>
+      <c r="BD226">
+        <v>2.4</v>
+      </c>
+      <c r="BE226">
+        <v>3.1</v>
+      </c>
+      <c r="BF226">
+        <v>6</v>
+      </c>
+      <c r="BG226">
+        <v>5</v>
+      </c>
+      <c r="BH226">
+        <v>3</v>
+      </c>
+      <c r="BI226">
+        <v>3</v>
+      </c>
+      <c r="BJ226">
+        <v>9</v>
+      </c>
+      <c r="BK226">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -43453,10 +43453,10 @@
         <v>2</v>
       </c>
       <c r="R221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S221">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T221">
         <v>3.2</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,24 @@
     <t>['9', '71', '88']</t>
   </si>
   <si>
+    <t>['13', '59', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '72', '90+2']</t>
+  </si>
+  <si>
+    <t>['35', '43']</t>
+  </si>
+  <si>
+    <t>['52', '83']</t>
+  </si>
+  <si>
+    <t>['18', '52']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['4', '38']</t>
   </si>
   <si>
@@ -773,9 +791,6 @@
   </si>
   <si>
     <t>['21']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['41', '52', '70']</t>
@@ -1013,6 +1028,15 @@
   </si>
   <si>
     <t>['90+3', '90+14']</t>
+  </si>
+  <si>
+    <t>['3', '79']</t>
+  </si>
+  <si>
+    <t>['8', '90+2']</t>
+  </si>
+  <si>
+    <t>['2', '11']</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1642,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1708,7 +1732,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2087,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT4">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2472,7 +2496,7 @@
         <v>1.38</v>
       </c>
       <c r="AT6">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2573,7 +2597,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2660,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2851,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2955,7 +2979,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3042,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
         <v>0.62</v>
@@ -3146,7 +3170,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3233,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3337,7 +3361,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3424,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT11">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3618,7 +3642,7 @@
         <v>2.42</v>
       </c>
       <c r="AT12">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3719,7 +3743,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3806,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3910,7 +3934,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4101,7 +4125,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4292,7 +4316,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4382,7 +4406,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4570,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT17">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4674,7 +4698,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4865,7 +4889,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4952,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT19">
         <v>0.77</v>
@@ -5146,7 +5170,7 @@
         <v>2.42</v>
       </c>
       <c r="AT20">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU20">
         <v>1.93</v>
@@ -5247,7 +5271,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5438,7 +5462,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5528,7 +5552,7 @@
         <v>1.07</v>
       </c>
       <c r="AT22">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU22">
         <v>1.4</v>
@@ -5629,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5716,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT23">
         <v>1.29</v>
@@ -6098,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU25">
         <v>1.22</v>
@@ -6202,7 +6226,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6671,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -6775,7 +6799,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q29">
         <v>11</v>
@@ -6862,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU29">
         <v>1.31</v>
@@ -7053,10 +7077,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT30">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
         <v>1.4</v>
@@ -7157,7 +7181,7 @@
         <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7244,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7435,10 +7459,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>1.7</v>
@@ -7629,7 +7653,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU33">
         <v>1.05</v>
@@ -7730,7 +7754,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7817,7 +7841,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>1.33</v>
@@ -8008,10 +8032,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT35">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU35">
         <v>1.14</v>
@@ -8112,7 +8136,7 @@
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8199,10 +8223,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT36">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU36">
         <v>2.48</v>
@@ -8303,7 +8327,7 @@
         <v>87</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8393,7 +8417,7 @@
         <v>1.75</v>
       </c>
       <c r="AT37">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU37">
         <v>2.2</v>
@@ -8581,7 +8605,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT38">
         <v>0.77</v>
@@ -8685,7 +8709,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8775,7 +8799,7 @@
         <v>1.07</v>
       </c>
       <c r="AT39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU39">
         <v>0.96</v>
@@ -8966,7 +8990,7 @@
         <v>2.42</v>
       </c>
       <c r="AT40">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>1.61</v>
@@ -9067,7 +9091,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9258,7 +9282,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9536,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
         <v>2</v>
@@ -10022,7 +10046,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -10213,7 +10237,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10300,10 +10324,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU47">
         <v>1.4</v>
@@ -10404,7 +10428,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10595,7 +10619,7 @@
         <v>88</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10685,7 +10709,7 @@
         <v>1.07</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU49">
         <v>1.01</v>
@@ -10786,7 +10810,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10873,7 +10897,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT50">
         <v>1.33</v>
@@ -10977,7 +11001,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11067,7 +11091,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -11168,7 +11192,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11255,10 +11279,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU52">
         <v>2.13</v>
@@ -11446,7 +11470,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
         <v>0.77</v>
@@ -11637,10 +11661,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT54">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11741,7 +11765,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11828,10 +11852,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT55">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU55">
         <v>1.7</v>
@@ -12022,7 +12046,7 @@
         <v>2.42</v>
       </c>
       <c r="AT56">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU56">
         <v>1.43</v>
@@ -12401,7 +12425,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12505,7 +12529,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12592,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT59">
         <v>1.29</v>
@@ -12696,7 +12720,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -12783,7 +12807,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT60">
         <v>0.62</v>
@@ -12974,10 +12998,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT61">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13168,7 +13192,7 @@
         <v>1.75</v>
       </c>
       <c r="AT62">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU62">
         <v>1.7</v>
@@ -13359,7 +13383,7 @@
         <v>1.77</v>
       </c>
       <c r="AT63">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13547,10 +13571,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU64">
         <v>1.3</v>
@@ -13651,7 +13675,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13741,7 +13765,7 @@
         <v>1.07</v>
       </c>
       <c r="AT65">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU65">
         <v>1.03</v>
@@ -13842,7 +13866,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13929,10 +13953,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU66">
         <v>1.31</v>
@@ -14120,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14224,7 +14248,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14311,10 +14335,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT68">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14415,7 +14439,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14606,7 +14630,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14797,7 +14821,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14988,7 +15012,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15075,7 +15099,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT72">
         <v>1.67</v>
@@ -15269,7 +15293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU73">
         <v>1.01</v>
@@ -15370,7 +15394,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15561,7 +15585,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15648,10 +15672,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -15839,7 +15863,7 @@
         <v>0.33</v>
       </c>
       <c r="AS76">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT76">
         <v>0.75</v>
@@ -15943,7 +15967,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -16134,7 +16158,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16221,10 +16245,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT78">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16325,7 +16349,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16412,10 +16436,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU79">
         <v>1.8</v>
@@ -16516,7 +16540,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16603,7 +16627,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT80">
         <v>0.62</v>
@@ -16797,7 +16821,7 @@
         <v>1.33</v>
       </c>
       <c r="AT81">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16988,7 +17012,7 @@
         <v>1.75</v>
       </c>
       <c r="AT82">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU82">
         <v>1.7</v>
@@ -17089,7 +17113,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17280,7 +17304,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17367,10 +17391,10 @@
         <v>2.5</v>
       </c>
       <c r="AS84">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT84">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU84">
         <v>1.07</v>
@@ -17558,7 +17582,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.62</v>
@@ -17662,7 +17686,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17940,7 +17964,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -18131,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
+        <v>1</v>
+      </c>
+      <c r="AT88">
         <v>0.85</v>
-      </c>
-      <c r="AT88">
-        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.19</v>
@@ -18235,7 +18259,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18325,7 +18349,7 @@
         <v>1.77</v>
       </c>
       <c r="AT89">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU89">
         <v>1.4</v>
@@ -18516,7 +18540,7 @@
         <v>1.75</v>
       </c>
       <c r="AT90">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU90">
         <v>1.08</v>
@@ -18617,7 +18641,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>14</v>
@@ -18704,10 +18728,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18898,7 +18922,7 @@
         <v>1.38</v>
       </c>
       <c r="AT92">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18999,7 +19023,7 @@
         <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19190,7 +19214,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19277,10 +19301,10 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT94">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU94">
         <v>1.02</v>
@@ -19572,7 +19596,7 @@
         <v>152</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19659,7 +19683,7 @@
         <v>3</v>
       </c>
       <c r="AS96">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19763,7 +19787,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19850,7 +19874,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT97">
         <v>0.75</v>
@@ -20145,7 +20169,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20232,7 +20256,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT99">
         <v>0.77</v>
@@ -20423,10 +20447,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT100">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU100">
         <v>1.52</v>
@@ -20527,7 +20551,7 @@
         <v>157</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20617,7 +20641,7 @@
         <v>1.85</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU101">
         <v>2.02</v>
@@ -20718,7 +20742,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20808,7 +20832,7 @@
         <v>2.42</v>
       </c>
       <c r="AT102">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20996,7 +21020,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT103">
         <v>0.75</v>
@@ -21187,10 +21211,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT104">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU104">
         <v>1.03</v>
@@ -21378,10 +21402,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU105">
         <v>1.51</v>
@@ -21673,7 +21697,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21864,7 +21888,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21951,10 +21975,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT108">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU108">
         <v>1.34</v>
@@ -22142,10 +22166,10 @@
         <v>2.6</v>
       </c>
       <c r="AS109">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT109">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU109">
         <v>1.54</v>
@@ -22246,7 +22270,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22333,7 +22357,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT110">
         <v>1.29</v>
@@ -22524,10 +22548,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT111">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU111">
         <v>1.2</v>
@@ -22628,7 +22652,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23201,7 +23225,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23288,10 +23312,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT115">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU115">
         <v>1.35</v>
@@ -23482,7 +23506,7 @@
         <v>2.08</v>
       </c>
       <c r="AT116">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU116">
         <v>1.52</v>
@@ -23583,7 +23607,7 @@
         <v>167</v>
       </c>
       <c r="P117" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23670,10 +23694,10 @@
         <v>1.17</v>
       </c>
       <c r="AS117">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT117">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU117">
         <v>1.79</v>
@@ -23864,7 +23888,7 @@
         <v>1.77</v>
       </c>
       <c r="AT118">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23965,7 +23989,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24156,7 +24180,7 @@
         <v>84</v>
       </c>
       <c r="P120" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24243,7 +24267,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT120">
         <v>1.67</v>
@@ -24434,10 +24458,10 @@
         <v>2.17</v>
       </c>
       <c r="AS121">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT121">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24628,7 +24652,7 @@
         <v>1.07</v>
       </c>
       <c r="AT122">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU122">
         <v>1.14</v>
@@ -24816,7 +24840,7 @@
         <v>2.6</v>
       </c>
       <c r="AS123">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT123">
         <v>2</v>
@@ -25007,7 +25031,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -25111,7 +25135,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25201,7 +25225,7 @@
         <v>1.75</v>
       </c>
       <c r="AT125">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25302,7 +25326,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25389,7 +25413,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT126">
         <v>1.33</v>
@@ -25493,7 +25517,7 @@
         <v>173</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25580,7 +25604,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT127">
         <v>0.77</v>
@@ -25875,7 +25899,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25962,10 +25986,10 @@
         <v>2.14</v>
       </c>
       <c r="AS129">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT129">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU129">
         <v>1.26</v>
@@ -26066,7 +26090,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26156,7 +26180,7 @@
         <v>1.38</v>
       </c>
       <c r="AT130">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26257,7 +26281,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26344,10 +26368,10 @@
         <v>0.14</v>
       </c>
       <c r="AS131">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT131">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU131">
         <v>1.39</v>
@@ -26535,10 +26559,10 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT132">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU132">
         <v>1</v>
@@ -26729,7 +26753,7 @@
         <v>2.42</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -27021,7 +27045,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27111,7 +27135,7 @@
         <v>2.08</v>
       </c>
       <c r="AT135">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27212,7 +27236,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27299,10 +27323,10 @@
         <v>1.63</v>
       </c>
       <c r="AS136">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT136">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU136">
         <v>1.33</v>
@@ -27403,7 +27427,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -27490,7 +27514,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27681,7 +27705,7 @@
         <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT138">
         <v>1.67</v>
@@ -27785,7 +27809,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27875,7 +27899,7 @@
         <v>1.77</v>
       </c>
       <c r="AT139">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU139">
         <v>1.51</v>
@@ -27976,7 +28000,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28167,7 +28191,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28254,7 +28278,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT141">
         <v>1.29</v>
@@ -28448,7 +28472,7 @@
         <v>1.85</v>
       </c>
       <c r="AT142">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU142">
         <v>2.04</v>
@@ -28639,7 +28663,7 @@
         <v>2.08</v>
       </c>
       <c r="AT143">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU143">
         <v>1.7</v>
@@ -28740,7 +28764,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29018,7 +29042,7 @@
         <v>2.33</v>
       </c>
       <c r="AS145">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT145">
         <v>2</v>
@@ -29209,7 +29233,7 @@
         <v>1.88</v>
       </c>
       <c r="AS146">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT146">
         <v>1.29</v>
@@ -29313,7 +29337,7 @@
         <v>147</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29400,10 +29424,10 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT147">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU147">
         <v>1.53</v>
@@ -29504,7 +29528,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29591,10 +29615,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU148">
         <v>1.46</v>
@@ -29886,7 +29910,7 @@
         <v>191</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30167,7 +30191,7 @@
         <v>1.07</v>
       </c>
       <c r="AT151">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU151">
         <v>1.08</v>
@@ -30358,7 +30382,7 @@
         <v>1.33</v>
       </c>
       <c r="AT152">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU152">
         <v>1.62</v>
@@ -30459,7 +30483,7 @@
         <v>192</v>
       </c>
       <c r="P153" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>10</v>
@@ -30546,7 +30570,7 @@
         <v>1.63</v>
       </c>
       <c r="AS153">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT153">
         <v>1.67</v>
@@ -30737,7 +30761,7 @@
         <v>0.75</v>
       </c>
       <c r="AS154">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT154">
         <v>1</v>
@@ -30928,7 +30952,7 @@
         <v>2</v>
       </c>
       <c r="AS155">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT155">
         <v>1.33</v>
@@ -31032,7 +31056,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31119,7 +31143,7 @@
         <v>1.38</v>
       </c>
       <c r="AS156">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT156">
         <v>1.25</v>
@@ -31223,7 +31247,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31313,7 +31337,7 @@
         <v>1.38</v>
       </c>
       <c r="AT157">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU157">
         <v>1.42</v>
@@ -31414,7 +31438,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31504,7 +31528,7 @@
         <v>1.75</v>
       </c>
       <c r="AT158">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU158">
         <v>1.87</v>
@@ -31605,7 +31629,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31695,7 +31719,7 @@
         <v>1.85</v>
       </c>
       <c r="AT159">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU159">
         <v>2.03</v>
@@ -31796,7 +31820,7 @@
         <v>154</v>
       </c>
       <c r="P160" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31886,7 +31910,7 @@
         <v>2.08</v>
       </c>
       <c r="AT160">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31987,7 +32011,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -32456,10 +32480,10 @@
         <v>0.38</v>
       </c>
       <c r="AS163">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU163">
         <v>1.2</v>
@@ -32650,7 +32674,7 @@
         <v>1.75</v>
       </c>
       <c r="AT164">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU164">
         <v>1.17</v>
@@ -32838,10 +32862,10 @@
         <v>1.44</v>
       </c>
       <c r="AS165">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT165">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU165">
         <v>1.54</v>
@@ -33029,10 +33053,10 @@
         <v>1.44</v>
       </c>
       <c r="AS166">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT166">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU166">
         <v>1.48</v>
@@ -33223,7 +33247,7 @@
         <v>1.07</v>
       </c>
       <c r="AT167">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU167">
         <v>1.07</v>
@@ -33411,7 +33435,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT168">
         <v>0.75</v>
@@ -33515,7 +33539,7 @@
         <v>199</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33602,10 +33626,10 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT169">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU169">
         <v>1.18</v>
@@ -33706,7 +33730,7 @@
         <v>149</v>
       </c>
       <c r="P170" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>2</v>
@@ -33793,7 +33817,7 @@
         <v>1.78</v>
       </c>
       <c r="AS170">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT170">
         <v>1.29</v>
@@ -34088,7 +34112,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34175,7 +34199,7 @@
         <v>2.13</v>
       </c>
       <c r="AS172">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT172">
         <v>2</v>
@@ -34279,7 +34303,7 @@
         <v>201</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34366,10 +34390,10 @@
         <v>1.9</v>
       </c>
       <c r="AS173">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT173">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU173">
         <v>1.46</v>
@@ -34560,7 +34584,7 @@
         <v>1.85</v>
       </c>
       <c r="AT174">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU174">
         <v>1.97</v>
@@ -34852,7 +34876,7 @@
         <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -34939,7 +34963,7 @@
         <v>0.6</v>
       </c>
       <c r="AS176">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT176">
         <v>0.62</v>
@@ -35133,7 +35157,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU177">
         <v>1.53</v>
@@ -35324,7 +35348,7 @@
         <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU178">
         <v>1.81</v>
@@ -35425,7 +35449,7 @@
         <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -35703,7 +35727,7 @@
         <v>1.78</v>
       </c>
       <c r="AS180">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT180">
         <v>1.67</v>
@@ -35894,7 +35918,7 @@
         <v>0.78</v>
       </c>
       <c r="AS181">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -36088,7 +36112,7 @@
         <v>2.42</v>
       </c>
       <c r="AT182">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU182">
         <v>1.66</v>
@@ -36189,7 +36213,7 @@
         <v>206</v>
       </c>
       <c r="P183" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q183">
         <v>8</v>
@@ -36279,7 +36303,7 @@
         <v>1.85</v>
       </c>
       <c r="AT183">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU183">
         <v>1.92</v>
@@ -36380,7 +36404,7 @@
         <v>207</v>
       </c>
       <c r="P184" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36849,7 +36873,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT186">
         <v>1.25</v>
@@ -36953,7 +36977,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37040,10 +37064,10 @@
         <v>1.64</v>
       </c>
       <c r="AS187">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT187">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU187">
         <v>1.42</v>
@@ -37231,10 +37255,10 @@
         <v>1.6</v>
       </c>
       <c r="AS188">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT188">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU188">
         <v>1.2</v>
@@ -37335,7 +37359,7 @@
         <v>84</v>
       </c>
       <c r="P189" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37422,10 +37446,10 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT189">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU189">
         <v>1.62</v>
@@ -37526,7 +37550,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37613,10 +37637,10 @@
         <v>1.45</v>
       </c>
       <c r="AS190">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT190">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU190">
         <v>1.49</v>
@@ -37804,7 +37828,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -37995,10 +38019,10 @@
         <v>1.3</v>
       </c>
       <c r="AS192">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT192">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -38571,7 +38595,7 @@
         <v>2.08</v>
       </c>
       <c r="AT195">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU195">
         <v>1.61</v>
@@ -38672,7 +38696,7 @@
         <v>216</v>
       </c>
       <c r="P196" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38762,7 +38786,7 @@
         <v>1.33</v>
       </c>
       <c r="AT196">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU196">
         <v>1.55</v>
@@ -38863,7 +38887,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q197">
         <v>2</v>
@@ -39141,7 +39165,7 @@
         <v>0.64</v>
       </c>
       <c r="AS198">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT198">
         <v>0.77</v>
@@ -39332,10 +39356,10 @@
         <v>0.9</v>
       </c>
       <c r="AS199">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT199">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU199">
         <v>1.22</v>
@@ -39523,7 +39547,7 @@
         <v>1.4</v>
       </c>
       <c r="AS200">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT200">
         <v>1.25</v>
@@ -39627,7 +39651,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39714,7 +39738,7 @@
         <v>0.64</v>
       </c>
       <c r="AS201">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT201">
         <v>0.62</v>
@@ -39905,7 +39929,7 @@
         <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT202">
         <v>1.67</v>
@@ -40096,10 +40120,10 @@
         <v>1</v>
       </c>
       <c r="AS203">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT203">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU203">
         <v>1.36</v>
@@ -40200,7 +40224,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40481,7 +40505,7 @@
         <v>1.77</v>
       </c>
       <c r="AT205">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU205">
         <v>1.47</v>
@@ -40582,7 +40606,7 @@
         <v>222</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40672,7 +40696,7 @@
         <v>2.42</v>
       </c>
       <c r="AT206">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU206">
         <v>1.64</v>
@@ -40860,10 +40884,10 @@
         <v>1.75</v>
       </c>
       <c r="AS207">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AT207">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU207">
         <v>1.47</v>
@@ -40964,7 +40988,7 @@
         <v>224</v>
       </c>
       <c r="P208" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q208">
         <v>6</v>
@@ -41054,7 +41078,7 @@
         <v>1.85</v>
       </c>
       <c r="AT208">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU208">
         <v>1.88</v>
@@ -42197,7 +42221,7 @@
         <v>0.73</v>
       </c>
       <c r="AS214">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT214">
         <v>0.75</v>
@@ -42301,7 +42325,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42391,7 +42415,7 @@
         <v>1.85</v>
       </c>
       <c r="AT215">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU215">
         <v>1.96</v>
@@ -42961,10 +42985,10 @@
         <v>1.33</v>
       </c>
       <c r="AS218">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT218">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU218">
         <v>1.52</v>
@@ -43346,7 +43370,7 @@
         <v>1.07</v>
       </c>
       <c r="AT220">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU220">
         <v>1.09</v>
@@ -43537,7 +43561,7 @@
         <v>1.38</v>
       </c>
       <c r="AT221">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU221">
         <v>1.43</v>
@@ -43638,7 +43662,7 @@
         <v>235</v>
       </c>
       <c r="P222" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43916,10 +43940,10 @@
         <v>0.92</v>
       </c>
       <c r="AS223">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT223">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU223">
         <v>1.25</v>
@@ -44107,10 +44131,10 @@
         <v>1.18</v>
       </c>
       <c r="AS224">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT224">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU224">
         <v>1.38</v>
@@ -44211,7 +44235,7 @@
         <v>236</v>
       </c>
       <c r="P225" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44298,7 +44322,7 @@
         <v>2.09</v>
       </c>
       <c r="AS225">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT225">
         <v>2</v>
@@ -44489,7 +44513,7 @@
         <v>1.45</v>
       </c>
       <c r="AS226">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT226">
         <v>1.33</v>
@@ -44544,6 +44568,1725 @@
       </c>
       <c r="BK226">
         <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>5189157</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45171.04166666666</v>
+      </c>
+      <c r="F227">
+        <v>26</v>
+      </c>
+      <c r="G227" t="s">
+        <v>76</v>
+      </c>
+      <c r="H227" t="s">
+        <v>77</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>4</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" t="s">
+        <v>238</v>
+      </c>
+      <c r="P227" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q227">
+        <v>8</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>10</v>
+      </c>
+      <c r="T227">
+        <v>2.62</v>
+      </c>
+      <c r="U227">
+        <v>2.51</v>
+      </c>
+      <c r="V227">
+        <v>3.87</v>
+      </c>
+      <c r="W227">
+        <v>1.25</v>
+      </c>
+      <c r="X227">
+        <v>3.6</v>
+      </c>
+      <c r="Y227">
+        <v>2.41</v>
+      </c>
+      <c r="Z227">
+        <v>1.61</v>
+      </c>
+      <c r="AA227">
+        <v>4.75</v>
+      </c>
+      <c r="AB227">
+        <v>1.15</v>
+      </c>
+      <c r="AC227">
+        <v>1.91</v>
+      </c>
+      <c r="AD227">
+        <v>3.65</v>
+      </c>
+      <c r="AE227">
+        <v>3.65</v>
+      </c>
+      <c r="AF227">
+        <v>1.01</v>
+      </c>
+      <c r="AG227">
+        <v>11</v>
+      </c>
+      <c r="AH227">
+        <v>1.15</v>
+      </c>
+      <c r="AI227">
+        <v>4.75</v>
+      </c>
+      <c r="AJ227">
+        <v>1.67</v>
+      </c>
+      <c r="AK227">
+        <v>2.2</v>
+      </c>
+      <c r="AL227">
+        <v>1.47</v>
+      </c>
+      <c r="AM227">
+        <v>2.55</v>
+      </c>
+      <c r="AN227">
+        <v>1.25</v>
+      </c>
+      <c r="AO227">
+        <v>1.2</v>
+      </c>
+      <c r="AP227">
+        <v>1.8</v>
+      </c>
+      <c r="AQ227">
+        <v>1</v>
+      </c>
+      <c r="AR227">
+        <v>0.92</v>
+      </c>
+      <c r="AS227">
+        <v>1.17</v>
+      </c>
+      <c r="AT227">
+        <v>0.86</v>
+      </c>
+      <c r="AU227">
+        <v>1.71</v>
+      </c>
+      <c r="AV227">
+        <v>1.31</v>
+      </c>
+      <c r="AW227">
+        <v>3.02</v>
+      </c>
+      <c r="AX227">
+        <v>1.62</v>
+      </c>
+      <c r="AY227">
+        <v>8</v>
+      </c>
+      <c r="AZ227">
+        <v>2.75</v>
+      </c>
+      <c r="BA227">
+        <v>1.31</v>
+      </c>
+      <c r="BB227">
+        <v>1.58</v>
+      </c>
+      <c r="BC227">
+        <v>1.95</v>
+      </c>
+      <c r="BD227">
+        <v>2.39</v>
+      </c>
+      <c r="BE227">
+        <v>3.4</v>
+      </c>
+      <c r="BF227">
+        <v>10</v>
+      </c>
+      <c r="BG227">
+        <v>2</v>
+      </c>
+      <c r="BH227">
+        <v>10</v>
+      </c>
+      <c r="BI227">
+        <v>3</v>
+      </c>
+      <c r="BJ227">
+        <v>20</v>
+      </c>
+      <c r="BK227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5189162</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45171.25</v>
+      </c>
+      <c r="F228">
+        <v>26</v>
+      </c>
+      <c r="G228" t="s">
+        <v>80</v>
+      </c>
+      <c r="H228" t="s">
+        <v>68</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>108</v>
+      </c>
+      <c r="P228" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q228">
+        <v>2</v>
+      </c>
+      <c r="R228">
+        <v>8</v>
+      </c>
+      <c r="S228">
+        <v>10</v>
+      </c>
+      <c r="T228">
+        <v>2.16</v>
+      </c>
+      <c r="U228">
+        <v>2.35</v>
+      </c>
+      <c r="V228">
+        <v>6.55</v>
+      </c>
+      <c r="W228">
+        <v>1.42</v>
+      </c>
+      <c r="X228">
+        <v>3.01</v>
+      </c>
+      <c r="Y228">
+        <v>3.03</v>
+      </c>
+      <c r="Z228">
+        <v>1.41</v>
+      </c>
+      <c r="AA228">
+        <v>6.8</v>
+      </c>
+      <c r="AB228">
+        <v>1.09</v>
+      </c>
+      <c r="AC228">
+        <v>1.19</v>
+      </c>
+      <c r="AD228">
+        <v>6.15</v>
+      </c>
+      <c r="AE228">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="AF228">
+        <v>1.03</v>
+      </c>
+      <c r="AG228">
+        <v>9</v>
+      </c>
+      <c r="AH228">
+        <v>1.29</v>
+      </c>
+      <c r="AI228">
+        <v>3.4</v>
+      </c>
+      <c r="AJ228">
+        <v>1.91</v>
+      </c>
+      <c r="AK228">
+        <v>1.93</v>
+      </c>
+      <c r="AL228">
+        <v>2.03</v>
+      </c>
+      <c r="AM228">
+        <v>1.76</v>
+      </c>
+      <c r="AN228">
+        <v>1.13</v>
+      </c>
+      <c r="AO228">
+        <v>1.22</v>
+      </c>
+      <c r="AP228">
+        <v>2.5</v>
+      </c>
+      <c r="AQ228">
+        <v>2.23</v>
+      </c>
+      <c r="AR228">
+        <v>0.55</v>
+      </c>
+      <c r="AS228">
+        <v>2.14</v>
+      </c>
+      <c r="AT228">
+        <v>0.58</v>
+      </c>
+      <c r="AU228">
+        <v>1.44</v>
+      </c>
+      <c r="AV228">
+        <v>1.39</v>
+      </c>
+      <c r="AW228">
+        <v>2.83</v>
+      </c>
+      <c r="AX228">
+        <v>1.5</v>
+      </c>
+      <c r="AY228">
+        <v>8.5</v>
+      </c>
+      <c r="AZ228">
+        <v>3.1</v>
+      </c>
+      <c r="BA228">
+        <v>1.2</v>
+      </c>
+      <c r="BB228">
+        <v>1.6</v>
+      </c>
+      <c r="BC228">
+        <v>1.9</v>
+      </c>
+      <c r="BD228">
+        <v>2.13</v>
+      </c>
+      <c r="BE228">
+        <v>2.63</v>
+      </c>
+      <c r="BF228">
+        <v>3</v>
+      </c>
+      <c r="BG228">
+        <v>4</v>
+      </c>
+      <c r="BH228">
+        <v>4</v>
+      </c>
+      <c r="BI228">
+        <v>7</v>
+      </c>
+      <c r="BJ228">
+        <v>7</v>
+      </c>
+      <c r="BK228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5189161</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45171.25</v>
+      </c>
+      <c r="F229">
+        <v>26</v>
+      </c>
+      <c r="G229" t="s">
+        <v>81</v>
+      </c>
+      <c r="H229" t="s">
+        <v>82</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>100</v>
+      </c>
+      <c r="P229" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>6</v>
+      </c>
+      <c r="T229">
+        <v>4.26</v>
+      </c>
+      <c r="U229">
+        <v>2.12</v>
+      </c>
+      <c r="V229">
+        <v>3</v>
+      </c>
+      <c r="W229">
+        <v>1.46</v>
+      </c>
+      <c r="X229">
+        <v>2.55</v>
+      </c>
+      <c r="Y229">
+        <v>3.15</v>
+      </c>
+      <c r="Z229">
+        <v>1.32</v>
+      </c>
+      <c r="AA229">
+        <v>8.35</v>
+      </c>
+      <c r="AB229">
+        <v>1.05</v>
+      </c>
+      <c r="AC229">
+        <v>3.54</v>
+      </c>
+      <c r="AD229">
+        <v>3.82</v>
+      </c>
+      <c r="AE229">
+        <v>1.77</v>
+      </c>
+      <c r="AF229">
+        <v>1.06</v>
+      </c>
+      <c r="AG229">
+        <v>7.2</v>
+      </c>
+      <c r="AH229">
+        <v>1.33</v>
+      </c>
+      <c r="AI229">
+        <v>3</v>
+      </c>
+      <c r="AJ229">
+        <v>2.3</v>
+      </c>
+      <c r="AK229">
+        <v>1.62</v>
+      </c>
+      <c r="AL229">
+        <v>2.01</v>
+      </c>
+      <c r="AM229">
+        <v>1.78</v>
+      </c>
+      <c r="AN229">
+        <v>1.68</v>
+      </c>
+      <c r="AO229">
+        <v>1.25</v>
+      </c>
+      <c r="AP229">
+        <v>1.3</v>
+      </c>
+      <c r="AQ229">
+        <v>1.25</v>
+      </c>
+      <c r="AR229">
+        <v>1.46</v>
+      </c>
+      <c r="AS229">
+        <v>1.23</v>
+      </c>
+      <c r="AT229">
+        <v>1.43</v>
+      </c>
+      <c r="AU229">
+        <v>1.58</v>
+      </c>
+      <c r="AV229">
+        <v>1.14</v>
+      </c>
+      <c r="AW229">
+        <v>2.72</v>
+      </c>
+      <c r="AX229">
+        <v>1.91</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>2.1</v>
+      </c>
+      <c r="BA229">
+        <v>1.43</v>
+      </c>
+      <c r="BB229">
+        <v>1.73</v>
+      </c>
+      <c r="BC229">
+        <v>1.83</v>
+      </c>
+      <c r="BD229">
+        <v>2.37</v>
+      </c>
+      <c r="BE229">
+        <v>3.42</v>
+      </c>
+      <c r="BF229">
+        <v>4</v>
+      </c>
+      <c r="BG229">
+        <v>3</v>
+      </c>
+      <c r="BH229">
+        <v>5</v>
+      </c>
+      <c r="BI229">
+        <v>3</v>
+      </c>
+      <c r="BJ229">
+        <v>9</v>
+      </c>
+      <c r="BK229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>5189163</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>70</v>
+      </c>
+      <c r="H230" t="s">
+        <v>65</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>239</v>
+      </c>
+      <c r="P230" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q230">
+        <v>5</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>7</v>
+      </c>
+      <c r="T230">
+        <v>3.36</v>
+      </c>
+      <c r="U230">
+        <v>2.26</v>
+      </c>
+      <c r="V230">
+        <v>3.35</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>3</v>
+      </c>
+      <c r="Y230">
+        <v>2.5</v>
+      </c>
+      <c r="Z230">
+        <v>1.48</v>
+      </c>
+      <c r="AA230">
+        <v>5.75</v>
+      </c>
+      <c r="AB230">
+        <v>1.1</v>
+      </c>
+      <c r="AC230">
+        <v>2.33</v>
+      </c>
+      <c r="AD230">
+        <v>3.51</v>
+      </c>
+      <c r="AE230">
+        <v>2.54</v>
+      </c>
+      <c r="AF230">
+        <v>1.02</v>
+      </c>
+      <c r="AG230">
+        <v>10</v>
+      </c>
+      <c r="AH230">
+        <v>1.25</v>
+      </c>
+      <c r="AI230">
+        <v>3.6</v>
+      </c>
+      <c r="AJ230">
+        <v>2</v>
+      </c>
+      <c r="AK230">
+        <v>1.83</v>
+      </c>
+      <c r="AL230">
+        <v>1.62</v>
+      </c>
+      <c r="AM230">
+        <v>2.2</v>
+      </c>
+      <c r="AN230">
+        <v>1.44</v>
+      </c>
+      <c r="AO230">
+        <v>1.25</v>
+      </c>
+      <c r="AP230">
+        <v>1.47</v>
+      </c>
+      <c r="AQ230">
+        <v>1.69</v>
+      </c>
+      <c r="AR230">
+        <v>1.31</v>
+      </c>
+      <c r="AS230">
+        <v>1.79</v>
+      </c>
+      <c r="AT230">
+        <v>1.21</v>
+      </c>
+      <c r="AU230">
+        <v>1.29</v>
+      </c>
+      <c r="AV230">
+        <v>1.47</v>
+      </c>
+      <c r="AW230">
+        <v>2.76</v>
+      </c>
+      <c r="AX230">
+        <v>1.95</v>
+      </c>
+      <c r="AY230">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230">
+        <v>2.1</v>
+      </c>
+      <c r="BA230">
+        <v>1.33</v>
+      </c>
+      <c r="BB230">
+        <v>1.64</v>
+      </c>
+      <c r="BC230">
+        <v>2.01</v>
+      </c>
+      <c r="BD230">
+        <v>2.52</v>
+      </c>
+      <c r="BE230">
+        <v>4.4</v>
+      </c>
+      <c r="BF230">
+        <v>5</v>
+      </c>
+      <c r="BG230">
+        <v>6</v>
+      </c>
+      <c r="BH230">
+        <v>4</v>
+      </c>
+      <c r="BI230">
+        <v>3</v>
+      </c>
+      <c r="BJ230">
+        <v>9</v>
+      </c>
+      <c r="BK230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>5189165</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231" t="s">
+        <v>72</v>
+      </c>
+      <c r="H231" t="s">
+        <v>66</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>84</v>
+      </c>
+      <c r="P231" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q231">
+        <v>5</v>
+      </c>
+      <c r="R231">
+        <v>3</v>
+      </c>
+      <c r="S231">
+        <v>8</v>
+      </c>
+      <c r="T231">
+        <v>3.75</v>
+      </c>
+      <c r="U231">
+        <v>2.3</v>
+      </c>
+      <c r="V231">
+        <v>2.45</v>
+      </c>
+      <c r="W231">
+        <v>1.3</v>
+      </c>
+      <c r="X231">
+        <v>3.25</v>
+      </c>
+      <c r="Y231">
+        <v>2.4</v>
+      </c>
+      <c r="Z231">
+        <v>1.51</v>
+      </c>
+      <c r="AA231">
+        <v>5.45</v>
+      </c>
+      <c r="AB231">
+        <v>1.12</v>
+      </c>
+      <c r="AC231">
+        <v>3.51</v>
+      </c>
+      <c r="AD231">
+        <v>2.66</v>
+      </c>
+      <c r="AE231">
+        <v>2.24</v>
+      </c>
+      <c r="AF231">
+        <v>1.02</v>
+      </c>
+      <c r="AG231">
+        <v>10</v>
+      </c>
+      <c r="AH231">
+        <v>1.2</v>
+      </c>
+      <c r="AI231">
+        <v>4</v>
+      </c>
+      <c r="AJ231">
+        <v>1.85</v>
+      </c>
+      <c r="AK231">
+        <v>1.95</v>
+      </c>
+      <c r="AL231">
+        <v>1.57</v>
+      </c>
+      <c r="AM231">
+        <v>2.3</v>
+      </c>
+      <c r="AN231">
+        <v>1.85</v>
+      </c>
+      <c r="AO231">
+        <v>1.2</v>
+      </c>
+      <c r="AP231">
+        <v>1.28</v>
+      </c>
+      <c r="AQ231">
+        <v>1.23</v>
+      </c>
+      <c r="AR231">
+        <v>1.17</v>
+      </c>
+      <c r="AS231">
+        <v>1.14</v>
+      </c>
+      <c r="AT231">
+        <v>1.31</v>
+      </c>
+      <c r="AU231">
+        <v>1.24</v>
+      </c>
+      <c r="AV231">
+        <v>1.82</v>
+      </c>
+      <c r="AW231">
+        <v>3.06</v>
+      </c>
+      <c r="AX231">
+        <v>2.5</v>
+      </c>
+      <c r="AY231">
+        <v>8</v>
+      </c>
+      <c r="AZ231">
+        <v>1.67</v>
+      </c>
+      <c r="BA231">
+        <v>1.22</v>
+      </c>
+      <c r="BB231">
+        <v>1.51</v>
+      </c>
+      <c r="BC231">
+        <v>1.93</v>
+      </c>
+      <c r="BD231">
+        <v>2.23</v>
+      </c>
+      <c r="BE231">
+        <v>2.95</v>
+      </c>
+      <c r="BF231">
+        <v>0</v>
+      </c>
+      <c r="BG231">
+        <v>13</v>
+      </c>
+      <c r="BH231">
+        <v>5</v>
+      </c>
+      <c r="BI231">
+        <v>6</v>
+      </c>
+      <c r="BJ231">
+        <v>5</v>
+      </c>
+      <c r="BK231">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>5189160</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F232">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>74</v>
+      </c>
+      <c r="H232" t="s">
+        <v>79</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>4</v>
+      </c>
+      <c r="O232" t="s">
+        <v>240</v>
+      </c>
+      <c r="P232" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q232">
+        <v>6</v>
+      </c>
+      <c r="R232">
+        <v>9</v>
+      </c>
+      <c r="S232">
+        <v>15</v>
+      </c>
+      <c r="T232">
+        <v>4</v>
+      </c>
+      <c r="U232">
+        <v>2.15</v>
+      </c>
+      <c r="V232">
+        <v>2.55</v>
+      </c>
+      <c r="W232">
+        <v>1.39</v>
+      </c>
+      <c r="X232">
+        <v>2.8</v>
+      </c>
+      <c r="Y232">
+        <v>2.8</v>
+      </c>
+      <c r="Z232">
+        <v>1.39</v>
+      </c>
+      <c r="AA232">
+        <v>6.95</v>
+      </c>
+      <c r="AB232">
+        <v>1.07</v>
+      </c>
+      <c r="AC232">
+        <v>2.64</v>
+      </c>
+      <c r="AD232">
+        <v>3.29</v>
+      </c>
+      <c r="AE232">
+        <v>2.36</v>
+      </c>
+      <c r="AF232">
+        <v>1.04</v>
+      </c>
+      <c r="AG232">
+        <v>8.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.3</v>
+      </c>
+      <c r="AI232">
+        <v>3.2</v>
+      </c>
+      <c r="AJ232">
+        <v>1.96</v>
+      </c>
+      <c r="AK232">
+        <v>1.92</v>
+      </c>
+      <c r="AL232">
+        <v>1.87</v>
+      </c>
+      <c r="AM232">
+        <v>1.9</v>
+      </c>
+      <c r="AN232">
+        <v>1.8</v>
+      </c>
+      <c r="AO232">
+        <v>1.22</v>
+      </c>
+      <c r="AP232">
+        <v>1.28</v>
+      </c>
+      <c r="AQ232">
+        <v>0.75</v>
+      </c>
+      <c r="AR232">
+        <v>1.62</v>
+      </c>
+      <c r="AS232">
+        <v>0.77</v>
+      </c>
+      <c r="AT232">
+        <v>1.57</v>
+      </c>
+      <c r="AU232">
+        <v>1.47</v>
+      </c>
+      <c r="AV232">
+        <v>1.31</v>
+      </c>
+      <c r="AW232">
+        <v>2.78</v>
+      </c>
+      <c r="AX232">
+        <v>2</v>
+      </c>
+      <c r="AY232">
+        <v>8</v>
+      </c>
+      <c r="AZ232">
+        <v>2.1</v>
+      </c>
+      <c r="BA232">
+        <v>1.24</v>
+      </c>
+      <c r="BB232">
+        <v>1.54</v>
+      </c>
+      <c r="BC232">
+        <v>1.93</v>
+      </c>
+      <c r="BD232">
+        <v>2.3</v>
+      </c>
+      <c r="BE232">
+        <v>3.14</v>
+      </c>
+      <c r="BF232">
+        <v>5</v>
+      </c>
+      <c r="BG232">
+        <v>7</v>
+      </c>
+      <c r="BH232">
+        <v>3</v>
+      </c>
+      <c r="BI232">
+        <v>10</v>
+      </c>
+      <c r="BJ232">
+        <v>8</v>
+      </c>
+      <c r="BK232">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>5189158</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45171.29166666666</v>
+      </c>
+      <c r="F233">
+        <v>26</v>
+      </c>
+      <c r="G233" t="s">
+        <v>73</v>
+      </c>
+      <c r="H233" t="s">
+        <v>75</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>241</v>
+      </c>
+      <c r="P233" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q233">
+        <v>7</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>10</v>
+      </c>
+      <c r="T233">
+        <v>3.2</v>
+      </c>
+      <c r="U233">
+        <v>2.5</v>
+      </c>
+      <c r="V233">
+        <v>2.45</v>
+      </c>
+      <c r="W233">
+        <v>1.25</v>
+      </c>
+      <c r="X233">
+        <v>3.6</v>
+      </c>
+      <c r="Y233">
+        <v>2.2</v>
+      </c>
+      <c r="Z233">
+        <v>1.69</v>
+      </c>
+      <c r="AA233">
+        <v>4.33</v>
+      </c>
+      <c r="AB233">
+        <v>1.18</v>
+      </c>
+      <c r="AC233">
+        <v>2.71</v>
+      </c>
+      <c r="AD233">
+        <v>2.73</v>
+      </c>
+      <c r="AE233">
+        <v>2.68</v>
+      </c>
+      <c r="AF233">
+        <v>1.01</v>
+      </c>
+      <c r="AG233">
+        <v>11</v>
+      </c>
+      <c r="AH233">
+        <v>1.2</v>
+      </c>
+      <c r="AI233">
+        <v>4.2</v>
+      </c>
+      <c r="AJ233">
+        <v>1.67</v>
+      </c>
+      <c r="AK233">
+        <v>2.2</v>
+      </c>
+      <c r="AL233">
+        <v>1.45</v>
+      </c>
+      <c r="AM233">
+        <v>2.65</v>
+      </c>
+      <c r="AN233">
+        <v>1.73</v>
+      </c>
+      <c r="AO233">
+        <v>1.29</v>
+      </c>
+      <c r="AP233">
+        <v>1.35</v>
+      </c>
+      <c r="AQ233">
+        <v>0.85</v>
+      </c>
+      <c r="AR233">
+        <v>1.62</v>
+      </c>
+      <c r="AS233">
+        <v>1</v>
+      </c>
+      <c r="AT233">
+        <v>1.5</v>
+      </c>
+      <c r="AU233">
+        <v>1.34</v>
+      </c>
+      <c r="AV233">
+        <v>1.45</v>
+      </c>
+      <c r="AW233">
+        <v>2.79</v>
+      </c>
+      <c r="AX233">
+        <v>2.05</v>
+      </c>
+      <c r="AY233">
+        <v>8</v>
+      </c>
+      <c r="AZ233">
+        <v>1.95</v>
+      </c>
+      <c r="BA233">
+        <v>1.21</v>
+      </c>
+      <c r="BB233">
+        <v>1.6</v>
+      </c>
+      <c r="BC233">
+        <v>1.71</v>
+      </c>
+      <c r="BD233">
+        <v>2.1</v>
+      </c>
+      <c r="BE233">
+        <v>2.75</v>
+      </c>
+      <c r="BF233">
+        <v>6</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>7</v>
+      </c>
+      <c r="BI233">
+        <v>4</v>
+      </c>
+      <c r="BJ233">
+        <v>13</v>
+      </c>
+      <c r="BK233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>5189164</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F234">
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>71</v>
+      </c>
+      <c r="H234" t="s">
+        <v>69</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>2</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>242</v>
+      </c>
+      <c r="P234" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q234">
+        <v>7</v>
+      </c>
+      <c r="R234">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <v>10</v>
+      </c>
+      <c r="T234">
+        <v>2.2</v>
+      </c>
+      <c r="U234">
+        <v>2.3</v>
+      </c>
+      <c r="V234">
+        <v>5.5</v>
+      </c>
+      <c r="W234">
+        <v>1.36</v>
+      </c>
+      <c r="X234">
+        <v>3</v>
+      </c>
+      <c r="Y234">
+        <v>2.63</v>
+      </c>
+      <c r="Z234">
+        <v>1.44</v>
+      </c>
+      <c r="AA234">
+        <v>7</v>
+      </c>
+      <c r="AB234">
+        <v>1.1</v>
+      </c>
+      <c r="AC234">
+        <v>1.54</v>
+      </c>
+      <c r="AD234">
+        <v>4.24</v>
+      </c>
+      <c r="AE234">
+        <v>6.1</v>
+      </c>
+      <c r="AF234">
+        <v>1.01</v>
+      </c>
+      <c r="AG234">
+        <v>10</v>
+      </c>
+      <c r="AH234">
+        <v>1.23</v>
+      </c>
+      <c r="AI234">
+        <v>3.64</v>
+      </c>
+      <c r="AJ234">
+        <v>1.9</v>
+      </c>
+      <c r="AK234">
+        <v>1.98</v>
+      </c>
+      <c r="AL234">
+        <v>1.8</v>
+      </c>
+      <c r="AM234">
+        <v>1.95</v>
+      </c>
+      <c r="AN234">
+        <v>1.15</v>
+      </c>
+      <c r="AO234">
+        <v>1.23</v>
+      </c>
+      <c r="AP234">
+        <v>2.32</v>
+      </c>
+      <c r="AQ234">
+        <v>1.92</v>
+      </c>
+      <c r="AR234">
+        <v>0.92</v>
+      </c>
+      <c r="AS234">
+        <v>2</v>
+      </c>
+      <c r="AT234">
+        <v>0.85</v>
+      </c>
+      <c r="AU234">
+        <v>1.42</v>
+      </c>
+      <c r="AV234">
+        <v>1.21</v>
+      </c>
+      <c r="AW234">
+        <v>2.63</v>
+      </c>
+      <c r="AX234">
+        <v>1.5</v>
+      </c>
+      <c r="AY234">
+        <v>8.5</v>
+      </c>
+      <c r="AZ234">
+        <v>3</v>
+      </c>
+      <c r="BA234">
+        <v>1.25</v>
+      </c>
+      <c r="BB234">
+        <v>1.43</v>
+      </c>
+      <c r="BC234">
+        <v>1.72</v>
+      </c>
+      <c r="BD234">
+        <v>2.11</v>
+      </c>
+      <c r="BE234">
+        <v>2.63</v>
+      </c>
+      <c r="BF234">
+        <v>4</v>
+      </c>
+      <c r="BG234">
+        <v>4</v>
+      </c>
+      <c r="BH234">
+        <v>4</v>
+      </c>
+      <c r="BI234">
+        <v>3</v>
+      </c>
+      <c r="BJ234">
+        <v>8</v>
+      </c>
+      <c r="BK234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>5189159</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45172.29166666666</v>
+      </c>
+      <c r="F235">
+        <v>26</v>
+      </c>
+      <c r="G235" t="s">
+        <v>67</v>
+      </c>
+      <c r="H235" t="s">
+        <v>78</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>243</v>
+      </c>
+      <c r="P235" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q235">
+        <v>9</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>11</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
+        <v>4.5</v>
+      </c>
+      <c r="W235">
+        <v>1.5</v>
+      </c>
+      <c r="X235">
+        <v>2.5</v>
+      </c>
+      <c r="Y235">
+        <v>3.4</v>
+      </c>
+      <c r="Z235">
+        <v>1.3</v>
+      </c>
+      <c r="AA235">
+        <v>10</v>
+      </c>
+      <c r="AB235">
+        <v>1.06</v>
+      </c>
+      <c r="AC235">
+        <v>2.13</v>
+      </c>
+      <c r="AD235">
+        <v>3.37</v>
+      </c>
+      <c r="AE235">
+        <v>3.56</v>
+      </c>
+      <c r="AF235">
+        <v>1.08</v>
+      </c>
+      <c r="AG235">
+        <v>6.5</v>
+      </c>
+      <c r="AH235">
+        <v>1.42</v>
+      </c>
+      <c r="AI235">
+        <v>2.75</v>
+      </c>
+      <c r="AJ235">
+        <v>2.15</v>
+      </c>
+      <c r="AK235">
+        <v>1.7</v>
+      </c>
+      <c r="AL235">
+        <v>2.05</v>
+      </c>
+      <c r="AM235">
+        <v>1.7</v>
+      </c>
+      <c r="AN235">
+        <v>1.2</v>
+      </c>
+      <c r="AO235">
+        <v>1.25</v>
+      </c>
+      <c r="AP235">
+        <v>1.78</v>
+      </c>
+      <c r="AQ235">
+        <v>1.92</v>
+      </c>
+      <c r="AR235">
+        <v>1</v>
+      </c>
+      <c r="AS235">
+        <v>1.77</v>
+      </c>
+      <c r="AT235">
+        <v>1.15</v>
+      </c>
+      <c r="AU235">
+        <v>1.39</v>
+      </c>
+      <c r="AV235">
+        <v>1.04</v>
+      </c>
+      <c r="AW235">
+        <v>2.43</v>
+      </c>
+      <c r="AX235">
+        <v>1.62</v>
+      </c>
+      <c r="AY235">
+        <v>8</v>
+      </c>
+      <c r="AZ235">
+        <v>2.63</v>
+      </c>
+      <c r="BA235">
+        <v>1.43</v>
+      </c>
+      <c r="BB235">
+        <v>1.77</v>
+      </c>
+      <c r="BC235">
+        <v>2.2</v>
+      </c>
+      <c r="BD235">
+        <v>2.88</v>
+      </c>
+      <c r="BE235">
+        <v>4.4</v>
+      </c>
+      <c r="BF235">
+        <v>3</v>
+      </c>
+      <c r="BG235">
+        <v>7</v>
+      </c>
+      <c r="BH235">
+        <v>5</v>
+      </c>
+      <c r="BI235">
+        <v>3</v>
+      </c>
+      <c r="BJ235">
+        <v>8</v>
+      </c>
+      <c r="BK235">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1.23</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT14" t="n">
         <v>1.23</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5978,7 +5978,7 @@
         <v>1.86</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT37" t="n">
         <v>1.31</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>0.86</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT42" t="n">
         <v>1.29</v>
@@ -9632,7 +9632,7 @@
         <v>1.93</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU45" t="n">
         <v>2.41</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>1.15</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT62" t="n">
         <v>1.21</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1.31</v>
@@ -14098,7 +14098,7 @@
         <v>1.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU67" t="n">
         <v>1.01</v>
@@ -15925,7 +15925,7 @@
         <v>1.79</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU76" t="n">
         <v>1.1</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT82" t="n">
         <v>0.58</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>1.29</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT93" t="n">
         <v>1.54</v>
@@ -20188,7 +20188,7 @@
         <v>0.77</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.82</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -21406,7 +21406,7 @@
         <v>1.23</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU103" t="n">
         <v>1.24</v>
@@ -25260,7 +25260,7 @@
         <v>1.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
         <v>1.21</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT125" t="n">
         <v>1.5</v>
@@ -27699,7 +27699,7 @@
         <v>1.46</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -28914,7 +28914,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT140" t="n">
         <v>1.23</v>
@@ -29729,7 +29729,7 @@
         <v>2.31</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.58</v>
@@ -30944,7 +30944,7 @@
         <v>0.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT150" t="n">
         <v>0.71</v>
@@ -31147,7 +31147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT151" t="n">
         <v>1.43</v>
@@ -32568,7 +32568,7 @@
         <v>1.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT158" t="n">
         <v>1.57</v>
@@ -34395,7 +34395,7 @@
         <v>0.78</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT167" t="n">
         <v>0.86</v>
@@ -34601,7 +34601,7 @@
         <v>1.77</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU168" t="n">
         <v>1.42</v>
@@ -36628,7 +36628,7 @@
         <v>1.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT178" t="n">
         <v>0.86</v>
@@ -37846,10 +37846,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU184" t="n">
         <v>1.73</v>
@@ -39876,7 +39876,7 @@
         <v>2.22</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT194" t="n">
         <v>1.85</v>
@@ -40488,7 +40488,7 @@
         <v>1.38</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU197" t="n">
         <v>1.46</v>
@@ -43733,7 +43733,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT213" t="n">
         <v>0.79</v>
@@ -43939,7 +43939,7 @@
         <v>2</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU214" t="n">
         <v>1.46</v>
@@ -44545,7 +44545,7 @@
         <v>1.55</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT217" t="n">
         <v>1.54</v>
@@ -45154,7 +45154,7 @@
         <v>1.75</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT220" t="n">
         <v>1.5</v>
@@ -49675,6 +49675,412 @@
       </c>
       <c r="BK242" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5189171</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45186.27083333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>3</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['33', '38']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>7</v>
+      </c>
+      <c r="R243" t="n">
+        <v>6</v>
+      </c>
+      <c r="S243" t="n">
+        <v>13</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5189172</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45186.29166666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>9</v>
+      </c>
+      <c r="R244" t="n">
+        <v>4</v>
+      </c>
+      <c r="S244" t="n">
+        <v>13</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X244" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT4" t="n">
         <v>1.43</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1.57</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT10" t="n">
         <v>0.86</v>
@@ -2730,7 +2730,7 @@
         <v>0.77</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.69</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.86</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT17" t="n">
         <v>0.86</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT19" t="n">
         <v>0.71</v>
@@ -4557,7 +4557,7 @@
         <v>2.31</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU20" t="n">
         <v>1.93</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.71</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT29" t="n">
         <v>1.43</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -6790,7 +6790,7 @@
         <v>1.79</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.05</v>
@@ -7196,7 +7196,7 @@
         <v>1.85</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT34" t="n">
         <v>1.23</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU35" t="n">
         <v>1.14</v>
@@ -8008,7 +8008,7 @@
         <v>1.69</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU37" t="n">
         <v>2.2</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT38" t="n">
         <v>0.71</v>
@@ -9023,7 +9023,7 @@
         <v>1.69</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU42" t="n">
         <v>1.84</v>
@@ -9429,7 +9429,7 @@
         <v>1.46</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU44" t="n">
         <v>1.37</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT47" t="n">
         <v>1.43</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.85</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU49" t="n">
         <v>1.01</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT50" t="n">
         <v>1.23</v>
@@ -10850,7 +10850,7 @@
         <v>1.85</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11865,7 +11865,7 @@
         <v>2.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU56" t="n">
         <v>1.43</v>
@@ -12068,7 +12068,7 @@
         <v>1.93</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>1.79</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU59" t="n">
         <v>1.05</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT60" t="n">
         <v>0.79</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT61" t="n">
         <v>1.43</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT64" t="n">
         <v>1.57</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU65" t="n">
         <v>1.03</v>
@@ -13892,10 +13892,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU66" t="n">
         <v>1.31</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU70" t="n">
         <v>1.28</v>
@@ -15110,10 +15110,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.48</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
         <v>0.86</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT75" t="n">
         <v>1.5</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU77" t="n">
         <v>1.14</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT78" t="n">
         <v>1.57</v>
@@ -16534,7 +16534,7 @@
         <v>1.08</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU79" t="n">
         <v>1.8</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT80" t="n">
         <v>0.79</v>
@@ -17143,7 +17143,7 @@
         <v>1.69</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU82" t="n">
         <v>1.7</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU83" t="n">
         <v>1.03</v>
@@ -17549,7 +17549,7 @@
         <v>1.79</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU84" t="n">
         <v>1.07</v>
@@ -17749,7 +17749,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT85" t="n">
         <v>0.79</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT88" t="n">
         <v>0.86</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.21</v>
@@ -19376,7 +19376,7 @@
         <v>1.69</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU93" t="n">
         <v>1.88</v>
@@ -19982,7 +19982,7 @@
         <v>3</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT96" t="n">
         <v>1.85</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT100" t="n">
         <v>0.86</v>
@@ -21000,7 +21000,7 @@
         <v>1.93</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>2.02</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT103" t="n">
         <v>0.92</v>
@@ -21809,10 +21809,10 @@
         <v>0.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU105" t="n">
         <v>1.51</v>
@@ -22015,7 +22015,7 @@
         <v>1.46</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU106" t="n">
         <v>1.29</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT108" t="n">
         <v>1.21</v>
@@ -22621,10 +22621,10 @@
         <v>2.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -22827,7 +22827,7 @@
         <v>0.77</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23027,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU111" t="n">
         <v>1.2</v>
@@ -23230,10 +23230,10 @@
         <v>1.4</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23436,7 +23436,7 @@
         <v>1.86</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23839,7 +23839,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT115" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>0.77</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU120" t="n">
         <v>1.63</v>
@@ -25057,10 +25057,10 @@
         <v>2.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU121" t="n">
         <v>1.53</v>
@@ -25463,7 +25463,7 @@
         <v>2.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT123" t="n">
         <v>1.85</v>
@@ -26275,7 +26275,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT127" t="n">
         <v>0.71</v>
@@ -26884,7 +26884,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
         <v>1.43</v>
@@ -27087,7 +27087,7 @@
         <v>0.14</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT131" t="n">
         <v>0.86</v>
@@ -27293,7 +27293,7 @@
         <v>1.79</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU132" t="n">
         <v>1</v>
@@ -27496,7 +27496,7 @@
         <v>2.31</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU133" t="n">
         <v>1.45</v>
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28102,7 +28102,7 @@
         <v>1.63</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT136" t="n">
         <v>1.5</v>
@@ -28508,10 +28508,10 @@
         <v>1.86</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU138" t="n">
         <v>1.46</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -29117,10 +29117,10 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.45</v>
@@ -30135,7 +30135,7 @@
         <v>1.14</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU146" t="n">
         <v>1.27</v>
@@ -30335,7 +30335,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT147" t="n">
         <v>0.86</v>
@@ -30538,10 +30538,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU148" t="n">
         <v>1.46</v>
@@ -31353,7 +31353,7 @@
         <v>1.46</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU152" t="n">
         <v>1.62</v>
@@ -31556,7 +31556,7 @@
         <v>1.08</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU153" t="n">
         <v>1.8</v>
@@ -31756,7 +31756,7 @@
         <v>0.75</v>
       </c>
       <c r="AS154" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT154" t="n">
         <v>1</v>
@@ -31959,7 +31959,7 @@
         <v>2</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT155" t="n">
         <v>1.23</v>
@@ -32165,7 +32165,7 @@
         <v>0.77</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU156" t="n">
         <v>1.55</v>
@@ -32365,10 +32365,10 @@
         <v>0.71</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU157" t="n">
         <v>1.42</v>
@@ -33586,7 +33586,7 @@
         <v>1.79</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU163" t="n">
         <v>1.2</v>
@@ -33989,10 +33989,10 @@
         <v>1.44</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU165" t="n">
         <v>1.54</v>
@@ -34192,7 +34192,7 @@
         <v>1.44</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT166" t="n">
         <v>1.21</v>
@@ -34598,7 +34598,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT168" t="n">
         <v>0.92</v>
@@ -35004,10 +35004,10 @@
         <v>1.78</v>
       </c>
       <c r="AS170" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU170" t="n">
         <v>1.52</v>
@@ -35410,7 +35410,7 @@
         <v>2.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT172" t="n">
         <v>1.85</v>
@@ -35613,7 +35613,7 @@
         <v>1.9</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT173" t="n">
         <v>1.5</v>
@@ -36222,7 +36222,7 @@
         <v>0.6</v>
       </c>
       <c r="AS176" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT176" t="n">
         <v>0.79</v>
@@ -36428,7 +36428,7 @@
         <v>1.46</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU177" t="n">
         <v>1.53</v>
@@ -36834,7 +36834,7 @@
         <v>1.86</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU179" t="n">
         <v>1.53</v>
@@ -37037,7 +37037,7 @@
         <v>1.14</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU180" t="n">
         <v>1.18</v>
@@ -37646,7 +37646,7 @@
         <v>1.93</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU183" t="n">
         <v>1.92</v>
@@ -38049,7 +38049,7 @@
         <v>1.78</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
         <v>1.23</v>
@@ -38252,10 +38252,10 @@
         <v>1.56</v>
       </c>
       <c r="AS186" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU186" t="n">
         <v>1.49</v>
@@ -38455,7 +38455,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT187" t="n">
         <v>1.57</v>
@@ -38864,7 +38864,7 @@
         <v>0.77</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU189" t="n">
         <v>1.62</v>
@@ -39064,7 +39064,7 @@
         <v>1.45</v>
       </c>
       <c r="AS190" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT190" t="n">
         <v>1.21</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT191" t="n">
         <v>1</v>
@@ -39473,7 +39473,7 @@
         <v>0.77</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -39676,7 +39676,7 @@
         <v>1.85</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU193" t="n">
         <v>1.21</v>
@@ -40485,7 +40485,7 @@
         <v>0.5</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>0.92</v>
@@ -40894,7 +40894,7 @@
         <v>1.14</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU199" t="n">
         <v>1.22</v>
@@ -41097,7 +41097,7 @@
         <v>1.08</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU200" t="n">
         <v>1.71</v>
@@ -41297,7 +41297,7 @@
         <v>0.64</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT201" t="n">
         <v>0.79</v>
@@ -41500,10 +41500,10 @@
         <v>1.6</v>
       </c>
       <c r="AS202" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU202" t="n">
         <v>1.39</v>
@@ -41703,7 +41703,7 @@
         <v>1</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT203" t="n">
         <v>0.86</v>
@@ -42112,7 +42112,7 @@
         <v>1.86</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU205" t="n">
         <v>1.47</v>
@@ -42515,7 +42515,7 @@
         <v>1.75</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT207" t="n">
         <v>1.57</v>
@@ -43330,7 +43330,7 @@
         <v>1.85</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU211" t="n">
         <v>1.26</v>
@@ -43530,10 +43530,10 @@
         <v>1.42</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU212" t="n">
         <v>1.42</v>
@@ -43936,7 +43936,7 @@
         <v>0.73</v>
       </c>
       <c r="AS214" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT214" t="n">
         <v>0.92</v>
@@ -44548,7 +44548,7 @@
         <v>1</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU217" t="n">
         <v>1.1</v>
@@ -45357,10 +45357,10 @@
         <v>1.09</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU221" t="n">
         <v>1.43</v>
@@ -45563,7 +45563,7 @@
         <v>1.46</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AU222" t="n">
         <v>1.49</v>
@@ -45966,10 +45966,10 @@
         <v>1.18</v>
       </c>
       <c r="AS224" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU224" t="n">
         <v>1.38</v>
@@ -46169,7 +46169,7 @@
         <v>2.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT225" t="n">
         <v>1.85</v>
@@ -46778,10 +46778,10 @@
         <v>0.55</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU228" t="n">
         <v>1.44</v>
@@ -46981,7 +46981,7 @@
         <v>1.46</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT229" t="n">
         <v>1.43</v>
@@ -47390,7 +47390,7 @@
         <v>1.14</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU231" t="n">
         <v>1.24</v>
@@ -47793,7 +47793,7 @@
         <v>1.62</v>
       </c>
       <c r="AS233" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT233" t="n">
         <v>1.5</v>
@@ -47996,7 +47996,7 @@
         <v>0.92</v>
       </c>
       <c r="AS234" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT234" t="n">
         <v>0.86</v>
@@ -48199,10 +48199,10 @@
         <v>1</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU235" t="n">
         <v>1.39</v>
@@ -48608,7 +48608,7 @@
         <v>2.31</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU237" t="n">
         <v>1.63</v>
@@ -49014,7 +49014,7 @@
         <v>1.85</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU239" t="n">
         <v>1.25</v>
@@ -50081,6 +50081,1224 @@
       </c>
       <c r="BK244" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5189179</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45192.08333333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>3</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>4</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['6', '62', '90']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>5</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5189177</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45192.125</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>3</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>5</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['54', '59', '87']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['18', '32']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>1</v>
+      </c>
+      <c r="R246" t="n">
+        <v>3</v>
+      </c>
+      <c r="S246" t="n">
+        <v>4</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5189180</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45192.16666666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>2</v>
+      </c>
+      <c r="R247" t="n">
+        <v>9</v>
+      </c>
+      <c r="S247" t="n">
+        <v>11</v>
+      </c>
+      <c r="T247" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>5189176</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45192.29166666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>3</v>
+      </c>
+      <c r="N248" t="n">
+        <v>4</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['54', '56', '65']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>6</v>
+      </c>
+      <c r="R248" t="n">
+        <v>4</v>
+      </c>
+      <c r="S248" t="n">
+        <v>10</v>
+      </c>
+      <c r="T248" t="n">
+        <v>3</v>
+      </c>
+      <c r="U248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V248" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5189183</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45192.29166666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>3</v>
+      </c>
+      <c r="R249" t="n">
+        <v>5</v>
+      </c>
+      <c r="S249" t="n">
+        <v>8</v>
+      </c>
+      <c r="T249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5189181</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45192.29166666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3</v>
+      </c>
+      <c r="R250" t="n">
+        <v>7</v>
+      </c>
+      <c r="S250" t="n">
+        <v>10</v>
+      </c>
+      <c r="T250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.46</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.86</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT11" t="n">
         <v>0.54</v>
@@ -2933,7 +2933,7 @@
         <v>2.31</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT14" t="n">
         <v>1.14</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>2.07</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU29" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>1.36</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.4</v>
@@ -6993,7 +6993,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.7</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT33" t="n">
         <v>1.29</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT36" t="n">
         <v>0.86</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT37" t="n">
         <v>1.21</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT42" t="n">
         <v>1.27</v>
@@ -10038,7 +10038,7 @@
         <v>0.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU47" t="n">
         <v>1.4</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT51" t="n">
         <v>1.21</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT52" t="n">
         <v>0.86</v>
@@ -11459,7 +11459,7 @@
         <v>1.79</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -11662,7 +11662,7 @@
         <v>1.08</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>1.7</v>
@@ -12880,7 +12880,7 @@
         <v>2.07</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.7</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU68" t="n">
         <v>1.93</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
         <v>1.85</v>
@@ -15722,7 +15722,7 @@
         <v>2.07</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.32</v>
@@ -16940,7 +16940,7 @@
         <v>1.46</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU81" t="n">
         <v>1.38</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT82" t="n">
         <v>0.54</v>
@@ -18564,7 +18564,7 @@
         <v>1.86</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU89" t="n">
         <v>1.4</v>
@@ -18764,7 +18764,7 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT90" t="n">
         <v>0.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.25</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT93" t="n">
         <v>1.43</v>
@@ -19579,7 +19579,7 @@
         <v>1.14</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU94" t="n">
         <v>1.02</v>
@@ -20185,7 +20185,7 @@
         <v>0.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT97" t="n">
         <v>0.92</v>
@@ -22421,7 +22421,7 @@
         <v>1.86</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU108" t="n">
         <v>1.34</v>
@@ -22824,7 +22824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT110" t="n">
         <v>1.27</v>
@@ -23636,7 +23636,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT114" t="n">
         <v>1.23</v>
@@ -23842,7 +23842,7 @@
         <v>1.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU115" t="n">
         <v>1.35</v>
@@ -24451,7 +24451,7 @@
         <v>1.86</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU118" t="n">
         <v>1.51</v>
@@ -24651,7 +24651,7 @@
         <v>0.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT119" t="n">
         <v>0.71</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT120" t="n">
         <v>1.43</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU122" t="n">
         <v>1.14</v>
@@ -25869,10 +25869,10 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU125" t="n">
         <v>1.84</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU130" t="n">
         <v>1.33</v>
@@ -28105,7 +28105,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU136" t="n">
         <v>1.33</v>
@@ -28305,7 +28305,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT149" t="n">
         <v>0.79</v>
@@ -30944,7 +30944,7 @@
         <v>0.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT150" t="n">
         <v>0.71</v>
@@ -31150,7 +31150,7 @@
         <v>1</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU151" t="n">
         <v>1.08</v>
@@ -32162,7 +32162,7 @@
         <v>1.38</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT156" t="n">
         <v>1.14</v>
@@ -32568,7 +32568,7 @@
         <v>1.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT158" t="n">
         <v>1.57</v>
@@ -32774,7 +32774,7 @@
         <v>1.93</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU159" t="n">
         <v>2.03</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>1.6</v>
@@ -33786,7 +33786,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT164" t="n">
         <v>0.86</v>
@@ -34195,7 +34195,7 @@
         <v>2.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU166" t="n">
         <v>1.48</v>
@@ -34804,7 +34804,7 @@
         <v>1.14</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU169" t="n">
         <v>1.18</v>
@@ -35616,7 +35616,7 @@
         <v>2.07</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU173" t="n">
         <v>1.46</v>
@@ -36628,7 +36628,7 @@
         <v>1.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT178" t="n">
         <v>0.86</v>
@@ -37443,7 +37443,7 @@
         <v>2.31</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU182" t="n">
         <v>1.66</v>
@@ -37846,7 +37846,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT184" t="n">
         <v>0.92</v>
@@ -38661,7 +38661,7 @@
         <v>1.79</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU188" t="n">
         <v>1.2</v>
@@ -38861,7 +38861,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT189" t="n">
         <v>1.29</v>
@@ -39067,7 +39067,7 @@
         <v>2.07</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU190" t="n">
         <v>1.49</v>
@@ -39470,7 +39470,7 @@
         <v>1.3</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT192" t="n">
         <v>1.21</v>
@@ -39673,7 +39673,7 @@
         <v>1.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT193" t="n">
         <v>1.27</v>
@@ -40082,7 +40082,7 @@
         <v>2</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU195" t="n">
         <v>1.61</v>
@@ -42721,7 +42721,7 @@
         <v>1.93</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU208" t="n">
         <v>1.88</v>
@@ -43327,7 +43327,7 @@
         <v>1.36</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT211" t="n">
         <v>1.14</v>
@@ -43733,7 +43733,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT213" t="n">
         <v>0.79</v>
@@ -44142,7 +44142,7 @@
         <v>1.93</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU215" t="n">
         <v>1.96</v>
@@ -44748,10 +44748,10 @@
         <v>1.33</v>
       </c>
       <c r="AS218" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU218" t="n">
         <v>1.52</v>
@@ -44951,7 +44951,7 @@
         <v>1.08</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT219" t="n">
         <v>1</v>
@@ -45157,7 +45157,7 @@
         <v>1</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU220" t="n">
         <v>1.09</v>
@@ -46984,7 +46984,7 @@
         <v>1.36</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU229" t="n">
         <v>1.58</v>
@@ -47187,7 +47187,7 @@
         <v>1.79</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU230" t="n">
         <v>1.29</v>
@@ -47590,7 +47590,7 @@
         <v>1.62</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT232" t="n">
         <v>1.57</v>
@@ -47796,7 +47796,7 @@
         <v>0.93</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU233" t="n">
         <v>1.34</v>
@@ -49011,7 +49011,7 @@
         <v>1.67</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT239" t="n">
         <v>1.43</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT244" t="n">
         <v>1</v>
@@ -51299,6 +51299,615 @@
       </c>
       <c r="BK250" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>5189175</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45193.125</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['34', '50']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>6</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2</v>
+      </c>
+      <c r="S251" t="n">
+        <v>8</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5189178</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45193.16666666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>2</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['11', '39']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>10</v>
+      </c>
+      <c r="R252" t="n">
+        <v>9</v>
+      </c>
+      <c r="S252" t="n">
+        <v>19</v>
+      </c>
+      <c r="T252" t="n">
+        <v>4</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5189182</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45193.20833333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>2</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>3</v>
+      </c>
+      <c r="N253" t="n">
+        <v>4</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['29', '68', '85']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>7</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2</v>
+      </c>
+      <c r="S253" t="n">
+        <v>9</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -51363,13 +51363,13 @@
         </is>
       </c>
       <c r="Q251" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R251" t="n">
         <v>2</v>
       </c>
       <c r="S251" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T251" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ253"/>
+  <dimension ref="A1:AZ256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.6</v>
@@ -1689,7 +1689,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.53</v>
@@ -2709,7 +2709,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR18" t="n">
         <v>1.61</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.21</v>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.79</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.43</v>
@@ -6449,7 +6449,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -7296,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.57</v>
@@ -7466,10 +7466,10 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR41" t="n">
         <v>1.37</v>
@@ -7809,7 +7809,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR43" t="n">
         <v>1.25</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.43</v>
@@ -8659,7 +8659,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR48" t="n">
         <v>1.03</v>
@@ -10016,10 +10016,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR56" t="n">
         <v>1.43</v>
@@ -10359,7 +10359,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR58" t="n">
         <v>1.26</v>
@@ -12226,7 +12226,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.23</v>
@@ -12396,7 +12396,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.27</v>
@@ -12569,7 +12569,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR71" t="n">
         <v>1.16</v>
@@ -14266,7 +14266,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.53</v>
@@ -14439,7 +14439,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR82" t="n">
         <v>1.7</v>
@@ -15116,7 +15116,7 @@
         <v>2.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.23</v>
@@ -15289,7 +15289,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -16819,7 +16819,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR96" t="n">
         <v>1.51</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -17836,7 +17836,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.86</v>
@@ -18349,7 +18349,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR105" t="n">
         <v>1.51</v>
@@ -18516,7 +18516,7 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.14</v>
@@ -18686,7 +18686,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.14</v>
@@ -19369,7 +19369,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR111" t="n">
         <v>1.2</v>
@@ -20216,7 +20216,7 @@
         <v>0.17</v>
       </c>
       <c r="AP116" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.86</v>
@@ -21409,7 +21409,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -21579,7 +21579,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR124" t="n">
         <v>1.29</v>
@@ -22939,7 +22939,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR132" t="n">
         <v>1</v>
@@ -23106,7 +23106,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.29</v>
@@ -23276,7 +23276,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.92</v>
@@ -23446,7 +23446,7 @@
         <v>1.86</v>
       </c>
       <c r="AP135" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.21</v>
@@ -23789,7 +23789,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR137" t="n">
         <v>1.56</v>
@@ -24806,7 +24806,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.57</v>
@@ -24976,7 +24976,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.92</v>
@@ -25149,7 +25149,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR145" t="n">
         <v>1.14</v>
@@ -26336,7 +26336,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.21</v>
@@ -26679,7 +26679,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR154" t="n">
         <v>1.46</v>
@@ -27189,7 +27189,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR157" t="n">
         <v>1.42</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AP160" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.33</v>
@@ -27869,7 +27869,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR161" t="n">
         <v>1.51</v>
@@ -28036,7 +28036,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.79</v>
@@ -29566,7 +29566,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.79</v>
@@ -29739,7 +29739,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR172" t="n">
         <v>1.54</v>
@@ -30246,7 +30246,7 @@
         <v>0.6</v>
       </c>
       <c r="AP175" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.71</v>
@@ -30586,10 +30586,10 @@
         <v>0.63</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR177" t="n">
         <v>1.53</v>
@@ -31269,7 +31269,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -31436,7 +31436,7 @@
         <v>1.3</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.33</v>
@@ -31609,7 +31609,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR183" t="n">
         <v>1.92</v>
@@ -32969,7 +32969,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR191" t="n">
         <v>1.48</v>
@@ -33479,7 +33479,7 @@
         <v>1</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR194" t="n">
         <v>1.11</v>
@@ -33646,7 +33646,7 @@
         <v>1.82</v>
       </c>
       <c r="AP195" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.6</v>
@@ -33816,7 +33816,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.86</v>
@@ -35176,10 +35176,10 @@
         <v>2</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -35349,7 +35349,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR205" t="n">
         <v>1.47</v>
@@ -35516,7 +35516,7 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.86</v>
@@ -36029,7 +36029,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR209" t="n">
         <v>1.44</v>
@@ -36196,7 +36196,7 @@
         <v>1.6</v>
       </c>
       <c r="AP210" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.23</v>
@@ -37216,7 +37216,7 @@
         <v>0.83</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.71</v>
@@ -37729,7 +37729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR219" t="n">
         <v>1.25</v>
@@ -38236,7 +38236,7 @@
         <v>1.31</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.27</v>
@@ -38749,7 +38749,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR225" t="n">
         <v>1.38</v>
@@ -39259,7 +39259,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR228" t="n">
         <v>1.44</v>
@@ -40616,7 +40616,7 @@
         <v>0.77</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.71</v>
@@ -40786,7 +40786,7 @@
         <v>1.25</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.14</v>
@@ -40956,7 +40956,7 @@
         <v>0.85</v>
       </c>
       <c r="AP238" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ238" t="n">
         <v>0.86</v>
@@ -41639,7 +41639,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR242" t="n">
         <v>1.97</v>
@@ -41979,7 +41979,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR244" t="n">
         <v>1.65</v>
@@ -42149,7 +42149,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AR245" t="n">
         <v>1.55</v>
@@ -43536,6 +43536,516 @@
         <v>13</v>
       </c>
       <c r="AZ253" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5189187</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45198.29166666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>29</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2</v>
+      </c>
+      <c r="M254" t="n">
+        <v>3</v>
+      </c>
+      <c r="N254" t="n">
+        <v>5</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['23', '76']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['30', '59', '80']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S254" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V254" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X254" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5189188</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45198.29166666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>29</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>2</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['23', '42']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S255" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U255" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V255" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X255" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5189185</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45198.3125</v>
+      </c>
+      <c r="F256" t="n">
+        <v>29</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S256" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V256" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ256" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ256"/>
+  <dimension ref="A1:AZ261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.27</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.13</v>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.93</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.43</v>
@@ -3389,7 +3389,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.13</v>
@@ -4069,7 +4069,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR21" t="n">
         <v>1.61</v>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR22" t="n">
         <v>1.4</v>
@@ -5086,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR27" t="n">
         <v>1.71</v>
@@ -5256,10 +5256,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1.23</v>
       </c>
       <c r="AR28" t="n">
         <v>1.2</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.14</v>
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.6</v>
@@ -6279,7 +6279,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR34" t="n">
         <v>1.15</v>
@@ -6619,7 +6619,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR36" t="n">
         <v>2.48</v>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR39" t="n">
         <v>0.96</v>
@@ -7299,7 +7299,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -7806,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.93</v>
@@ -8146,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR45" t="n">
         <v>2.41</v>
@@ -8316,10 +8316,10 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -8999,7 +8999,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR50" t="n">
         <v>1.26</v>
@@ -9506,7 +9506,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.71</v>
@@ -9676,7 +9676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.6</v>
@@ -9846,7 +9846,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.33</v>
@@ -10186,7 +10186,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.14</v>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.27</v>
@@ -10699,7 +10699,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR60" t="n">
         <v>1.47</v>
@@ -11206,10 +11206,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR63" t="n">
         <v>1.41</v>
@@ -11379,7 +11379,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR64" t="n">
         <v>1.3</v>
@@ -11886,10 +11886,10 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR67" t="n">
         <v>1.01</v>
@@ -12229,7 +12229,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -13076,7 +13076,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.71</v>
@@ -13416,10 +13416,10 @@
         <v>0.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -13759,7 +13759,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR78" t="n">
         <v>1.26</v>
@@ -13926,7 +13926,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.29</v>
@@ -14099,7 +14099,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR80" t="n">
         <v>1.44</v>
@@ -14776,7 +14776,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.21</v>
@@ -14949,7 +14949,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR85" t="n">
         <v>1.42</v>
@@ -15119,7 +15119,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -15459,7 +15459,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR88" t="n">
         <v>1.19</v>
@@ -15626,7 +15626,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.33</v>
@@ -15966,10 +15966,10 @@
         <v>1.8</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR91" t="n">
         <v>1.68</v>
@@ -16476,7 +16476,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.6</v>
@@ -16646,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.71</v>
@@ -16989,7 +16989,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR97" t="n">
         <v>1.82</v>
@@ -17326,7 +17326,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.71</v>
@@ -17666,7 +17666,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.29</v>
@@ -17839,7 +17839,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR102" t="n">
         <v>1.36</v>
@@ -18009,7 +18009,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR103" t="n">
         <v>1.24</v>
@@ -18176,10 +18176,10 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR104" t="n">
         <v>1.03</v>
@@ -19706,7 +19706,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.14</v>
@@ -19879,7 +19879,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR114" t="n">
         <v>1.16</v>
@@ -20386,10 +20386,10 @@
         <v>1.17</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR117" t="n">
         <v>1.79</v>
@@ -20556,7 +20556,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.53</v>
@@ -21576,7 +21576,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.13</v>
@@ -21916,10 +21916,10 @@
         <v>1.86</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR126" t="n">
         <v>1.76</v>
@@ -22256,10 +22256,10 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -22426,10 +22426,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR129" t="n">
         <v>1.26</v>
@@ -22936,7 +22936,7 @@
         <v>0.83</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.57</v>
@@ -23279,7 +23279,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR134" t="n">
         <v>1.47</v>
@@ -24126,7 +24126,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.86</v>
@@ -24636,10 +24636,10 @@
         <v>1</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR142" t="n">
         <v>2.04</v>
@@ -24809,7 +24809,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR143" t="n">
         <v>1.7</v>
@@ -24979,7 +24979,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR144" t="n">
         <v>1.58</v>
@@ -25146,7 +25146,7 @@
         <v>2.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.93</v>
@@ -25316,7 +25316,7 @@
         <v>1.88</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.27</v>
@@ -25489,7 +25489,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR147" t="n">
         <v>1.53</v>
@@ -25829,7 +25829,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR149" t="n">
         <v>1.2</v>
@@ -26506,7 +26506,7 @@
         <v>1.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.43</v>
@@ -26849,7 +26849,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -27359,7 +27359,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR158" t="n">
         <v>1.87</v>
@@ -27526,7 +27526,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.6</v>
@@ -27866,7 +27866,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.93</v>
@@ -28039,7 +28039,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR162" t="n">
         <v>1.58</v>
@@ -28206,7 +28206,7 @@
         <v>0.38</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.29</v>
@@ -28379,7 +28379,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR164" t="n">
         <v>1.17</v>
@@ -29059,7 +29059,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR168" t="n">
         <v>1.42</v>
@@ -29226,7 +29226,7 @@
         <v>1.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.53</v>
@@ -29569,7 +29569,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR171" t="n">
         <v>1.55</v>
@@ -30076,10 +30076,10 @@
         <v>1.7</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR174" t="n">
         <v>1.97</v>
@@ -30419,7 +30419,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR176" t="n">
         <v>1.43</v>
@@ -30759,7 +30759,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR178" t="n">
         <v>1.81</v>
@@ -30926,7 +30926,7 @@
         <v>1.7</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.27</v>
@@ -31096,7 +31096,7 @@
         <v>1.78</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.43</v>
@@ -31266,7 +31266,7 @@
         <v>0.78</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.13</v>
@@ -31606,7 +31606,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.57</v>
@@ -31779,7 +31779,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR184" t="n">
         <v>1.73</v>
@@ -31949,7 +31949,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -32289,7 +32289,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR187" t="n">
         <v>1.42</v>
@@ -32456,7 +32456,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.53</v>
@@ -33989,7 +33989,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR197" t="n">
         <v>1.46</v>
@@ -34156,7 +34156,7 @@
         <v>0.64</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.71</v>
@@ -34326,7 +34326,7 @@
         <v>0.9</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.29</v>
@@ -34496,7 +34496,7 @@
         <v>1.4</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.14</v>
@@ -34669,7 +34669,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR201" t="n">
         <v>1.54</v>
@@ -35009,7 +35009,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR203" t="n">
         <v>1.36</v>
@@ -35346,7 +35346,7 @@
         <v>0.6</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.57</v>
@@ -35689,7 +35689,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR207" t="n">
         <v>1.47</v>
@@ -35856,7 +35856,7 @@
         <v>1.45</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.53</v>
@@ -36026,7 +36026,7 @@
         <v>0.91</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.13</v>
@@ -36199,7 +36199,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR210" t="n">
         <v>1.64</v>
@@ -36709,7 +36709,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ213" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR213" t="n">
         <v>1.65</v>
@@ -36879,7 +36879,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR214" t="n">
         <v>1.46</v>
@@ -37046,7 +37046,7 @@
         <v>1.42</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.33</v>
@@ -38406,7 +38406,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.86</v>
@@ -38916,10 +38916,10 @@
         <v>1.45</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR226" t="n">
         <v>1.29</v>
@@ -39086,7 +39086,7 @@
         <v>0.92</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.86</v>
@@ -39596,7 +39596,7 @@
         <v>1.31</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.33</v>
@@ -39766,7 +39766,7 @@
         <v>1.17</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.21</v>
@@ -39939,7 +39939,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR232" t="n">
         <v>1.47</v>
@@ -40279,7 +40279,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR234" t="n">
         <v>1.42</v>
@@ -40959,7 +40959,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR238" t="n">
         <v>1.61</v>
@@ -41296,10 +41296,10 @@
         <v>0.62</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR240" t="n">
         <v>1.76</v>
@@ -41466,10 +41466,10 @@
         <v>1.33</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR241" t="n">
         <v>1.42</v>
@@ -41636,7 +41636,7 @@
         <v>2</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.93</v>
@@ -41809,7 +41809,7 @@
         <v>1</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR243" t="n">
         <v>1.13</v>
@@ -44047,6 +44047,856 @@
       </c>
       <c r="AZ256" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>5189184</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45199.04166666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>29</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>2</v>
+      </c>
+      <c r="K257" t="n">
+        <v>2</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>3</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['21', '38']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S257" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V257" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X257" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5189191</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45199.125</v>
+      </c>
+      <c r="F258" t="n">
+        <v>29</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R258" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S258" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V258" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X258" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5189189</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45199.25</v>
+      </c>
+      <c r="F259" t="n">
+        <v>29</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>2</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['79', '87']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V259" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X259" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5189190</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45199.29166666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>29</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>3</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>4</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['72', '81', '85']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S260" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V260" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X260" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5189192</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45199.29166666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>29</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>3</v>
+      </c>
+      <c r="M261" t="n">
+        <v>2</v>
+      </c>
+      <c r="N261" t="n">
+        <v>5</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['9', '90+9', '90+11']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['32', '60']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R261" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U261" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X261" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ261"/>
+  <dimension ref="A1:AZ262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.53</v>
@@ -2199,7 +2199,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR25" t="n">
         <v>1.22</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.57</v>
@@ -9339,7 +9339,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR52" t="n">
         <v>2.13</v>
@@ -10696,7 +10696,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.93</v>
@@ -12736,7 +12736,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.43</v>
@@ -12909,7 +12909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR73" t="n">
         <v>1.01</v>
@@ -15286,7 +15286,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.13</v>
@@ -15799,7 +15799,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR90" t="n">
         <v>1.08</v>
@@ -17499,7 +17499,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -18856,7 +18856,7 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.33</v>
@@ -20219,7 +20219,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR116" t="n">
         <v>1.52</v>
@@ -22769,7 +22769,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR131" t="n">
         <v>1.39</v>
@@ -23616,7 +23616,7 @@
         <v>1.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.6</v>
@@ -24129,7 +24129,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR139" t="n">
         <v>1.51</v>
@@ -26846,7 +26846,7 @@
         <v>2</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.14</v>
@@ -28889,7 +28889,7 @@
         <v>1</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR167" t="n">
         <v>1.07</v>
@@ -29056,7 +29056,7 @@
         <v>0.63</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.07</v>
@@ -32286,7 +32286,7 @@
         <v>1.64</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.53</v>
@@ -33819,7 +33819,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR196" t="n">
         <v>1.55</v>
@@ -35006,7 +35006,7 @@
         <v>1</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.8</v>
@@ -35519,7 +35519,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR206" t="n">
         <v>1.64</v>
@@ -38409,7 +38409,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -38746,7 +38746,7 @@
         <v>2.09</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.93</v>
@@ -39089,7 +39089,7 @@
         <v>1</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR227" t="n">
         <v>1.71</v>
@@ -40446,7 +40446,7 @@
         <v>1</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.29</v>
@@ -42316,7 +42316,7 @@
         <v>1.23</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.14</v>
@@ -44896,6 +44896,176 @@
         <v>17</v>
       </c>
       <c r="AZ261" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5189186</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45200.125</v>
+      </c>
+      <c r="F262" t="n">
+        <v>29</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" t="n">
+        <v>3</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['37', '43', '78']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V262" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X262" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ262" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.6</v>
@@ -2227,7 +2227,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.93</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.43</v>
@@ -6369,7 +6369,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.71</v>
@@ -7677,7 +7677,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.05</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.13</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.43</v>
@@ -10293,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>2.41</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.01</v>
@@ -14871,7 +14871,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR66" t="n">
         <v>1.31</v>
@@ -15089,7 +15089,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.01</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.14</v>
@@ -15740,7 +15740,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.27</v>
@@ -17051,7 +17051,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>1.1</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR79" t="n">
         <v>1.8</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.53</v>
@@ -21629,7 +21629,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.82</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR101" t="n">
         <v>2.02</v>
@@ -22937,7 +22937,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.24</v>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.14</v>
@@ -23806,7 +23806,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.14</v>
@@ -25768,7 +25768,7 @@
         <v>0.17</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.8</v>
@@ -29477,7 +29477,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR133" t="n">
         <v>1.45</v>
@@ -29692,10 +29692,10 @@
         <v>0.83</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR134" t="n">
         <v>1.47</v>
@@ -29910,7 +29910,7 @@
         <v>1.86</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.21</v>
@@ -31654,7 +31654,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.53</v>
@@ -31875,7 +31875,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR144" t="n">
         <v>1.58</v>
@@ -32747,7 +32747,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -33616,7 +33616,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.21</v>
@@ -35360,7 +35360,7 @@
         <v>1.5</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.33</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.93</v>
@@ -36017,7 +36017,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -37107,7 +37107,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR168" t="n">
         <v>1.42</v>
@@ -38630,7 +38630,7 @@
         <v>0.6</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.71</v>
@@ -39066,7 +39066,7 @@
         <v>0.63</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.57</v>
@@ -40595,7 +40595,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR184" t="n">
         <v>1.73</v>
@@ -41685,7 +41685,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR189" t="n">
         <v>1.62</v>
@@ -42990,7 +42990,7 @@
         <v>1.82</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.6</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.8</v>
@@ -43429,7 +43429,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR197" t="n">
         <v>1.46</v>
@@ -43865,7 +43865,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44952,7 +44952,7 @@
         <v>2</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.93</v>
@@ -46260,7 +46260,7 @@
         <v>1.6</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.14</v>
@@ -47135,7 +47135,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR214" t="n">
         <v>1.46</v>
@@ -48661,7 +48661,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR221" t="n">
         <v>1.43</v>
@@ -48876,7 +48876,7 @@
         <v>1.31</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.27</v>
@@ -51713,7 +51713,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR235" t="n">
         <v>1.39</v>
@@ -51928,7 +51928,7 @@
         <v>0.77</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.71</v>
@@ -52364,7 +52364,7 @@
         <v>0.85</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ238" t="n">
         <v>0.8</v>
@@ -53457,7 +53457,7 @@
         <v>1</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR243" t="n">
         <v>1.13</v>
@@ -54547,7 +54547,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR248" t="n">
         <v>1.35</v>
@@ -55852,7 +55852,7 @@
         <v>1</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.13</v>
@@ -56288,7 +56288,7 @@
         <v>0.54</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.57</v>
@@ -56509,7 +56509,7 @@
         <v>1</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR257" t="n">
         <v>1.81</v>
@@ -57675,6 +57675,442 @@
       </c>
       <c r="BP262" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5189194</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45219.29166666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" t="n">
+        <v>4</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2</v>
+      </c>
+      <c r="N263" t="n">
+        <v>6</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['20', '84', '90+2', '90+6']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['24', '66']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V263" t="n">
+        <v>3</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X263" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5189193</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45219.3125</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>2</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['53', '57']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S264" t="n">
+        <v>5</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X264" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP264"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.2</v>
@@ -2445,7 +2445,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.53</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.13</v>
@@ -4625,7 +4625,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR19" t="n">
         <v>1.53</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.21</v>
@@ -5061,7 +5061,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR21" t="n">
         <v>1.61</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR22" t="n">
         <v>1.4</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.8</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR28" t="n">
         <v>1.2</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.53</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.33</v>
@@ -7241,7 +7241,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR31" t="n">
         <v>1.05</v>
@@ -7895,7 +7895,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR34" t="n">
         <v>1.15</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.21</v>
@@ -8767,7 +8767,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR38" t="n">
         <v>2.05</v>
@@ -8982,7 +8982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.8</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR42" t="n">
         <v>1.84</v>
@@ -10075,7 +10075,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.37</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -10944,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.93</v>
@@ -11162,7 +11162,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.2</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR50" t="n">
         <v>1.26</v>
@@ -12037,7 +12037,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR53" t="n">
         <v>0.95</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.57</v>
@@ -12906,10 +12906,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR57" t="n">
         <v>2.14</v>
@@ -13124,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.13</v>
@@ -13345,7 +13345,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR59" t="n">
         <v>1.05</v>
@@ -13563,7 +13563,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR60" t="n">
         <v>1.47</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -14435,7 +14435,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR64" t="n">
         <v>1.3</v>
@@ -14650,7 +14650,7 @@
         <v>2.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.21</v>
@@ -14868,7 +14868,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.2</v>
@@ -15525,7 +15525,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR70" t="n">
         <v>1.28</v>
@@ -16179,7 +16179,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR72" t="n">
         <v>1.48</v>
@@ -16394,7 +16394,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.8</v>
@@ -16612,10 +16612,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74" t="n">
         <v>2.14</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.6</v>
@@ -17266,10 +17266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,10 +17484,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR78" t="n">
         <v>1.26</v>
@@ -17923,7 +17923,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR80" t="n">
         <v>1.44</v>
@@ -18356,7 +18356,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.57</v>
@@ -18574,10 +18574,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR83" t="n">
         <v>1.03</v>
@@ -19010,10 +19010,10 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR85" t="n">
         <v>1.42</v>
@@ -19228,10 +19228,10 @@
         <v>2.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR91" t="n">
         <v>1.68</v>
@@ -20536,7 +20536,7 @@
         <v>1.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -20754,10 +20754,10 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR93" t="n">
         <v>1.88</v>
@@ -21193,7 +21193,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR95" t="n">
         <v>1.33</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.13</v>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22498,7 +22498,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.2</v>
@@ -22716,7 +22716,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.8</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR104" t="n">
         <v>1.03</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.57</v>
@@ -23591,7 +23591,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR106" t="n">
         <v>1.29</v>
@@ -23809,7 +23809,7 @@
         <v>2</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR107" t="n">
         <v>1.29</v>
@@ -24242,7 +24242,7 @@
         <v>2.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.21</v>
@@ -24463,7 +24463,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -24896,10 +24896,10 @@
         <v>1.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR112" t="n">
         <v>1.25</v>
@@ -25117,7 +25117,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR113" t="n">
         <v>1.41</v>
@@ -25335,7 +25335,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR114" t="n">
         <v>1.16</v>
@@ -25550,7 +25550,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.6</v>
@@ -26425,7 +26425,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR119" t="n">
         <v>1.21</v>
@@ -26643,7 +26643,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR120" t="n">
         <v>1.63</v>
@@ -27076,7 +27076,7 @@
         <v>1.71</v>
       </c>
       <c r="AP122" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.33</v>
@@ -27730,7 +27730,7 @@
         <v>1.43</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.6</v>
@@ -27951,7 +27951,7 @@
         <v>1</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR126" t="n">
         <v>1.76</v>
@@ -28166,10 +28166,10 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR127" t="n">
         <v>1.52</v>
@@ -28384,10 +28384,10 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -28605,7 +28605,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR129" t="n">
         <v>1.26</v>
@@ -28820,7 +28820,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.53</v>
@@ -29038,7 +29038,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.8</v>
@@ -29474,7 +29474,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.2</v>
@@ -30567,7 +30567,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR138" t="n">
         <v>1.46</v>
@@ -31000,10 +31000,10 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR140" t="n">
         <v>1.12</v>
@@ -31221,7 +31221,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR141" t="n">
         <v>1.45</v>
@@ -31436,7 +31436,7 @@
         <v>1</v>
       </c>
       <c r="AP142" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.8</v>
@@ -31657,7 +31657,7 @@
         <v>2</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR143" t="n">
         <v>1.7</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR146" t="n">
         <v>1.27</v>
@@ -32526,7 +32526,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.8</v>
@@ -32965,7 +32965,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR149" t="n">
         <v>1.2</v>
@@ -33180,10 +33180,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR150" t="n">
         <v>1.85</v>
@@ -33398,7 +33398,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.53</v>
@@ -33837,7 +33837,7 @@
         <v>1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR153" t="n">
         <v>1.8</v>
@@ -34273,7 +34273,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34491,7 +34491,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR156" t="n">
         <v>1.55</v>
@@ -34706,7 +34706,7 @@
         <v>0.71</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.57</v>
@@ -34924,10 +34924,10 @@
         <v>1.89</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR158" t="n">
         <v>1.87</v>
@@ -35142,7 +35142,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.6</v>
@@ -35799,7 +35799,7 @@
         <v>2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR162" t="n">
         <v>1.58</v>
@@ -36450,7 +36450,7 @@
         <v>1.44</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.21</v>
@@ -36886,7 +36886,7 @@
         <v>0.78</v>
       </c>
       <c r="AP167" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.8</v>
@@ -37540,10 +37540,10 @@
         <v>1.78</v>
       </c>
       <c r="AP170" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR170" t="n">
         <v>1.52</v>
@@ -37758,10 +37758,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR171" t="n">
         <v>1.55</v>
@@ -37976,7 +37976,7 @@
         <v>2.13</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.93</v>
@@ -38412,10 +38412,10 @@
         <v>1.7</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR174" t="n">
         <v>1.97</v>
@@ -38633,7 +38633,7 @@
         <v>2</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR175" t="n">
         <v>1.66</v>
@@ -38851,7 +38851,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR176" t="n">
         <v>1.43</v>
@@ -39284,7 +39284,7 @@
         <v>1.1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.8</v>
@@ -39505,7 +39505,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR179" t="n">
         <v>1.53</v>
@@ -39723,7 +39723,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR180" t="n">
         <v>1.18</v>
@@ -40156,7 +40156,7 @@
         <v>1.3</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.33</v>
@@ -40374,7 +40374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.57</v>
@@ -40592,7 +40592,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -40810,10 +40810,10 @@
         <v>1.78</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41028,10 +41028,10 @@
         <v>1.56</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR186" t="n">
         <v>1.49</v>
@@ -41249,7 +41249,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR187" t="n">
         <v>1.42</v>
@@ -41900,7 +41900,7 @@
         <v>1.45</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.33</v>
@@ -42557,7 +42557,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR193" t="n">
         <v>1.21</v>
@@ -42772,7 +42772,7 @@
         <v>2.22</v>
       </c>
       <c r="AP194" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.93</v>
@@ -43426,7 +43426,7 @@
         <v>0.5</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43647,7 +43647,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR198" t="n">
         <v>1.23</v>
@@ -44083,7 +44083,7 @@
         <v>1</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR200" t="n">
         <v>1.71</v>
@@ -44298,10 +44298,10 @@
         <v>0.64</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR201" t="n">
         <v>1.54</v>
@@ -44519,7 +44519,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR202" t="n">
         <v>1.39</v>
@@ -45388,7 +45388,7 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.8</v>
@@ -45609,7 +45609,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR207" t="n">
         <v>1.47</v>
@@ -45824,7 +45824,7 @@
         <v>1.45</v>
       </c>
       <c r="AP208" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.53</v>
@@ -46263,7 +46263,7 @@
         <v>2</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR210" t="n">
         <v>1.64</v>
@@ -46481,7 +46481,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR211" t="n">
         <v>1.26</v>
@@ -46696,10 +46696,10 @@
         <v>1.42</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR212" t="n">
         <v>1.42</v>
@@ -46914,10 +46914,10 @@
         <v>0.67</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ213" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR213" t="n">
         <v>1.65</v>
@@ -47132,7 +47132,7 @@
         <v>0.73</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -47350,7 +47350,7 @@
         <v>1.42</v>
       </c>
       <c r="AP215" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.33</v>
@@ -47568,10 +47568,10 @@
         <v>0.83</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR216" t="n">
         <v>1.62</v>
@@ -47786,10 +47786,10 @@
         <v>1.55</v>
       </c>
       <c r="AP217" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR217" t="n">
         <v>1.1</v>
@@ -48440,7 +48440,7 @@
         <v>1.75</v>
       </c>
       <c r="AP220" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.6</v>
@@ -48658,7 +48658,7 @@
         <v>1.09</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.2</v>
@@ -48879,7 +48879,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR222" t="n">
         <v>1.49</v>
@@ -49751,7 +49751,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR226" t="n">
         <v>1.29</v>
@@ -50402,7 +50402,7 @@
         <v>1.46</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.53</v>
@@ -51059,7 +51059,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR232" t="n">
         <v>1.47</v>
@@ -51492,7 +51492,7 @@
         <v>0.92</v>
       </c>
       <c r="AP234" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ234" t="n">
         <v>0.8</v>
@@ -51931,7 +51931,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR236" t="n">
         <v>1.5</v>
@@ -52146,10 +52146,10 @@
         <v>1.25</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR237" t="n">
         <v>1.63</v>
@@ -52585,7 +52585,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR239" t="n">
         <v>1.25</v>
@@ -52803,7 +52803,7 @@
         <v>1</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR240" t="n">
         <v>1.76</v>
@@ -53021,7 +53021,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR241" t="n">
         <v>1.42</v>
@@ -53236,7 +53236,7 @@
         <v>2</v>
       </c>
       <c r="AP242" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.93</v>
@@ -53454,7 +53454,7 @@
         <v>0.75</v>
       </c>
       <c r="AP243" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -53672,7 +53672,7 @@
         <v>1</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ244" t="n">
         <v>1.13</v>
@@ -53890,7 +53890,7 @@
         <v>0.58</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.57</v>
@@ -54111,7 +54111,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR246" t="n">
         <v>1.37</v>
@@ -54329,7 +54329,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR247" t="n">
         <v>1.4</v>
@@ -54762,10 +54762,10 @@
         <v>1.54</v>
       </c>
       <c r="AP249" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR249" t="n">
         <v>1.4</v>
@@ -54980,7 +54980,7 @@
         <v>1.31</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ250" t="n">
         <v>1.21</v>
@@ -55634,7 +55634,7 @@
         <v>1.43</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.53</v>
@@ -56070,7 +56070,7 @@
         <v>1.85</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.93</v>
@@ -56727,7 +56727,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR258" t="n">
         <v>1.41</v>
@@ -56945,7 +56945,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR259" t="n">
         <v>1.29</v>
@@ -57160,10 +57160,10 @@
         <v>1.23</v>
       </c>
       <c r="AP260" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR260" t="n">
         <v>1.94</v>
@@ -58111,6 +58111,1532 @@
       </c>
       <c r="BP264" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5189197</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45220.04166666666</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>2</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>2</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S265" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X265" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP265" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5189196</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45220.08333333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S266" t="n">
+        <v>3</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U266" t="n">
+        <v>3</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X266" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL266" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN266" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP266" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5189195</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45220.08333333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>30</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>4</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="n">
+        <v>5</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['19', '84', '90+1', '90+6']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R267" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U267" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V267" t="n">
+        <v>2</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X267" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL267" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN267" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP267" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5189199</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45220.08333333334</v>
+      </c>
+      <c r="F268" t="n">
+        <v>30</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X268" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP268" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5189200</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45220.08333333334</v>
+      </c>
+      <c r="F269" t="n">
+        <v>30</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>4</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['16', '44', '83']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S269" t="n">
+        <v>4</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X269" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL269" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN269" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO269" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP269" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5189198</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45220.125</v>
+      </c>
+      <c r="F270" t="n">
+        <v>30</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S270" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V270" t="n">
+        <v>3</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X270" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO270" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP270" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5189201</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45220.16666666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R271" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S271" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X271" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO271" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP271" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.8</v>
@@ -8764,7 +8764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.67</v>
@@ -13778,7 +13778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.53</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.06</v>
@@ -21408,7 +21408,7 @@
         <v>3</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.93</v>
@@ -22280,7 +22280,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.8</v>
@@ -26858,7 +26858,7 @@
         <v>2.17</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.21</v>
@@ -30564,7 +30564,7 @@
         <v>1.86</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.4</v>
@@ -32744,7 +32744,7 @@
         <v>0.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.2</v>
@@ -36668,7 +36668,7 @@
         <v>1.44</v>
       </c>
       <c r="AP166" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.33</v>
@@ -38194,7 +38194,7 @@
         <v>1.9</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.6</v>
@@ -42118,7 +42118,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.13</v>
@@ -45606,7 +45606,7 @@
         <v>1.75</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.44</v>
@@ -50184,7 +50184,7 @@
         <v>0.55</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ228" t="n">
         <v>0.57</v>
@@ -54326,7 +54326,7 @@
         <v>1.29</v>
       </c>
       <c r="AP247" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.19</v>
@@ -59637,6 +59637,224 @@
       </c>
       <c r="BP271" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5189207</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45226.29166666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>31</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S272" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V272" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X272" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL272" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP272" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.44</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.4</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.33</v>
@@ -4407,7 +4407,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>1.61</v>
@@ -4843,7 +4843,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.93</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.67</v>
@@ -5933,7 +5933,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR25" t="n">
         <v>1.22</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.13</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR32" t="n">
         <v>1.7</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.2</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.8</v>
@@ -8549,7 +8549,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR37" t="n">
         <v>2.2</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR41" t="n">
         <v>1.37</v>
@@ -9857,7 +9857,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR43" t="n">
         <v>1.25</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.06</v>
@@ -10729,7 +10729,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -10944,10 +10944,10 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR48" t="n">
         <v>1.03</v>
@@ -11598,10 +11598,10 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR51" t="n">
         <v>1.11</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR52" t="n">
         <v>2.13</v>
@@ -12252,10 +12252,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR54" t="n">
         <v>1.08</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.33</v>
@@ -12691,7 +12691,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR56" t="n">
         <v>1.43</v>
@@ -13127,7 +13127,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR58" t="n">
         <v>1.26</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.19</v>
@@ -13560,7 +13560,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.06</v>
@@ -13781,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.47</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.8</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR65" t="n">
         <v>1.03</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR68" t="n">
         <v>1.93</v>
@@ -15958,10 +15958,10 @@
         <v>3</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR71" t="n">
         <v>1.16</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.4</v>
@@ -16394,10 +16394,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR73" t="n">
         <v>1.01</v>
@@ -16833,7 +16833,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR75" t="n">
         <v>1.32</v>
@@ -17048,7 +17048,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.13</v>
@@ -17702,7 +17702,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -18141,7 +18141,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.38</v>
@@ -18359,7 +18359,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR82" t="n">
         <v>1.7</v>
@@ -18792,10 +18792,10 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR84" t="n">
         <v>1.07</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19882,7 +19882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.33</v>
@@ -20100,10 +20100,10 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR90" t="n">
         <v>1.08</v>
@@ -20318,7 +20318,7 @@
         <v>1.8</v>
       </c>
       <c r="AP91" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.44</v>
@@ -20536,7 +20536,7 @@
         <v>1.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -20975,7 +20975,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR94" t="n">
         <v>1.02</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.67</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR96" t="n">
         <v>1.51</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -21847,7 +21847,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -22062,7 +22062,7 @@
         <v>0.83</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.67</v>
@@ -22283,7 +22283,7 @@
         <v>2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -23152,7 +23152,7 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.44</v>
@@ -23373,7 +23373,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR105" t="n">
         <v>1.51</v>
@@ -24024,7 +24024,7 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.33</v>
@@ -24245,7 +24245,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR109" t="n">
         <v>1.54</v>
@@ -24460,7 +24460,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.19</v>
@@ -24681,7 +24681,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR111" t="n">
         <v>1.2</v>
@@ -24896,7 +24896,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.4</v>
@@ -25114,7 +25114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.13</v>
@@ -25332,7 +25332,7 @@
         <v>2.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.27</v>
@@ -25553,7 +25553,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR115" t="n">
         <v>1.35</v>
@@ -25771,7 +25771,7 @@
         <v>2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR116" t="n">
         <v>1.52</v>
@@ -25986,7 +25986,7 @@
         <v>1.17</v>
       </c>
       <c r="AP117" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.8</v>
@@ -26204,10 +26204,10 @@
         <v>1.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR118" t="n">
         <v>1.51</v>
@@ -26422,7 +26422,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.67</v>
@@ -26640,7 +26640,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.4</v>
@@ -26861,7 +26861,7 @@
         <v>2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR121" t="n">
         <v>1.53</v>
@@ -27297,7 +27297,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -27515,7 +27515,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR124" t="n">
         <v>1.29</v>
@@ -27733,7 +27733,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR125" t="n">
         <v>1.84</v>
@@ -27948,7 +27948,7 @@
         <v>1.86</v>
       </c>
       <c r="AP126" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.27</v>
@@ -28820,10 +28820,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR130" t="n">
         <v>1.33</v>
@@ -29041,7 +29041,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR131" t="n">
         <v>1.39</v>
@@ -29256,10 +29256,10 @@
         <v>0.83</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR132" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>2</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR135" t="n">
         <v>1.66</v>
@@ -30128,10 +30128,10 @@
         <v>1.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR136" t="n">
         <v>1.33</v>
@@ -30346,10 +30346,10 @@
         <v>0.71</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR137" t="n">
         <v>1.56</v>
@@ -30782,10 +30782,10 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR139" t="n">
         <v>1.51</v>
@@ -32090,10 +32090,10 @@
         <v>2.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR145" t="n">
         <v>1.14</v>
@@ -32962,7 +32962,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.06</v>
@@ -33401,7 +33401,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR151" t="n">
         <v>1.08</v>
@@ -33619,7 +33619,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR152" t="n">
         <v>1.62</v>
@@ -33834,7 +33834,7 @@
         <v>1.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.4</v>
@@ -34055,7 +34055,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR154" t="n">
         <v>1.46</v>
@@ -34270,7 +34270,7 @@
         <v>2</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.27</v>
@@ -34488,7 +34488,7 @@
         <v>1.38</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.13</v>
@@ -34706,10 +34706,10 @@
         <v>0.71</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR157" t="n">
         <v>1.42</v>
@@ -35145,7 +35145,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR159" t="n">
         <v>2.03</v>
@@ -35578,10 +35578,10 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR161" t="n">
         <v>1.51</v>
@@ -36014,7 +36014,7 @@
         <v>0.38</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.2</v>
@@ -36232,7 +36232,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.8</v>
@@ -36453,7 +36453,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR165" t="n">
         <v>1.54</v>
@@ -36889,7 +36889,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR167" t="n">
         <v>1.07</v>
@@ -37104,7 +37104,7 @@
         <v>0.63</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ168" t="n">
         <v>1</v>
@@ -37325,7 +37325,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR169" t="n">
         <v>1.18</v>
@@ -37979,7 +37979,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR172" t="n">
         <v>1.54</v>
@@ -38197,7 +38197,7 @@
         <v>2</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR173" t="n">
         <v>1.46</v>
@@ -39069,7 +39069,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR177" t="n">
         <v>1.53</v>
@@ -39502,7 +39502,7 @@
         <v>1.7</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.19</v>
@@ -39938,10 +39938,10 @@
         <v>0.78</v>
       </c>
       <c r="AP181" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -40377,7 +40377,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR183" t="n">
         <v>1.92</v>
@@ -40810,7 +40810,7 @@
         <v>1.78</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.27</v>
@@ -41246,7 +41246,7 @@
         <v>1.64</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ187" t="n">
         <v>1.44</v>
@@ -41464,10 +41464,10 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR188" t="n">
         <v>1.2</v>
@@ -41682,7 +41682,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.2</v>
@@ -42121,7 +42121,7 @@
         <v>2</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR191" t="n">
         <v>1.48</v>
@@ -42336,10 +42336,10 @@
         <v>1.3</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR192" t="n">
         <v>1.58</v>
@@ -42554,7 +42554,7 @@
         <v>1.55</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.19</v>
@@ -42775,7 +42775,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR194" t="n">
         <v>1.11</v>
@@ -42993,7 +42993,7 @@
         <v>2</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR195" t="n">
         <v>1.61</v>
@@ -43211,7 +43211,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR196" t="n">
         <v>1.55</v>
@@ -43426,7 +43426,7 @@
         <v>0.5</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43644,7 +43644,7 @@
         <v>0.64</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.67</v>
@@ -44080,7 +44080,7 @@
         <v>1.4</v>
       </c>
       <c r="AP200" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.13</v>
@@ -44734,7 +44734,7 @@
         <v>1</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.8</v>
@@ -44955,7 +44955,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -45170,10 +45170,10 @@
         <v>0.6</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR205" t="n">
         <v>1.47</v>
@@ -45391,7 +45391,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR206" t="n">
         <v>1.64</v>
@@ -45827,7 +45827,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR208" t="n">
         <v>1.88</v>
@@ -46042,10 +46042,10 @@
         <v>0.91</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR209" t="n">
         <v>1.44</v>
@@ -46478,7 +46478,7 @@
         <v>1.36</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.13</v>
@@ -46696,7 +46696,7 @@
         <v>1.42</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.19</v>
@@ -48004,10 +48004,10 @@
         <v>1.33</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR218" t="n">
         <v>1.52</v>
@@ -48222,10 +48222,10 @@
         <v>1.08</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR219" t="n">
         <v>1.25</v>
@@ -48443,7 +48443,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR220" t="n">
         <v>1.09</v>
@@ -48658,7 +48658,7 @@
         <v>1.09</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.2</v>
@@ -49097,7 +49097,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -49315,7 +49315,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR224" t="n">
         <v>1.38</v>
@@ -49530,10 +49530,10 @@
         <v>2.09</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR225" t="n">
         <v>1.38</v>
@@ -49748,7 +49748,7 @@
         <v>1.45</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.27</v>
@@ -49966,10 +49966,10 @@
         <v>0.92</v>
       </c>
       <c r="AP227" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR227" t="n">
         <v>1.71</v>
@@ -50187,7 +50187,7 @@
         <v>2</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR228" t="n">
         <v>1.44</v>
@@ -50405,7 +50405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR229" t="n">
         <v>1.58</v>
@@ -50620,7 +50620,7 @@
         <v>1.31</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.33</v>
@@ -50841,7 +50841,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR231" t="n">
         <v>1.24</v>
@@ -51056,7 +51056,7 @@
         <v>1.62</v>
       </c>
       <c r="AP232" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.44</v>
@@ -51277,7 +51277,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR233" t="n">
         <v>1.34</v>
@@ -51710,7 +51710,7 @@
         <v>1</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.2</v>
@@ -52582,7 +52582,7 @@
         <v>1.67</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.4</v>
@@ -52800,7 +52800,7 @@
         <v>0.62</v>
       </c>
       <c r="AP240" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.06</v>
@@ -53018,7 +53018,7 @@
         <v>1.33</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.27</v>
@@ -53239,7 +53239,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR242" t="n">
         <v>1.97</v>
@@ -53675,7 +53675,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR244" t="n">
         <v>1.65</v>
@@ -53893,7 +53893,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR245" t="n">
         <v>1.55</v>
@@ -54108,7 +54108,7 @@
         <v>1.23</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.13</v>
@@ -54980,10 +54980,10 @@
         <v>1.31</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR250" t="n">
         <v>1.38</v>
@@ -55198,10 +55198,10 @@
         <v>1.5</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AR251" t="n">
         <v>1.24</v>
@@ -55416,7 +55416,7 @@
         <v>1.21</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.33</v>
@@ -55637,7 +55637,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AR253" t="n">
         <v>1.68</v>
@@ -55855,7 +55855,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR254" t="n">
         <v>1.52</v>
@@ -56073,7 +56073,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AR255" t="n">
         <v>1.63</v>
@@ -56291,7 +56291,7 @@
         <v>2</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AR256" t="n">
         <v>1.59</v>
@@ -56506,7 +56506,7 @@
         <v>0.92</v>
       </c>
       <c r="AP257" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ257" t="n">
         <v>1</v>
@@ -56724,7 +56724,7 @@
         <v>1.57</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.44</v>
@@ -56942,7 +56942,7 @@
         <v>0.79</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ259" t="n">
         <v>1.06</v>
@@ -57596,10 +57596,10 @@
         <v>0.86</v>
       </c>
       <c r="AP262" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR262" t="n">
         <v>1.43</v>
@@ -59340,7 +59340,7 @@
         <v>0.93</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.06</v>
@@ -59855,6 +59855,1532 @@
       </c>
       <c r="BP272" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5189202</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45227.04166666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>31</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>2</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['18', '31']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S273" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U273" t="n">
+        <v>4</v>
+      </c>
+      <c r="V273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X273" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL273" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN273" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO273" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP273" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5189203</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>31</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2</v>
+      </c>
+      <c r="S274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X274" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL274" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO274" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP274" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5189206</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>31</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>2</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN275" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO275" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP275" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5189208</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>31</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X276" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN276" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP276" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5189209</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>31</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S277" t="n">
+        <v>4</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U277" t="n">
+        <v>3</v>
+      </c>
+      <c r="V277" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X277" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL277" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP277" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5189210</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>4</v>
+      </c>
+      <c r="N278" t="n">
+        <v>4</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['19', '25', '48', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S278" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U278" t="n">
+        <v>3</v>
+      </c>
+      <c r="V278" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X278" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN278" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO278" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP278" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5189205</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45227.125</v>
+      </c>
+      <c r="F279" t="n">
+        <v>31</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['48', '75']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>4</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S279" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U279" t="n">
+        <v>3</v>
+      </c>
+      <c r="V279" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X279" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN279" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO279" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP279" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -3971,7 +3971,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.67</v>
@@ -7023,7 +7023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7892,7 +7892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.27</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.5</v>
@@ -12473,7 +12473,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR55" t="n">
         <v>1.7</v>
@@ -13999,7 +13999,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR62" t="n">
         <v>1.7</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.44</v>
@@ -19664,7 +19664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.8</v>
@@ -19885,7 +19885,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR89" t="n">
         <v>1.4</v>
@@ -20539,7 +20539,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR92" t="n">
         <v>1.25</v>
@@ -24027,7 +24027,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -24678,7 +24678,7 @@
         <v>0.4</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.53</v>
@@ -27079,7 +27079,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR122" t="n">
         <v>1.14</v>
@@ -27294,7 +27294,7 @@
         <v>2.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.87</v>
@@ -31218,7 +31218,7 @@
         <v>1.71</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.19</v>
@@ -34052,7 +34052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.25</v>
@@ -35363,7 +35363,7 @@
         <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR160" t="n">
         <v>1.6</v>
@@ -36671,7 +36671,7 @@
         <v>2</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR166" t="n">
         <v>1.48</v>
@@ -38848,7 +38848,7 @@
         <v>0.6</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.06</v>
@@ -40159,7 +40159,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR182" t="n">
         <v>1.66</v>
@@ -41903,7 +41903,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR190" t="n">
         <v>1.49</v>
@@ -44516,7 +44516,7 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.4</v>
@@ -47353,7 +47353,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR215" t="n">
         <v>1.96</v>
@@ -49312,7 +49312,7 @@
         <v>1.18</v>
       </c>
       <c r="AP224" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.33</v>
@@ -50623,7 +50623,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR230" t="n">
         <v>1.29</v>
@@ -51274,7 +51274,7 @@
         <v>1.62</v>
       </c>
       <c r="AP233" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.69</v>
@@ -54544,7 +54544,7 @@
         <v>1.15</v>
       </c>
       <c r="AP248" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.2</v>
@@ -55419,7 +55419,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR252" t="n">
         <v>1.44</v>
@@ -61381,6 +61381,224 @@
       </c>
       <c r="BP279" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5189204</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45228.125</v>
+      </c>
+      <c r="F280" t="n">
+        <v>31</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S280" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U280" t="n">
+        <v>3</v>
+      </c>
+      <c r="V280" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X280" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL280" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN280" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO280" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP280" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.06</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.13</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.31</v>
@@ -4625,7 +4625,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19" t="n">
         <v>1.53</v>
@@ -4843,7 +4843,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR20" t="n">
         <v>1.93</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.19</v>
@@ -5715,7 +5715,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR28" t="n">
         <v>1.2</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.31</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR33" t="n">
         <v>1.05</v>
@@ -7895,7 +7895,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR34" t="n">
         <v>1.15</v>
@@ -8113,7 +8113,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.8</v>
@@ -8546,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR37" t="n">
         <v>2.2</v>
@@ -8767,7 +8767,7 @@
         <v>2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38" t="n">
         <v>2.05</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.19</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.87</v>
@@ -11165,7 +11165,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR49" t="n">
         <v>1.01</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR50" t="n">
         <v>1.26</v>
@@ -11598,10 +11598,10 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR51" t="n">
         <v>1.11</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.75</v>
@@ -12034,10 +12034,10 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR53" t="n">
         <v>0.95</v>
@@ -12691,7 +12691,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR56" t="n">
         <v>1.43</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.31</v>
@@ -14653,7 +14653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR65" t="n">
         <v>1.03</v>
@@ -14868,10 +14868,10 @@
         <v>0.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR66" t="n">
         <v>1.31</v>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.69</v>
@@ -15525,7 +15525,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15958,7 +15958,7 @@
         <v>3</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.87</v>
@@ -16615,7 +16615,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74" t="n">
         <v>2.14</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.44</v>
@@ -17705,7 +17705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR79" t="n">
         <v>1.8</v>
@@ -18356,10 +18356,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82" t="n">
         <v>1.7</v>
@@ -18795,7 +18795,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR84" t="n">
         <v>1.07</v>
@@ -19231,7 +19231,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -20100,7 +20100,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.75</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.4</v>
@@ -20972,7 +20972,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.69</v>
@@ -21193,7 +21193,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95" t="n">
         <v>1.33</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -22065,7 +22065,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22501,7 +22501,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR101" t="n">
         <v>2.02</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR105" t="n">
         <v>1.51</v>
@@ -24245,7 +24245,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR109" t="n">
         <v>1.54</v>
@@ -24460,7 +24460,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.19</v>
@@ -24681,7 +24681,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR111" t="n">
         <v>1.2</v>
@@ -25332,10 +25332,10 @@
         <v>2.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR114" t="n">
         <v>1.16</v>
@@ -25550,7 +25550,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.69</v>
@@ -26422,10 +26422,10 @@
         <v>0.71</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR119" t="n">
         <v>1.21</v>
@@ -26640,7 +26640,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.4</v>
@@ -26861,7 +26861,7 @@
         <v>2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR121" t="n">
         <v>1.53</v>
@@ -27512,7 +27512,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
@@ -27730,7 +27730,7 @@
         <v>1.43</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.69</v>
@@ -27951,7 +27951,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR126" t="n">
         <v>1.76</v>
@@ -28169,7 +28169,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR127" t="n">
         <v>1.52</v>
@@ -28602,7 +28602,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.44</v>
@@ -29038,7 +29038,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.75</v>
@@ -29259,7 +29259,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR132" t="n">
         <v>1</v>
@@ -29477,7 +29477,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR133" t="n">
         <v>1.45</v>
@@ -29913,7 +29913,7 @@
         <v>2</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR135" t="n">
         <v>1.66</v>
@@ -30346,7 +30346,7 @@
         <v>0.71</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.25</v>
@@ -32308,7 +32308,7 @@
         <v>1.88</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.19</v>
@@ -32526,7 +32526,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.8</v>
@@ -32747,7 +32747,7 @@
         <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -32962,7 +32962,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.06</v>
@@ -33180,10 +33180,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR150" t="n">
         <v>1.85</v>
@@ -33619,7 +33619,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR152" t="n">
         <v>1.62</v>
@@ -34273,7 +34273,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34488,7 +34488,7 @@
         <v>1.38</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.13</v>
@@ -34709,7 +34709,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157" t="n">
         <v>1.42</v>
@@ -34924,7 +34924,7 @@
         <v>1.89</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.44</v>
@@ -36017,7 +36017,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -36232,7 +36232,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.8</v>
@@ -36450,10 +36450,10 @@
         <v>1.44</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR165" t="n">
         <v>1.54</v>
@@ -37322,7 +37322,7 @@
         <v>1.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.5</v>
@@ -37976,7 +37976,7 @@
         <v>2.13</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.87</v>
@@ -38633,7 +38633,7 @@
         <v>2</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR175" t="n">
         <v>1.66</v>
@@ -39069,7 +39069,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR177" t="n">
         <v>1.53</v>
@@ -39284,7 +39284,7 @@
         <v>1.1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.8</v>
@@ -39720,7 +39720,7 @@
         <v>1.78</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.4</v>
@@ -40377,7 +40377,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR183" t="n">
         <v>1.92</v>
@@ -40592,7 +40592,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -40813,7 +40813,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41682,10 +41682,10 @@
         <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR189" t="n">
         <v>1.62</v>
@@ -42336,10 +42336,10 @@
         <v>1.3</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR192" t="n">
         <v>1.58</v>
@@ -42554,7 +42554,7 @@
         <v>1.55</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.19</v>
@@ -43647,7 +43647,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR198" t="n">
         <v>1.23</v>
@@ -43862,10 +43862,10 @@
         <v>0.9</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44298,7 +44298,7 @@
         <v>0.64</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.06</v>
@@ -45173,7 +45173,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR205" t="n">
         <v>1.47</v>
@@ -46263,7 +46263,7 @@
         <v>2</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR210" t="n">
         <v>1.64</v>
@@ -46478,7 +46478,7 @@
         <v>1.36</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.13</v>
@@ -46914,7 +46914,7 @@
         <v>0.67</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.06</v>
@@ -47571,7 +47571,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR216" t="n">
         <v>1.62</v>
@@ -48004,7 +48004,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.5</v>
@@ -48222,7 +48222,7 @@
         <v>1.08</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.25</v>
@@ -48661,7 +48661,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR221" t="n">
         <v>1.43</v>
@@ -49094,7 +49094,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.75</v>
@@ -49315,7 +49315,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR224" t="n">
         <v>1.38</v>
@@ -49751,7 +49751,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR226" t="n">
         <v>1.29</v>
@@ -50187,7 +50187,7 @@
         <v>2</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR228" t="n">
         <v>1.44</v>
@@ -50402,7 +50402,7 @@
         <v>1.46</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.5</v>
@@ -50838,10 +50838,10 @@
         <v>1.17</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR231" t="n">
         <v>1.24</v>
@@ -51056,7 +51056,7 @@
         <v>1.62</v>
       </c>
       <c r="AP232" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.44</v>
@@ -51713,7 +51713,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR235" t="n">
         <v>1.39</v>
@@ -51931,7 +51931,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR236" t="n">
         <v>1.5</v>
@@ -52582,7 +52582,7 @@
         <v>1.67</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.4</v>
@@ -53021,7 +53021,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR241" t="n">
         <v>1.42</v>
@@ -53672,7 +53672,7 @@
         <v>1</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ244" t="n">
         <v>1.25</v>
@@ -53890,10 +53890,10 @@
         <v>0.58</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR245" t="n">
         <v>1.55</v>
@@ -54547,7 +54547,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR248" t="n">
         <v>1.35</v>
@@ -54983,7 +54983,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR250" t="n">
         <v>1.38</v>
@@ -55198,7 +55198,7 @@
         <v>1.5</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ251" t="n">
         <v>1.69</v>
@@ -55416,7 +55416,7 @@
         <v>1.21</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.31</v>
@@ -55634,7 +55634,7 @@
         <v>1.43</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.5</v>
@@ -56291,7 +56291,7 @@
         <v>2</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR256" t="n">
         <v>1.59</v>
@@ -57163,7 +57163,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR260" t="n">
         <v>1.94</v>
@@ -57378,7 +57378,7 @@
         <v>0.86</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.8</v>
@@ -57817,7 +57817,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR263" t="n">
         <v>1.47</v>
@@ -58250,7 +58250,7 @@
         <v>1.14</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.13</v>
@@ -58471,7 +58471,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR266" t="n">
         <v>1.15</v>
@@ -58904,10 +58904,10 @@
         <v>1.14</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR268" t="n">
         <v>1.69</v>
@@ -59997,7 +59997,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR273" t="n">
         <v>1.81</v>
@@ -60212,7 +60212,7 @@
         <v>1.53</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.5</v>
@@ -60430,7 +60430,7 @@
         <v>1.93</v>
       </c>
       <c r="AP275" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.87</v>
@@ -61305,7 +61305,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR279" t="n">
         <v>1.44</v>
@@ -61599,6 +61599,1314 @@
       </c>
       <c r="BP280" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5189217</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45241.08333333334</v>
+      </c>
+      <c r="F281" t="n">
+        <v>32</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S281" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X281" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BL281" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BM281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BN281" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BO281" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP281" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5189211</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45241.08333333334</v>
+      </c>
+      <c r="F282" t="n">
+        <v>32</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R282" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S282" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V282" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X282" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL282" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM282" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP282" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5189216</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45241.08333333334</v>
+      </c>
+      <c r="F283" t="n">
+        <v>32</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>2</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>2</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['15', '23']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S283" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V283" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X283" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL283" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM283" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP283" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5189212</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45241.125</v>
+      </c>
+      <c r="F284" t="n">
+        <v>32</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R284" t="n">
+        <v>2</v>
+      </c>
+      <c r="S284" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X284" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL284" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM284" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN284" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO284" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP284" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5189219</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45241.125</v>
+      </c>
+      <c r="F285" t="n">
+        <v>32</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2</v>
+      </c>
+      <c r="K285" t="n">
+        <v>3</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>3</v>
+      </c>
+      <c r="N285" t="n">
+        <v>4</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['10', '45+7', '89']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U285" t="n">
+        <v>3</v>
+      </c>
+      <c r="V285" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X285" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO285" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP285" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5189218</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45241.125</v>
+      </c>
+      <c r="F286" t="n">
+        <v>32</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['46', '89']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R286" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S286" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X286" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO286" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP286" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.69</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -3317,7 +3317,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.31</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.06</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR36" t="n">
         <v>2.48</v>
@@ -8985,7 +8985,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR39" t="n">
         <v>0.96</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.44</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.25</v>
@@ -9857,7 +9857,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR43" t="n">
         <v>1.25</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR44" t="n">
         <v>1.37</v>
@@ -10947,7 +10947,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR48" t="n">
         <v>1.03</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.6899999999999999</v>
@@ -14217,7 +14217,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR63" t="n">
         <v>1.41</v>
@@ -15522,7 +15522,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.19</v>
@@ -15740,7 +15740,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.19</v>
@@ -15961,7 +15961,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR71" t="n">
         <v>1.16</v>
@@ -16179,7 +16179,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR72" t="n">
         <v>1.48</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.5</v>
@@ -19228,7 +19228,7 @@
         <v>2.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.19</v>
@@ -19667,7 +19667,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR88" t="n">
         <v>1.19</v>
@@ -20757,7 +20757,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR93" t="n">
         <v>1.88</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR96" t="n">
         <v>1.51</v>
@@ -22716,10 +22716,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102" t="n">
         <v>1.36</v>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.13</v>
@@ -23806,7 +23806,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.13</v>
@@ -24899,7 +24899,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR112" t="n">
         <v>1.25</v>
@@ -25768,7 +25768,7 @@
         <v>0.17</v>
       </c>
       <c r="AP116" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.75</v>
@@ -25989,7 +25989,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117" t="n">
         <v>1.79</v>
@@ -26643,7 +26643,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR120" t="n">
         <v>1.63</v>
@@ -27297,7 +27297,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -29474,7 +29474,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.31</v>
@@ -29692,7 +29692,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -29910,7 +29910,7 @@
         <v>1.86</v>
       </c>
       <c r="AP135" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.31</v>
@@ -30567,7 +30567,7 @@
         <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR138" t="n">
         <v>1.46</v>
@@ -31439,7 +31439,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR142" t="n">
         <v>2.04</v>
@@ -31654,7 +31654,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.44</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32093,7 +32093,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR145" t="n">
         <v>1.14</v>
@@ -32529,7 +32529,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR147" t="n">
         <v>1.53</v>
@@ -33616,7 +33616,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.31</v>
@@ -33837,7 +33837,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR153" t="n">
         <v>1.8</v>
@@ -35360,7 +35360,7 @@
         <v>1.5</v>
       </c>
       <c r="AP160" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.31</v>
@@ -35581,7 +35581,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR161" t="n">
         <v>1.51</v>
@@ -35796,7 +35796,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.06</v>
@@ -36235,7 +36235,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR164" t="n">
         <v>1.17</v>
@@ -37758,7 +37758,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.06</v>
@@ -37979,7 +37979,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR172" t="n">
         <v>1.54</v>
@@ -38630,7 +38630,7 @@
         <v>0.6</v>
       </c>
       <c r="AP175" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.6899999999999999</v>
@@ -39066,7 +39066,7 @@
         <v>0.63</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.6899999999999999</v>
@@ -39287,7 +39287,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR178" t="n">
         <v>1.81</v>
@@ -39723,7 +39723,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR180" t="n">
         <v>1.18</v>
@@ -40156,7 +40156,7 @@
         <v>1.3</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.31</v>
@@ -42775,7 +42775,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR194" t="n">
         <v>1.11</v>
@@ -42990,7 +42990,7 @@
         <v>1.82</v>
       </c>
       <c r="AP195" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.69</v>
@@ -43208,7 +43208,7 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.75</v>
@@ -44519,7 +44519,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR202" t="n">
         <v>1.39</v>
@@ -44737,7 +44737,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR203" t="n">
         <v>1.36</v>
@@ -44952,10 +44952,10 @@
         <v>2</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -45388,7 +45388,7 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.75</v>
@@ -46260,7 +46260,7 @@
         <v>1.6</v>
       </c>
       <c r="AP210" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.19</v>
@@ -47568,7 +47568,7 @@
         <v>0.83</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.6899999999999999</v>
@@ -47789,7 +47789,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR217" t="n">
         <v>1.1</v>
@@ -48876,7 +48876,7 @@
         <v>1.31</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.19</v>
@@ -49533,7 +49533,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR225" t="n">
         <v>1.38</v>
@@ -51495,7 +51495,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR234" t="n">
         <v>1.42</v>
@@ -51928,7 +51928,7 @@
         <v>0.77</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.6899999999999999</v>
@@ -52146,7 +52146,7 @@
         <v>1.25</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.13</v>
@@ -52364,10 +52364,10 @@
         <v>0.85</v>
       </c>
       <c r="AP238" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR238" t="n">
         <v>1.61</v>
@@ -52585,7 +52585,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR239" t="n">
         <v>1.25</v>
@@ -53239,7 +53239,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR242" t="n">
         <v>1.97</v>
@@ -54765,7 +54765,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR249" t="n">
         <v>1.4</v>
@@ -55852,7 +55852,7 @@
         <v>1</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.25</v>
@@ -56070,10 +56070,10 @@
         <v>1.85</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR255" t="n">
         <v>1.63</v>
@@ -56288,7 +56288,7 @@
         <v>0.54</v>
       </c>
       <c r="AP256" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.6899999999999999</v>
@@ -57381,7 +57381,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ261" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR261" t="n">
         <v>1.2</v>
@@ -57814,7 +57814,7 @@
         <v>1.29</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.31</v>
@@ -58032,7 +58032,7 @@
         <v>1.07</v>
       </c>
       <c r="AP264" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ264" t="n">
         <v>1</v>
@@ -58686,7 +58686,7 @@
         <v>1.27</v>
       </c>
       <c r="AP267" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ267" t="n">
         <v>1.19</v>
@@ -59561,7 +59561,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR271" t="n">
         <v>1.89</v>
@@ -60433,7 +60433,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR275" t="n">
         <v>1.44</v>
@@ -62907,6 +62907,660 @@
       </c>
       <c r="BP286" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5189214</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45242.08333333334</v>
+      </c>
+      <c r="F287" t="n">
+        <v>32</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2</v>
+      </c>
+      <c r="J287" t="n">
+        <v>3</v>
+      </c>
+      <c r="K287" t="n">
+        <v>5</v>
+      </c>
+      <c r="L287" t="n">
+        <v>3</v>
+      </c>
+      <c r="M287" t="n">
+        <v>3</v>
+      </c>
+      <c r="N287" t="n">
+        <v>6</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['19', '45+5', '90+1']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['6', '42', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R287" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S287" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V287" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X287" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL287" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM287" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN287" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO287" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP287" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5189215</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45242.08333333334</v>
+      </c>
+      <c r="F288" t="n">
+        <v>32</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['41', '45+1']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U288" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X288" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL288" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM288" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN288" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO288" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP288" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5189213</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45242.125</v>
+      </c>
+      <c r="F289" t="n">
+        <v>32</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>2</v>
+      </c>
+      <c r="N289" t="n">
+        <v>3</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['72', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S289" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V289" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X289" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL289" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM289" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN289" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO289" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP289" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.69</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -3535,7 +3535,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR18" t="n">
         <v>1.61</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.31</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR21" t="n">
         <v>1.61</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR22" t="n">
         <v>1.4</v>
@@ -5497,7 +5497,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR25" t="n">
         <v>1.22</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR28" t="n">
         <v>1.2</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.5</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR31" t="n">
         <v>1.05</v>
@@ -7677,7 +7677,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR33" t="n">
         <v>1.05</v>
@@ -7895,7 +7895,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR34" t="n">
         <v>1.15</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.6899999999999999</v>
@@ -8331,7 +8331,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36" t="n">
         <v>2.48</v>
@@ -8982,10 +8982,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR39" t="n">
         <v>0.96</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR40" t="n">
         <v>1.61</v>
@@ -9418,10 +9418,10 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR41" t="n">
         <v>1.37</v>
@@ -9639,7 +9639,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR42" t="n">
         <v>1.84</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.31</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR46" t="n">
         <v>1.39</v>
@@ -11162,10 +11162,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR49" t="n">
         <v>1.01</v>
@@ -11383,7 +11383,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR50" t="n">
         <v>1.26</v>
@@ -11819,7 +11819,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR52" t="n">
         <v>2.13</v>
@@ -12252,7 +12252,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.69</v>
@@ -12688,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.6899999999999999</v>
@@ -12906,10 +12906,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR57" t="n">
         <v>2.14</v>
@@ -13124,10 +13124,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR58" t="n">
         <v>1.26</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR59" t="n">
         <v>1.05</v>
@@ -13560,10 +13560,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR60" t="n">
         <v>1.47</v>
@@ -14217,7 +14217,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR63" t="n">
         <v>1.41</v>
@@ -14435,7 +14435,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR64" t="n">
         <v>1.3</v>
@@ -14650,7 +14650,7 @@
         <v>2.33</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.31</v>
@@ -14871,7 +14871,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR66" t="n">
         <v>1.31</v>
@@ -15522,10 +15522,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR69" t="n">
         <v>1.37</v>
@@ -15740,10 +15740,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR70" t="n">
         <v>1.28</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.31</v>
@@ -16397,7 +16397,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR73" t="n">
         <v>1.01</v>
@@ -16612,7 +16612,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.6899999999999999</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.69</v>
@@ -17048,7 +17048,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17487,7 +17487,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR78" t="n">
         <v>1.26</v>
@@ -17705,7 +17705,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR79" t="n">
         <v>1.8</v>
@@ -17923,7 +17923,7 @@
         <v>2</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR80" t="n">
         <v>1.44</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.5</v>
@@ -18574,10 +18574,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR83" t="n">
         <v>1.03</v>
@@ -18792,7 +18792,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.31</v>
@@ -19010,10 +19010,10 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR85" t="n">
         <v>1.42</v>
@@ -19228,10 +19228,10 @@
         <v>2.4</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR87" t="n">
         <v>1.35</v>
@@ -19667,7 +19667,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88" t="n">
         <v>1.19</v>
@@ -20103,7 +20103,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR90" t="n">
         <v>1.08</v>
@@ -20321,7 +20321,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR91" t="n">
         <v>1.68</v>
@@ -21844,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -22283,7 +22283,7 @@
         <v>2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22498,10 +22498,10 @@
         <v>0.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR101" t="n">
         <v>2.02</v>
@@ -22716,10 +22716,10 @@
         <v>1.4</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102" t="n">
         <v>1.36</v>
@@ -23152,10 +23152,10 @@
         <v>2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR104" t="n">
         <v>1.03</v>
@@ -23370,7 +23370,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.6899999999999999</v>
@@ -23588,10 +23588,10 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR106" t="n">
         <v>1.29</v>
@@ -23806,10 +23806,10 @@
         <v>0.8</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR107" t="n">
         <v>1.29</v>
@@ -24024,7 +24024,7 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.31</v>
@@ -24242,7 +24242,7 @@
         <v>2.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.31</v>
@@ -24463,7 +24463,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -25117,7 +25117,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR113" t="n">
         <v>1.41</v>
@@ -25335,7 +25335,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR114" t="n">
         <v>1.16</v>
@@ -25768,10 +25768,10 @@
         <v>0.17</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR116" t="n">
         <v>1.52</v>
@@ -25989,7 +25989,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117" t="n">
         <v>1.79</v>
@@ -27076,7 +27076,7 @@
         <v>1.71</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.31</v>
@@ -27515,7 +27515,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR124" t="n">
         <v>1.29</v>
@@ -27951,7 +27951,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR126" t="n">
         <v>1.76</v>
@@ -28166,7 +28166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.6899999999999999</v>
@@ -28384,10 +28384,10 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR128" t="n">
         <v>1.93</v>
@@ -28605,7 +28605,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR129" t="n">
         <v>1.26</v>
@@ -29041,7 +29041,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR131" t="n">
         <v>1.39</v>
@@ -29256,7 +29256,7 @@
         <v>0.83</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.6899999999999999</v>
@@ -29474,10 +29474,10 @@
         <v>0.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR133" t="n">
         <v>1.45</v>
@@ -29692,7 +29692,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134" t="n">
         <v>1</v>
@@ -29910,7 +29910,7 @@
         <v>1.86</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.31</v>
@@ -30128,7 +30128,7 @@
         <v>1.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.69</v>
@@ -30349,7 +30349,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR137" t="n">
         <v>1.56</v>
@@ -30785,7 +30785,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR139" t="n">
         <v>1.51</v>
@@ -31000,10 +31000,10 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR140" t="n">
         <v>1.12</v>
@@ -31221,7 +31221,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR141" t="n">
         <v>1.45</v>
@@ -31436,10 +31436,10 @@
         <v>1</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142" t="n">
         <v>2.04</v>
@@ -31654,10 +31654,10 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR143" t="n">
         <v>1.7</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>2.33</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.94</v>
@@ -32311,7 +32311,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR146" t="n">
         <v>1.27</v>
@@ -32529,7 +32529,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147" t="n">
         <v>1.53</v>
@@ -32747,7 +32747,7 @@
         <v>2</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR148" t="n">
         <v>1.46</v>
@@ -32965,7 +32965,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR149" t="n">
         <v>1.2</v>
@@ -33398,7 +33398,7 @@
         <v>1.5</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.5</v>
@@ -33616,7 +33616,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.31</v>
@@ -34055,7 +34055,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR154" t="n">
         <v>1.46</v>
@@ -34270,10 +34270,10 @@
         <v>2</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34491,7 +34491,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR156" t="n">
         <v>1.55</v>
@@ -34927,7 +34927,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR158" t="n">
         <v>1.87</v>
@@ -35142,7 +35142,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.69</v>
@@ -35360,7 +35360,7 @@
         <v>1.5</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.31</v>
@@ -35796,10 +35796,10 @@
         <v>0.75</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR162" t="n">
         <v>1.58</v>
@@ -36014,10 +36014,10 @@
         <v>0.38</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -36235,7 +36235,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR164" t="n">
         <v>1.17</v>
@@ -36886,10 +36886,10 @@
         <v>0.78</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR167" t="n">
         <v>1.07</v>
@@ -37104,7 +37104,7 @@
         <v>0.63</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ168" t="n">
         <v>1</v>
@@ -37540,10 +37540,10 @@
         <v>1.78</v>
       </c>
       <c r="AP170" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR170" t="n">
         <v>1.52</v>
@@ -37758,10 +37758,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR171" t="n">
         <v>1.55</v>
@@ -38412,10 +38412,10 @@
         <v>1.7</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR174" t="n">
         <v>1.97</v>
@@ -38630,7 +38630,7 @@
         <v>0.6</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.6899999999999999</v>
@@ -38851,7 +38851,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR176" t="n">
         <v>1.43</v>
@@ -39066,7 +39066,7 @@
         <v>0.63</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.6899999999999999</v>
@@ -39287,7 +39287,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178" t="n">
         <v>1.81</v>
@@ -39505,7 +39505,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR179" t="n">
         <v>1.53</v>
@@ -39941,7 +39941,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR181" t="n">
         <v>1.72</v>
@@ -40156,7 +40156,7 @@
         <v>1.3</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.31</v>
@@ -40374,7 +40374,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.6899999999999999</v>
@@ -40813,7 +40813,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41028,10 +41028,10 @@
         <v>1.56</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR186" t="n">
         <v>1.49</v>
@@ -41246,10 +41246,10 @@
         <v>1.64</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR187" t="n">
         <v>1.42</v>
@@ -41464,7 +41464,7 @@
         <v>1.6</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.5</v>
@@ -41685,7 +41685,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR189" t="n">
         <v>1.62</v>
@@ -41900,7 +41900,7 @@
         <v>1.45</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.31</v>
@@ -42121,7 +42121,7 @@
         <v>2</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR191" t="n">
         <v>1.48</v>
@@ -42557,7 +42557,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR193" t="n">
         <v>1.21</v>
@@ -42772,7 +42772,7 @@
         <v>2.22</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.94</v>
@@ -42990,7 +42990,7 @@
         <v>1.82</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.69</v>
@@ -43208,10 +43208,10 @@
         <v>0.8</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR196" t="n">
         <v>1.55</v>
@@ -43644,7 +43644,7 @@
         <v>0.64</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.6899999999999999</v>
@@ -43865,7 +43865,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44083,7 +44083,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR200" t="n">
         <v>1.71</v>
@@ -44301,7 +44301,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR201" t="n">
         <v>1.54</v>
@@ -44734,10 +44734,10 @@
         <v>1</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR203" t="n">
         <v>1.36</v>
@@ -44952,7 +44952,7 @@
         <v>2</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.94</v>
@@ -45388,10 +45388,10 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR206" t="n">
         <v>1.64</v>
@@ -45609,7 +45609,7 @@
         <v>2</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR207" t="n">
         <v>1.47</v>
@@ -45824,7 +45824,7 @@
         <v>1.45</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.5</v>
@@ -46045,7 +46045,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR209" t="n">
         <v>1.44</v>
@@ -46260,10 +46260,10 @@
         <v>1.6</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR210" t="n">
         <v>1.64</v>
@@ -46481,7 +46481,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR211" t="n">
         <v>1.26</v>
@@ -46699,7 +46699,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR212" t="n">
         <v>1.42</v>
@@ -46917,7 +46917,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR213" t="n">
         <v>1.65</v>
@@ -47132,7 +47132,7 @@
         <v>0.73</v>
       </c>
       <c r="AP214" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -47350,7 +47350,7 @@
         <v>1.42</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.31</v>
@@ -47568,7 +47568,7 @@
         <v>0.83</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.6899999999999999</v>
@@ -47786,7 +47786,7 @@
         <v>1.55</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.31</v>
@@ -48225,7 +48225,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR219" t="n">
         <v>1.25</v>
@@ -48440,7 +48440,7 @@
         <v>1.75</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.69</v>
@@ -48661,7 +48661,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR221" t="n">
         <v>1.43</v>
@@ -48876,10 +48876,10 @@
         <v>1.31</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR222" t="n">
         <v>1.49</v>
@@ -49097,7 +49097,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -49530,7 +49530,7 @@
         <v>2.09</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.94</v>
@@ -49748,10 +49748,10 @@
         <v>1.45</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR226" t="n">
         <v>1.29</v>
@@ -49969,7 +49969,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR227" t="n">
         <v>1.71</v>
@@ -50620,7 +50620,7 @@
         <v>1.31</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ230" t="n">
         <v>1.31</v>
@@ -51059,7 +51059,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR232" t="n">
         <v>1.47</v>
@@ -51492,10 +51492,10 @@
         <v>0.92</v>
       </c>
       <c r="AP234" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR234" t="n">
         <v>1.42</v>
@@ -51710,10 +51710,10 @@
         <v>1</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR235" t="n">
         <v>1.39</v>
@@ -51928,7 +51928,7 @@
         <v>0.77</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.6899999999999999</v>
@@ -52146,10 +52146,10 @@
         <v>1.25</v>
       </c>
       <c r="AP237" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR237" t="n">
         <v>1.63</v>
@@ -52364,10 +52364,10 @@
         <v>0.85</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR238" t="n">
         <v>1.61</v>
@@ -52803,7 +52803,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR240" t="n">
         <v>1.76</v>
@@ -53021,7 +53021,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR241" t="n">
         <v>1.42</v>
@@ -53236,7 +53236,7 @@
         <v>2</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.94</v>
@@ -53454,7 +53454,7 @@
         <v>0.75</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -53675,7 +53675,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR244" t="n">
         <v>1.65</v>
@@ -54108,10 +54108,10 @@
         <v>1.23</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR246" t="n">
         <v>1.37</v>
@@ -54329,7 +54329,7 @@
         <v>2</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR247" t="n">
         <v>1.4</v>
@@ -54547,7 +54547,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR248" t="n">
         <v>1.35</v>
@@ -54762,7 +54762,7 @@
         <v>1.54</v>
       </c>
       <c r="AP249" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ249" t="n">
         <v>1.31</v>
@@ -55852,10 +55852,10 @@
         <v>1</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR254" t="n">
         <v>1.52</v>
@@ -56070,7 +56070,7 @@
         <v>1.85</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.94</v>
@@ -56288,7 +56288,7 @@
         <v>0.54</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.6899999999999999</v>
@@ -56727,7 +56727,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR258" t="n">
         <v>1.41</v>
@@ -56942,10 +56942,10 @@
         <v>0.79</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR259" t="n">
         <v>1.29</v>
@@ -57160,10 +57160,10 @@
         <v>1.23</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR260" t="n">
         <v>1.94</v>
@@ -57381,7 +57381,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ261" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR261" t="n">
         <v>1.2</v>
@@ -57596,10 +57596,10 @@
         <v>0.86</v>
       </c>
       <c r="AP262" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR262" t="n">
         <v>1.43</v>
@@ -57814,10 +57814,10 @@
         <v>1.29</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR263" t="n">
         <v>1.47</v>
@@ -58032,7 +58032,7 @@
         <v>1.07</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ264" t="n">
         <v>1</v>
@@ -58253,7 +58253,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR265" t="n">
         <v>1.53</v>
@@ -58468,7 +58468,7 @@
         <v>0.71</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.6899999999999999</v>
@@ -58686,10 +58686,10 @@
         <v>1.27</v>
       </c>
       <c r="AP267" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR267" t="n">
         <v>1.62</v>
@@ -58907,7 +58907,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR268" t="n">
         <v>1.69</v>
@@ -59122,10 +59122,10 @@
         <v>1.53</v>
       </c>
       <c r="AP269" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR269" t="n">
         <v>1.4</v>
@@ -59343,7 +59343,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR270" t="n">
         <v>1.37</v>
@@ -59558,7 +59558,7 @@
         <v>1.43</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.31</v>
@@ -59779,7 +59779,7 @@
         <v>2</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR272" t="n">
         <v>1.36</v>
@@ -60651,7 +60651,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR276" t="n">
         <v>1.37</v>
@@ -60866,10 +60866,10 @@
         <v>0.8</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR277" t="n">
         <v>1.32</v>
@@ -61302,7 +61302,7 @@
         <v>1.21</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ279" t="n">
         <v>1.31</v>
@@ -62177,7 +62177,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ283" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR283" t="n">
         <v>1.42</v>
@@ -62831,7 +62831,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ286" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR286" t="n">
         <v>1.66</v>
@@ -63046,10 +63046,10 @@
         <v>0.8</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ287" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR287" t="n">
         <v>1.49</v>
@@ -63264,7 +63264,7 @@
         <v>1.4</v>
       </c>
       <c r="AP288" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.31</v>
@@ -63482,7 +63482,7 @@
         <v>1.87</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ289" t="n">
         <v>1.94</v>
@@ -63561,6 +63561,1968 @@
       </c>
       <c r="BP289" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5189223</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45254.29166666666</v>
+      </c>
+      <c r="F290" t="n">
+        <v>33</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>3</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>3</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['34', '63', '84']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S290" t="n">
+        <v>4</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U290" t="n">
+        <v>3</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X290" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL290" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM290" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN290" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO290" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP290" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5189224</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45254.29166666666</v>
+      </c>
+      <c r="F291" t="n">
+        <v>33</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S291" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U291" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X291" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL291" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM291" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN291" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO291" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP291" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5189220</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>33</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>2</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2</v>
+      </c>
+      <c r="M292" t="n">
+        <v>3</v>
+      </c>
+      <c r="N292" t="n">
+        <v>5</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['18', '75']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['32', '54', '62']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2</v>
+      </c>
+      <c r="S292" t="n">
+        <v>6</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X292" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL292" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM292" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP292" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5189221</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>33</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>2</v>
+      </c>
+      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K293" t="n">
+        <v>3</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
+        <v>2</v>
+      </c>
+      <c r="N293" t="n">
+        <v>4</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['34', '38']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['4', '67']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S293" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V293" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X293" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL293" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM293" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN293" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO293" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP293" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5189222</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F294" t="n">
+        <v>33</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>3</v>
+      </c>
+      <c r="N294" t="n">
+        <v>4</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['51', '57', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>3</v>
+      </c>
+      <c r="R294" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S294" t="n">
+        <v>3</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X294" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL294" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM294" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO294" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP294" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5189225</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F295" t="n">
+        <v>33</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S295" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U295" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V295" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X295" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL295" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM295" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN295" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO295" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP295" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5189226</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>33</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S296" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X296" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL296" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM296" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN296" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO296" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP296" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5189227</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>33</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>2</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K297" t="n">
+        <v>3</v>
+      </c>
+      <c r="L297" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>3</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['12', '14']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S297" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X297" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL297" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM297" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN297" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO297" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP297" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5189228</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45255.08333333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>33</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>2</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>2</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>3</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['9', '11', '53']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X298" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL298" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM298" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN298" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO298" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP298" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -65032,13 +65032,13 @@
         <v>2</v>
       </c>
       <c r="AX296" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY296" t="n">
         <v>6</v>
       </c>
       <c r="AZ296" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA296" t="n">
         <v>11</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.35</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.18</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.12</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.9399999999999999</v>
@@ -4625,7 +4625,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR19" t="n">
         <v>1.53</v>
@@ -4843,7 +4843,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR20" t="n">
         <v>1.93</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.29</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -6151,7 +6151,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.12</v>
@@ -6805,7 +6805,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR30" t="n">
         <v>1.4</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR32" t="n">
         <v>1.7</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.41</v>
@@ -8113,7 +8113,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.9399999999999999</v>
@@ -8546,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR37" t="n">
         <v>2.2</v>
@@ -8764,10 +8764,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR38" t="n">
         <v>2.05</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.29</v>
@@ -9854,10 +9854,10 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.25</v>
@@ -10075,7 +10075,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR44" t="n">
         <v>1.37</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.18</v>
@@ -10729,7 +10729,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -10944,10 +10944,10 @@
         <v>3</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.03</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.12</v>
@@ -11598,10 +11598,10 @@
         <v>2</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR51" t="n">
         <v>1.11</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.71</v>
@@ -12034,10 +12034,10 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR53" t="n">
         <v>0.95</v>
@@ -12255,7 +12255,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR54" t="n">
         <v>1.08</v>
@@ -12470,10 +12470,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR55" t="n">
         <v>1.7</v>
@@ -12691,7 +12691,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR56" t="n">
         <v>1.43</v>
@@ -13778,10 +13778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR61" t="n">
         <v>1.47</v>
@@ -13996,10 +13996,10 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR62" t="n">
         <v>1.7</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.9399999999999999</v>
@@ -14653,7 +14653,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR65" t="n">
         <v>1.03</v>
@@ -14868,7 +14868,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.41</v>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ67" t="n">
         <v>1</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR68" t="n">
         <v>1.93</v>
@@ -15958,10 +15958,10 @@
         <v>3</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.16</v>
@@ -16179,7 +16179,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR72" t="n">
         <v>1.48</v>
@@ -16394,7 +16394,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.71</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR74" t="n">
         <v>2.14</v>
@@ -16833,7 +16833,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR75" t="n">
         <v>1.32</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.12</v>
@@ -17484,7 +17484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.35</v>
@@ -17702,7 +17702,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.41</v>
@@ -17920,7 +17920,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.18</v>
@@ -18141,7 +18141,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR81" t="n">
         <v>1.38</v>
@@ -18356,10 +18356,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR82" t="n">
         <v>1.7</v>
@@ -18795,7 +18795,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR84" t="n">
         <v>1.07</v>
@@ -19882,10 +19882,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR89" t="n">
         <v>1.4</v>
@@ -20100,7 +20100,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.71</v>
@@ -20318,7 +20318,7 @@
         <v>1.8</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.35</v>
@@ -20536,10 +20536,10 @@
         <v>1.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR92" t="n">
         <v>1.25</v>
@@ -20754,10 +20754,10 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR93" t="n">
         <v>1.88</v>
@@ -20972,10 +20972,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR94" t="n">
         <v>1.02</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR95" t="n">
         <v>1.33</v>
@@ -21408,10 +21408,10 @@
         <v>3</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.51</v>
@@ -21626,7 +21626,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -22062,10 +22062,10 @@
         <v>0.83</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR99" t="n">
         <v>1.59</v>
@@ -22280,7 +22280,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.71</v>
@@ -22934,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR105" t="n">
         <v>1.51</v>
@@ -24027,7 +24027,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -24245,7 +24245,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR109" t="n">
         <v>1.54</v>
@@ -24460,7 +24460,7 @@
         <v>1.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.29</v>
@@ -24681,7 +24681,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR111" t="n">
         <v>1.2</v>
@@ -24896,10 +24896,10 @@
         <v>1.4</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR112" t="n">
         <v>1.25</v>
@@ -25114,7 +25114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.12</v>
@@ -25332,7 +25332,7 @@
         <v>2.17</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.12</v>
@@ -25550,10 +25550,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR115" t="n">
         <v>1.35</v>
@@ -25986,7 +25986,7 @@
         <v>1.17</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.9399999999999999</v>
@@ -26204,10 +26204,10 @@
         <v>1.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR118" t="n">
         <v>1.51</v>
@@ -26422,10 +26422,10 @@
         <v>0.71</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR119" t="n">
         <v>1.21</v>
@@ -26640,10 +26640,10 @@
         <v>1.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR120" t="n">
         <v>1.63</v>
@@ -26858,10 +26858,10 @@
         <v>2.17</v>
       </c>
       <c r="AP121" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR121" t="n">
         <v>1.53</v>
@@ -27079,7 +27079,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR122" t="n">
         <v>1.14</v>
@@ -27297,7 +27297,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR123" t="n">
         <v>1.44</v>
@@ -27512,7 +27512,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.24</v>
@@ -27730,10 +27730,10 @@
         <v>1.43</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR125" t="n">
         <v>1.84</v>
@@ -27948,7 +27948,7 @@
         <v>1.86</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.12</v>
@@ -28169,7 +28169,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR127" t="n">
         <v>1.52</v>
@@ -28602,7 +28602,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.35</v>
@@ -28820,10 +28820,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR130" t="n">
         <v>1.33</v>
@@ -29038,7 +29038,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.71</v>
@@ -29259,7 +29259,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR132" t="n">
         <v>1</v>
@@ -29913,7 +29913,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR135" t="n">
         <v>1.66</v>
@@ -30131,7 +30131,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR136" t="n">
         <v>1.33</v>
@@ -30346,7 +30346,7 @@
         <v>0.71</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.24</v>
@@ -30564,10 +30564,10 @@
         <v>1.86</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR138" t="n">
         <v>1.46</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.71</v>
@@ -32093,7 +32093,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR145" t="n">
         <v>1.14</v>
@@ -32308,7 +32308,7 @@
         <v>1.88</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.29</v>
@@ -32526,7 +32526,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.9399999999999999</v>
@@ -32744,7 +32744,7 @@
         <v>0.43</v>
       </c>
       <c r="AP148" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.41</v>
@@ -32962,7 +32962,7 @@
         <v>0.86</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.18</v>
@@ -33180,10 +33180,10 @@
         <v>0.67</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR150" t="n">
         <v>1.85</v>
@@ -33401,7 +33401,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR151" t="n">
         <v>1.08</v>
@@ -33619,7 +33619,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR152" t="n">
         <v>1.62</v>
@@ -33834,10 +33834,10 @@
         <v>1.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR153" t="n">
         <v>1.8</v>
@@ -34488,7 +34488,7 @@
         <v>1.38</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.12</v>
@@ -34706,10 +34706,10 @@
         <v>0.71</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR157" t="n">
         <v>1.42</v>
@@ -34924,7 +34924,7 @@
         <v>1.89</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.35</v>
@@ -35145,7 +35145,7 @@
         <v>2</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR159" t="n">
         <v>2.03</v>
@@ -35363,7 +35363,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR160" t="n">
         <v>1.6</v>
@@ -35578,10 +35578,10 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR161" t="n">
         <v>1.51</v>
@@ -36232,7 +36232,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.9399999999999999</v>
@@ -36450,10 +36450,10 @@
         <v>1.44</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR165" t="n">
         <v>1.54</v>
@@ -36668,10 +36668,10 @@
         <v>1.44</v>
       </c>
       <c r="AP166" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR166" t="n">
         <v>1.48</v>
@@ -37322,10 +37322,10 @@
         <v>1.44</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR169" t="n">
         <v>1.18</v>
@@ -37976,10 +37976,10 @@
         <v>2.13</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR172" t="n">
         <v>1.54</v>
@@ -38194,10 +38194,10 @@
         <v>1.9</v>
       </c>
       <c r="AP173" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR173" t="n">
         <v>1.46</v>
@@ -38633,7 +38633,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR175" t="n">
         <v>1.66</v>
@@ -39069,7 +39069,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR177" t="n">
         <v>1.53</v>
@@ -39284,7 +39284,7 @@
         <v>1.1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.9399999999999999</v>
@@ -39502,7 +39502,7 @@
         <v>1.7</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.29</v>
@@ -39720,10 +39720,10 @@
         <v>1.78</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR180" t="n">
         <v>1.18</v>
@@ -39938,7 +39938,7 @@
         <v>0.78</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.24</v>
@@ -40159,7 +40159,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR182" t="n">
         <v>1.66</v>
@@ -40377,7 +40377,7 @@
         <v>2</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR183" t="n">
         <v>1.92</v>
@@ -40592,7 +40592,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -40810,7 +40810,7 @@
         <v>1.78</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.12</v>
@@ -41467,7 +41467,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR188" t="n">
         <v>1.2</v>
@@ -41682,7 +41682,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.41</v>
@@ -41903,7 +41903,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR190" t="n">
         <v>1.49</v>
@@ -42118,7 +42118,7 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.24</v>
@@ -42336,10 +42336,10 @@
         <v>1.3</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR192" t="n">
         <v>1.58</v>
@@ -42554,7 +42554,7 @@
         <v>1.55</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.29</v>
@@ -42775,7 +42775,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR194" t="n">
         <v>1.11</v>
@@ -42993,7 +42993,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR195" t="n">
         <v>1.61</v>
@@ -43426,7 +43426,7 @@
         <v>0.5</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43647,7 +43647,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR198" t="n">
         <v>1.23</v>
@@ -43862,7 +43862,7 @@
         <v>0.9</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.41</v>
@@ -44080,7 +44080,7 @@
         <v>1.4</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.12</v>
@@ -44298,7 +44298,7 @@
         <v>0.64</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.18</v>
@@ -44519,7 +44519,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR202" t="n">
         <v>1.39</v>
@@ -44955,7 +44955,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR204" t="n">
         <v>1.57</v>
@@ -45170,10 +45170,10 @@
         <v>0.6</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR205" t="n">
         <v>1.47</v>
@@ -45606,7 +45606,7 @@
         <v>1.75</v>
       </c>
       <c r="AP207" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.35</v>
@@ -45827,7 +45827,7 @@
         <v>2</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR208" t="n">
         <v>1.88</v>
@@ -46042,7 +46042,7 @@
         <v>0.91</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.24</v>
@@ -46478,7 +46478,7 @@
         <v>1.36</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.12</v>
@@ -46696,7 +46696,7 @@
         <v>1.42</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.29</v>
@@ -46914,7 +46914,7 @@
         <v>0.67</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.18</v>
@@ -47353,7 +47353,7 @@
         <v>2</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR215" t="n">
         <v>1.96</v>
@@ -47571,7 +47571,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR216" t="n">
         <v>1.62</v>
@@ -47789,7 +47789,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR217" t="n">
         <v>1.1</v>
@@ -48004,10 +48004,10 @@
         <v>1.33</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR218" t="n">
         <v>1.52</v>
@@ -48222,7 +48222,7 @@
         <v>1.08</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.24</v>
@@ -48443,7 +48443,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR220" t="n">
         <v>1.09</v>
@@ -48658,7 +48658,7 @@
         <v>1.09</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.41</v>
@@ -49094,7 +49094,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.71</v>
@@ -49315,7 +49315,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR224" t="n">
         <v>1.38</v>
@@ -49533,7 +49533,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR225" t="n">
         <v>1.38</v>
@@ -49966,7 +49966,7 @@
         <v>0.92</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.71</v>
@@ -50184,10 +50184,10 @@
         <v>0.55</v>
       </c>
       <c r="AP228" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR228" t="n">
         <v>1.44</v>
@@ -50402,10 +50402,10 @@
         <v>1.46</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR229" t="n">
         <v>1.58</v>
@@ -50623,7 +50623,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR230" t="n">
         <v>1.29</v>
@@ -50838,10 +50838,10 @@
         <v>1.17</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR231" t="n">
         <v>1.24</v>
@@ -51056,7 +51056,7 @@
         <v>1.62</v>
       </c>
       <c r="AP232" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.35</v>
@@ -51277,7 +51277,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR233" t="n">
         <v>1.34</v>
@@ -51931,7 +51931,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR236" t="n">
         <v>1.5</v>
@@ -52582,10 +52582,10 @@
         <v>1.67</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR239" t="n">
         <v>1.25</v>
@@ -52800,7 +52800,7 @@
         <v>0.62</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.18</v>
@@ -53018,7 +53018,7 @@
         <v>1.33</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.12</v>
@@ -53239,7 +53239,7 @@
         <v>2</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR242" t="n">
         <v>1.97</v>
@@ -53672,7 +53672,7 @@
         <v>1</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ244" t="n">
         <v>1.24</v>
@@ -53890,10 +53890,10 @@
         <v>0.58</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR245" t="n">
         <v>1.55</v>
@@ -54326,7 +54326,7 @@
         <v>1.29</v>
       </c>
       <c r="AP247" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.29</v>
@@ -54765,7 +54765,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR249" t="n">
         <v>1.4</v>
@@ -54980,10 +54980,10 @@
         <v>1.31</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR250" t="n">
         <v>1.38</v>
@@ -55198,10 +55198,10 @@
         <v>1.5</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR251" t="n">
         <v>1.24</v>
@@ -55416,10 +55416,10 @@
         <v>1.21</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR252" t="n">
         <v>1.44</v>
@@ -55634,10 +55634,10 @@
         <v>1.43</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR253" t="n">
         <v>1.68</v>
@@ -56073,7 +56073,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR255" t="n">
         <v>1.63</v>
@@ -56291,7 +56291,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR256" t="n">
         <v>1.59</v>
@@ -56506,7 +56506,7 @@
         <v>0.92</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ257" t="n">
         <v>1</v>
@@ -56724,7 +56724,7 @@
         <v>1.57</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.35</v>
@@ -57378,7 +57378,7 @@
         <v>0.86</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.9399999999999999</v>
@@ -58250,7 +58250,7 @@
         <v>1.14</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.12</v>
@@ -58471,7 +58471,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR266" t="n">
         <v>1.15</v>
@@ -58904,7 +58904,7 @@
         <v>1.14</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.12</v>
@@ -59340,7 +59340,7 @@
         <v>0.93</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.18</v>
@@ -59561,7 +59561,7 @@
         <v>2</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR271" t="n">
         <v>1.89</v>
@@ -59776,7 +59776,7 @@
         <v>1.13</v>
       </c>
       <c r="AP272" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ272" t="n">
         <v>1.12</v>
@@ -59994,10 +59994,10 @@
         <v>0.57</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR273" t="n">
         <v>1.81</v>
@@ -60212,10 +60212,10 @@
         <v>1.53</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR274" t="n">
         <v>1.25</v>
@@ -60430,10 +60430,10 @@
         <v>1.93</v>
       </c>
       <c r="AP275" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR275" t="n">
         <v>1.44</v>
@@ -60648,7 +60648,7 @@
         <v>1.13</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.24</v>
@@ -61084,10 +61084,10 @@
         <v>1.6</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR278" t="n">
         <v>1.38</v>
@@ -61305,7 +61305,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR279" t="n">
         <v>1.44</v>
@@ -61523,7 +61523,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR280" t="n">
         <v>1.37</v>
@@ -61738,10 +61738,10 @@
         <v>0.67</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR281" t="n">
         <v>1.51</v>
@@ -61956,10 +61956,10 @@
         <v>1.33</v>
       </c>
       <c r="AP282" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AR282" t="n">
         <v>1.85</v>
@@ -62174,7 +62174,7 @@
         <v>1.27</v>
       </c>
       <c r="AP283" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ283" t="n">
         <v>1.12</v>
@@ -62392,7 +62392,7 @@
         <v>1</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ284" t="n">
         <v>1</v>
@@ -62610,10 +62610,10 @@
         <v>0.53</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ285" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR285" t="n">
         <v>1.26</v>
@@ -62828,7 +62828,7 @@
         <v>1.2</v>
       </c>
       <c r="AP286" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ286" t="n">
         <v>1.41</v>
@@ -63267,7 +63267,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR288" t="n">
         <v>1.63</v>
@@ -63485,7 +63485,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR289" t="n">
         <v>1.54</v>
@@ -65523,6 +65523,1968 @@
       </c>
       <c r="BP298" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>5189235</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F299" t="n">
+        <v>34</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R299" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U299" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X299" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM299" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN299" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO299" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP299" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>5189234</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F300" t="n">
+        <v>34</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>1</v>
+      </c>
+      <c r="K300" t="n">
+        <v>2</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="n">
+        <v>4</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['45+4', '54', '58']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U300" t="n">
+        <v>4</v>
+      </c>
+      <c r="V300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X300" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL300" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM300" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO300" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP300" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>5189232</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F301" t="n">
+        <v>34</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R301" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S301" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V301" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X301" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL301" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM301" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN301" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO301" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP301" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>5189236</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F302" t="n">
+        <v>34</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>5</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S302" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X302" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL302" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM302" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN302" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO302" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP302" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5189230</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F303" t="n">
+        <v>34</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2</v>
+      </c>
+      <c r="L303" t="n">
+        <v>2</v>
+      </c>
+      <c r="M303" t="n">
+        <v>1</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['18', '41']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R303" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S303" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V303" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X303" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL303" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM303" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN303" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO303" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP303" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5189229</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F304" t="n">
+        <v>34</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>2</v>
+      </c>
+      <c r="N304" t="n">
+        <v>2</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['58', '72']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R304" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U304" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V304" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X304" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL304" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM304" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN304" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO304" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP304" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>5189231</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F305" t="n">
+        <v>34</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R305" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U305" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X305" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL305" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM305" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN305" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO305" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP305" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>5189237</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45263.08333333334</v>
+      </c>
+      <c r="F306" t="n">
+        <v>34</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>4</v>
+      </c>
+      <c r="R306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S306" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U306" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V306" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X306" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL306" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM306" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN306" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO306" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP306" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>5189233</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Japan J1 League</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45263.11458333334</v>
+      </c>
+      <c r="F307" t="n">
+        <v>34</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+      <c r="N307" t="n">
+        <v>2</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>3</v>
+      </c>
+      <c r="R307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S307" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V307" t="n">
+        <v>3</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X307" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL307" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM307" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN307" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP307" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J1 League_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
